--- a/JupyterNotebooks/AvgHW/GossA-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
+    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,22 +653,22 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9980960839829216</v>
+      </c>
+      <c r="D3">
+        <v>1.001089191760224</v>
+      </c>
+      <c r="E3">
+        <v>1.000944397179965</v>
+      </c>
+      <c r="F3">
+        <v>0.9993466711750461</v>
+      </c>
+      <c r="G3">
         <v>1.003182513720308</v>
       </c>
-      <c r="D3">
-        <v>0.9973134401553432</v>
-      </c>
-      <c r="E3">
-        <v>0.9999407838510856</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
         <v>1.003182513720308</v>
-      </c>
-      <c r="G3">
-        <v>0.9993466711750461</v>
-      </c>
-      <c r="H3">
-        <v>1.000944397179965</v>
       </c>
       <c r="I3">
         <v>1.003182513720308</v>
@@ -725,13 +677,13 @@
         <v>0.9973134401553432</v>
       </c>
       <c r="K3">
-        <v>0.9989591005917222</v>
+        <v>0.9999407838510856</v>
       </c>
       <c r="L3">
-        <v>1.001089191760224</v>
+        <v>0.9989591005917224</v>
       </c>
       <c r="M3">
-        <v>0.9980960839829216</v>
+        <v>0.9973134401553432</v>
       </c>
       <c r="N3">
         <v>1.003182513720308</v>
@@ -761,10 +713,10 @@
         <v>1.000593184524418</v>
       </c>
       <c r="W3">
-        <v>0.9998590228020769</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9998590228020771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,22 +724,22 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9963299276036417</v>
+      </c>
+      <c r="D4">
+        <v>1.002110686467543</v>
+      </c>
+      <c r="E4">
+        <v>1.001815313405847</v>
+      </c>
+      <c r="F4">
+        <v>0.9987423385640173</v>
+      </c>
+      <c r="G4">
         <v>1.006166108757411</v>
       </c>
-      <c r="D4">
-        <v>0.9948234880996217</v>
-      </c>
-      <c r="E4">
-        <v>0.9998626105243392</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
         <v>1.006166108757411</v>
-      </c>
-      <c r="G4">
-        <v>0.9987423385640173</v>
-      </c>
-      <c r="H4">
-        <v>1.001815313405847</v>
       </c>
       <c r="I4">
         <v>1.006166108757411</v>
@@ -796,13 +748,13 @@
         <v>0.9948234880996217</v>
       </c>
       <c r="K4">
+        <v>0.9998626105243392</v>
+      </c>
+      <c r="L4">
         <v>0.9979823566857609</v>
       </c>
-      <c r="L4">
-        <v>1.002110686467543</v>
-      </c>
       <c r="M4">
-        <v>0.9963299276036417</v>
+        <v>0.9948234880996217</v>
       </c>
       <c r="N4">
         <v>1.006166108757411</v>
@@ -835,7 +787,7 @@
         <v>0.9997291037635228</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,22 +795,22 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9929133341511526</v>
+      </c>
+      <c r="D5">
+        <v>1.003975844578955</v>
+      </c>
+      <c r="E5">
+        <v>1.003547676424748</v>
+      </c>
+      <c r="F5">
+        <v>0.9975691815161436</v>
+      </c>
+      <c r="G5">
         <v>1.011588130794782</v>
       </c>
-      <c r="D5">
-        <v>0.9899564656723986</v>
-      </c>
-      <c r="E5">
-        <v>0.9999506472500291</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
         <v>1.011588130794782</v>
-      </c>
-      <c r="G5">
-        <v>0.9975691815161436</v>
-      </c>
-      <c r="H5">
-        <v>1.003547676424748</v>
       </c>
       <c r="I5">
         <v>1.011588130794782</v>
@@ -867,13 +819,13 @@
         <v>0.9899564656723986</v>
       </c>
       <c r="K5">
+        <v>0.9999506472500291</v>
+      </c>
+      <c r="L5">
         <v>0.9962201911651369</v>
       </c>
-      <c r="L5">
-        <v>1.003975844578955</v>
-      </c>
       <c r="M5">
-        <v>0.9929133341511526</v>
+        <v>0.9899564656723986</v>
       </c>
       <c r="N5">
         <v>1.011588130794782</v>
@@ -906,7 +858,7 @@
         <v>0.9994651839441684</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,22 +866,22 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9895803334541786</v>
+      </c>
+      <c r="D6">
+        <v>1.005799116906693</v>
+      </c>
+      <c r="E6">
+        <v>1.005235586937834</v>
+      </c>
+      <c r="F6">
+        <v>0.9964264377401866</v>
+      </c>
+      <c r="G6">
         <v>1.016884936926356</v>
       </c>
-      <c r="D6">
-        <v>0.9852068918964512</v>
-      </c>
-      <c r="E6">
-        <v>1.000029305994281</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
         <v>1.016884936926356</v>
-      </c>
-      <c r="G6">
-        <v>0.9964264377401866</v>
-      </c>
-      <c r="H6">
-        <v>1.005235586937834</v>
       </c>
       <c r="I6">
         <v>1.016884936926356</v>
@@ -938,13 +890,13 @@
         <v>0.9852068918964512</v>
       </c>
       <c r="K6">
+        <v>1.000029305994281</v>
+      </c>
+      <c r="L6">
         <v>0.9944987291372299</v>
       </c>
-      <c r="L6">
-        <v>1.005799116906693</v>
-      </c>
       <c r="M6">
-        <v>0.9895803334541786</v>
+        <v>0.9852068918964512</v>
       </c>
       <c r="N6">
         <v>1.016884936926356</v>
@@ -977,7 +929,7 @@
         <v>0.9992076673741512</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +937,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999884843727408</v>
+        <v>0.99991873304326</v>
       </c>
       <c r="D7">
-        <v>0.9998628130148679</v>
+        <v>1.000000438172581</v>
       </c>
       <c r="E7">
-        <v>1.000097256621646</v>
+        <v>1.000059852601771</v>
       </c>
       <c r="F7">
-        <v>0.9999884843727408</v>
+        <v>0.9999711876002385</v>
       </c>
       <c r="G7">
-        <v>0.9999711876002386</v>
+        <v>0.999988484372741</v>
       </c>
       <c r="H7">
-        <v>1.000059852601771</v>
+        <v>0.999988484372741</v>
       </c>
       <c r="I7">
-        <v>0.9999884843727408</v>
+        <v>0.999988484372741</v>
       </c>
       <c r="J7">
-        <v>0.9998628130148679</v>
+        <v>0.9998628130148677</v>
       </c>
       <c r="K7">
+        <v>1.000097256621645</v>
+      </c>
+      <c r="L7">
         <v>1.000009373178381</v>
       </c>
-      <c r="L7">
-        <v>1.000000438172581</v>
-      </c>
       <c r="M7">
-        <v>0.9999187330432601</v>
+        <v>0.9998628130148677</v>
       </c>
       <c r="N7">
-        <v>0.9999884843727408</v>
+        <v>0.999988484372741</v>
       </c>
       <c r="O7">
-        <v>1.000097256621646</v>
+        <v>1.000097256621645</v>
       </c>
       <c r="P7">
-        <v>0.9999800348182568</v>
+        <v>0.9999800348182565</v>
       </c>
       <c r="Q7">
         <v>1.000034222110942</v>
       </c>
       <c r="R7">
-        <v>0.9999828513364181</v>
+        <v>0.999982851336418</v>
       </c>
       <c r="S7">
-        <v>0.999977085745584</v>
+        <v>0.9999770857455839</v>
       </c>
       <c r="T7">
         <v>0.9999828513364181</v>
       </c>
       <c r="U7">
-        <v>0.9999799354023733</v>
+        <v>0.9999799354023732</v>
       </c>
       <c r="V7">
-        <v>0.9999816451964468</v>
+        <v>0.9999816451964467</v>
       </c>
       <c r="W7">
-        <v>0.9999885173256858</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9999885173256857</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,40 +1008,40 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998549405956717</v>
+        <v>0.9999361608141524</v>
       </c>
       <c r="D8">
-        <v>0.9998763468240668</v>
+        <v>0.9999553389915542</v>
       </c>
       <c r="E8">
+        <v>1.000066939117012</v>
+      </c>
+      <c r="F8">
+        <v>0.9999736009109107</v>
+      </c>
+      <c r="G8">
+        <v>0.9998549405956716</v>
+      </c>
+      <c r="H8">
+        <v>0.9998549405956716</v>
+      </c>
+      <c r="I8">
+        <v>0.9998549405956716</v>
+      </c>
+      <c r="J8">
+        <v>0.9998763468240673</v>
+      </c>
+      <c r="K8">
         <v>1.000172325160165</v>
       </c>
-      <c r="F8">
-        <v>0.9998549405956717</v>
-      </c>
-      <c r="G8">
-        <v>0.999973600910911</v>
-      </c>
-      <c r="H8">
-        <v>1.000066939117013</v>
-      </c>
-      <c r="I8">
-        <v>0.9998549405956717</v>
-      </c>
-      <c r="J8">
-        <v>0.9998763468240668</v>
-      </c>
-      <c r="K8">
+      <c r="L8">
         <v>1.00005647707301</v>
       </c>
-      <c r="L8">
-        <v>0.9999553389915542</v>
-      </c>
       <c r="M8">
-        <v>0.9999361608141525</v>
+        <v>0.9998763468240673</v>
       </c>
       <c r="N8">
-        <v>0.9998549405956717</v>
+        <v>0.9998549405956716</v>
       </c>
       <c r="O8">
         <v>1.000172325160165</v>
@@ -1101,25 +1053,25 @@
         <v>1.000072963035538</v>
       </c>
       <c r="R8">
-        <v>0.9999678708599679</v>
+        <v>0.999967870859968</v>
       </c>
       <c r="S8">
         <v>1.000007424298381</v>
       </c>
       <c r="T8">
-        <v>0.9999678708599679</v>
+        <v>0.999967870859968</v>
       </c>
       <c r="U8">
         <v>0.9999693033727036</v>
       </c>
       <c r="V8">
-        <v>0.9999464308172973</v>
+        <v>0.9999464308172972</v>
       </c>
       <c r="W8">
-        <v>0.9999865161858181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999865161858179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,22 +1079,22 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.000174626507368</v>
+      </c>
+      <c r="D9">
+        <v>0.9998577339844977</v>
+      </c>
+      <c r="E9">
+        <v>0.9999340597097535</v>
+      </c>
+      <c r="F9">
+        <v>1.000049699363432</v>
+      </c>
+      <c r="G9">
         <v>0.9995987428932059</v>
       </c>
-      <c r="D9">
-        <v>1.000245746394825</v>
-      </c>
-      <c r="E9">
-        <v>1.000092017773682</v>
-      </c>
-      <c r="F9">
+      <c r="H9">
         <v>0.9995987428932059</v>
-      </c>
-      <c r="G9">
-        <v>1.000049699363432</v>
-      </c>
-      <c r="H9">
-        <v>0.9999340597097535</v>
       </c>
       <c r="I9">
         <v>0.9995987428932059</v>
@@ -1151,13 +1103,13 @@
         <v>1.000245746394825</v>
       </c>
       <c r="K9">
+        <v>1.000092017773682</v>
+      </c>
+      <c r="L9">
         <v>1.000133601617147</v>
       </c>
-      <c r="L9">
-        <v>0.9998577339844977</v>
-      </c>
       <c r="M9">
-        <v>1.000174626507368</v>
+        <v>1.000245746394825</v>
       </c>
       <c r="N9">
         <v>0.9995987428932059</v>
@@ -1190,7 +1142,7 @@
         <v>1.000010778530489</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,40 +1150,40 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.999297417029522</v>
+        <v>1.000133305375537</v>
       </c>
       <c r="D10">
-        <v>1.000140988502879</v>
+        <v>0.9997604394699503</v>
       </c>
       <c r="E10">
+        <v>1.000007580073901</v>
+      </c>
+      <c r="F10">
+        <v>1.000027160799237</v>
+      </c>
+      <c r="G10">
+        <v>0.9992974170295222</v>
+      </c>
+      <c r="H10">
+        <v>0.9992974170295222</v>
+      </c>
+      <c r="I10">
+        <v>0.9992974170295222</v>
+      </c>
+      <c r="J10">
+        <v>1.00014098850288</v>
+      </c>
+      <c r="K10">
         <v>1.000349468785367</v>
       </c>
-      <c r="F10">
-        <v>0.999297417029522</v>
-      </c>
-      <c r="G10">
-        <v>1.000027160799237</v>
-      </c>
-      <c r="H10">
-        <v>1.000007580073901</v>
-      </c>
-      <c r="I10">
-        <v>0.999297417029522</v>
-      </c>
-      <c r="J10">
-        <v>1.000140988502879</v>
-      </c>
-      <c r="K10">
+      <c r="L10">
         <v>1.000245118731539</v>
       </c>
-      <c r="L10">
-        <v>0.9997604394699503</v>
-      </c>
       <c r="M10">
-        <v>1.000133305375537</v>
+        <v>1.00014098850288</v>
       </c>
       <c r="N10">
-        <v>0.999297417029522</v>
+        <v>0.9992974170295222</v>
       </c>
       <c r="O10">
         <v>1.000349468785367</v>
@@ -1243,25 +1195,25 @@
         <v>1.000188314792302</v>
       </c>
       <c r="R10">
-        <v>0.999929291439256</v>
+        <v>0.9999292914392562</v>
       </c>
       <c r="S10">
         <v>1.000172539362495</v>
       </c>
       <c r="T10">
-        <v>0.999929291439256</v>
+        <v>0.9999292914392562</v>
       </c>
       <c r="U10">
-        <v>0.9999537587792513</v>
+        <v>0.9999537587792515</v>
       </c>
       <c r="V10">
-        <v>0.9998224904293055</v>
+        <v>0.9998224904293057</v>
       </c>
       <c r="W10">
         <v>0.9999951848459916</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,22 +1221,22 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.000825544319236</v>
+      </c>
+      <c r="D11">
+        <v>0.9994229713965666</v>
+      </c>
+      <c r="E11">
+        <v>0.9996463861997597</v>
+      </c>
+      <c r="F11">
+        <v>1.000241515885161</v>
+      </c>
+      <c r="G11">
         <v>0.9983957496122602</v>
       </c>
-      <c r="D11">
-        <v>1.001198526200765</v>
-      </c>
-      <c r="E11">
-        <v>1.000230600643486</v>
-      </c>
-      <c r="F11">
+      <c r="H11">
         <v>0.9983957496122602</v>
-      </c>
-      <c r="G11">
-        <v>1.000241515885161</v>
-      </c>
-      <c r="H11">
-        <v>0.9996463861997597</v>
       </c>
       <c r="I11">
         <v>0.9983957496122602</v>
@@ -1293,13 +1245,13 @@
         <v>1.001198526200765</v>
       </c>
       <c r="K11">
+        <v>1.000230600643486</v>
+      </c>
+      <c r="L11">
         <v>1.000525627725315</v>
       </c>
-      <c r="L11">
-        <v>0.9994229713965666</v>
-      </c>
       <c r="M11">
-        <v>1.000825544319236</v>
+        <v>1.001198526200765</v>
       </c>
       <c r="N11">
         <v>0.9983957496122602</v>
@@ -1332,7 +1284,7 @@
         <v>1.000060865247819</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,22 +1292,22 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9969380340360081</v>
+      </c>
+      <c r="D12">
+        <v>1.002520573470641</v>
+      </c>
+      <c r="E12">
+        <v>1.001036825181439</v>
+      </c>
+      <c r="F12">
+        <v>0.9995049579417656</v>
+      </c>
+      <c r="G12">
         <v>1.006068376289979</v>
       </c>
-      <c r="D12">
-        <v>0.9948998809505066</v>
-      </c>
-      <c r="E12">
-        <v>0.9985390216161666</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
         <v>1.006068376289979</v>
-      </c>
-      <c r="G12">
-        <v>0.9995049579417656</v>
-      </c>
-      <c r="H12">
-        <v>1.001036825181439</v>
       </c>
       <c r="I12">
         <v>1.006068376289979</v>
@@ -1364,13 +1316,13 @@
         <v>0.9948998809505066</v>
       </c>
       <c r="K12">
+        <v>0.9985390216161666</v>
+      </c>
+      <c r="L12">
         <v>0.9980826254893002</v>
       </c>
-      <c r="L12">
-        <v>1.002520573470641</v>
-      </c>
       <c r="M12">
-        <v>0.9969380340360081</v>
+        <v>0.9948998809505066</v>
       </c>
       <c r="N12">
         <v>1.006068376289979</v>
@@ -1403,7 +1355,7 @@
         <v>0.9996987868719758</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,22 +1363,22 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.9987088764496752</v>
+      </c>
+      <c r="D13">
+        <v>0.9995739654508983</v>
+      </c>
+      <c r="E13">
+        <v>1.001307491005544</v>
+      </c>
+      <c r="F13">
+        <v>0.998933926887475</v>
+      </c>
+      <c r="G13">
         <v>1.000107663060356</v>
       </c>
-      <c r="D13">
-        <v>0.9988911172967686</v>
-      </c>
-      <c r="E13">
-        <v>1.002150129736611</v>
-      </c>
-      <c r="F13">
+      <c r="H13">
         <v>1.000107663060356</v>
-      </c>
-      <c r="G13">
-        <v>0.998933926887475</v>
-      </c>
-      <c r="H13">
-        <v>1.001307491005544</v>
       </c>
       <c r="I13">
         <v>1.000107663060356</v>
@@ -1435,13 +1387,13 @@
         <v>0.9988911172967686</v>
       </c>
       <c r="K13">
-        <v>0.999927895350607</v>
+        <v>1.002150129736611</v>
       </c>
       <c r="L13">
-        <v>0.9995739654508983</v>
+        <v>0.9999278953506071</v>
       </c>
       <c r="M13">
-        <v>0.9987088764496752</v>
+        <v>0.9988911172967686</v>
       </c>
       <c r="N13">
         <v>1.000107663060356</v>
@@ -1474,7 +1426,7 @@
         <v>0.9999501331547418</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,22 +1434,22 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.353230360303588</v>
+      </c>
+      <c r="D14">
+        <v>0.8710206287832202</v>
+      </c>
+      <c r="E14">
+        <v>0.7956458042010981</v>
+      </c>
+      <c r="F14">
+        <v>1.11617974601238</v>
+      </c>
+      <c r="G14">
         <v>0.6616320149711334</v>
       </c>
-      <c r="D14">
-        <v>1.548079765550479</v>
-      </c>
-      <c r="E14">
-        <v>0.8489902940146983</v>
-      </c>
-      <c r="F14">
+      <c r="H14">
         <v>0.6616320149711334</v>
-      </c>
-      <c r="G14">
-        <v>1.11617974601238</v>
-      </c>
-      <c r="H14">
-        <v>0.7956458042010981</v>
       </c>
       <c r="I14">
         <v>0.6616320149711334</v>
@@ -1506,13 +1458,13 @@
         <v>1.548079765550479</v>
       </c>
       <c r="K14">
+        <v>0.8489902940146983</v>
+      </c>
+      <c r="L14">
         <v>1.099827434327867</v>
       </c>
-      <c r="L14">
-        <v>0.8710206287832202</v>
-      </c>
       <c r="M14">
-        <v>1.353230360303588</v>
+        <v>1.548079765550479</v>
       </c>
       <c r="N14">
         <v>0.6616320149711334</v>
@@ -1524,13 +1476,13 @@
         <v>1.198535029782589</v>
       </c>
       <c r="Q14">
-        <v>0.9825850200135393</v>
+        <v>0.9825850200135392</v>
       </c>
       <c r="R14">
         <v>1.01956735817877</v>
       </c>
       <c r="S14">
-        <v>1.171083268525853</v>
+        <v>1.171083268525852</v>
       </c>
       <c r="T14">
         <v>1.01956735817877</v>
@@ -1545,7 +1497,7 @@
         <v>1.036825756020558</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,22 +1505,22 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.09107527314148</v>
+      </c>
+      <c r="D15">
+        <v>0.9623121884336756</v>
+      </c>
+      <c r="E15">
+        <v>0.9489378720293017</v>
+      </c>
+      <c r="F15">
+        <v>1.03074408250835</v>
+      </c>
+      <c r="G15">
         <v>0.8961192061560384</v>
       </c>
-      <c r="D15">
-        <v>1.137269315054173</v>
-      </c>
-      <c r="E15">
-        <v>0.9711561553077607</v>
-      </c>
-      <c r="F15">
+      <c r="H15">
         <v>0.8961192061560384</v>
-      </c>
-      <c r="G15">
-        <v>1.03074408250835</v>
-      </c>
-      <c r="H15">
-        <v>0.9489378720293017</v>
       </c>
       <c r="I15">
         <v>0.8961192061560384</v>
@@ -1577,13 +1529,13 @@
         <v>1.137269315054173</v>
       </c>
       <c r="K15">
+        <v>0.9711561553077607</v>
+      </c>
+      <c r="L15">
         <v>1.031982267584797</v>
       </c>
-      <c r="L15">
-        <v>0.9623121884336756</v>
-      </c>
       <c r="M15">
-        <v>1.091075273141479</v>
+        <v>1.137269315054173</v>
       </c>
       <c r="N15">
         <v>0.8961192061560384</v>
@@ -1616,7 +1568,7 @@
         <v>1.008699545026947</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9997469584095989</v>
+        <v>0.9623377513279041</v>
       </c>
       <c r="D16">
-        <v>0.9998332418998492</v>
+        <v>1.020539806253167</v>
       </c>
       <c r="E16">
-        <v>1.000237125500707</v>
+        <v>1.019084222944333</v>
       </c>
       <c r="F16">
-        <v>0.9997469584095989</v>
+        <v>0.9871398945483353</v>
       </c>
       <c r="G16">
-        <v>0.9999817631058049</v>
+        <v>1.059500844705148</v>
       </c>
       <c r="H16">
-        <v>1.000078067203759</v>
+        <v>1.059500844705148</v>
       </c>
       <c r="I16">
-        <v>0.9997469584095989</v>
+        <v>1.059500844705148</v>
       </c>
       <c r="J16">
-        <v>0.9998332418998492</v>
+        <v>0.9461843958926811</v>
       </c>
       <c r="K16">
-        <v>1.000098246391147</v>
+        <v>1.001055077117654</v>
       </c>
       <c r="L16">
-        <v>0.9999310172538315</v>
+        <v>0.9806867683519653</v>
       </c>
       <c r="M16">
-        <v>0.9999309719221956</v>
+        <v>0.9461843958926811</v>
       </c>
       <c r="N16">
-        <v>0.9997469584095989</v>
+        <v>1.059500844705148</v>
       </c>
       <c r="O16">
-        <v>1.000237125500707</v>
+        <v>1.001055077117654</v>
       </c>
       <c r="P16">
-        <v>1.000035183700278</v>
+        <v>0.9736197365051678</v>
       </c>
       <c r="Q16">
-        <v>1.000109444303256</v>
+        <v>0.9940974858329947</v>
       </c>
       <c r="R16">
-        <v>0.999939108603385</v>
+        <v>1.002246772571828</v>
       </c>
       <c r="S16">
-        <v>1.000017376835454</v>
+        <v>0.9781264558528903</v>
       </c>
       <c r="T16">
-        <v>0.999939108603385</v>
+        <v>1.002246772571828</v>
       </c>
       <c r="U16">
-        <v>0.99994977222899</v>
+        <v>0.9984700530659546</v>
       </c>
       <c r="V16">
-        <v>0.9999092094651119</v>
+        <v>1.010676211393793</v>
       </c>
       <c r="W16">
-        <v>0.9999796739608616</v>
+        <v>0.9970660951426485</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000435916883597</v>
+        <v>0.9681615212568545</v>
       </c>
       <c r="D17">
-        <v>0.9998622518457062</v>
+        <v>1.015265554127479</v>
       </c>
       <c r="E17">
-        <v>0.9998593098681134</v>
+        <v>1.017001187271722</v>
       </c>
       <c r="F17">
-        <v>1.000435916883597</v>
+        <v>0.9891636137157547</v>
       </c>
       <c r="G17">
-        <v>0.9999484644368877</v>
+        <v>1.043370074782434</v>
       </c>
       <c r="H17">
-        <v>1.000041234313033</v>
+        <v>1.043370074782434</v>
       </c>
       <c r="I17">
-        <v>1.000435916883597</v>
+        <v>1.043370074782434</v>
       </c>
       <c r="J17">
-        <v>0.9998622518457062</v>
+        <v>0.953314685463902</v>
       </c>
       <c r="K17">
-        <v>0.9998476348214229</v>
+        <v>1.005481085326495</v>
       </c>
       <c r="L17">
-        <v>1.000135822963761</v>
+        <v>0.986218421022213</v>
       </c>
       <c r="M17">
-        <v>0.9998692573074208</v>
+        <v>0.953314685463902</v>
       </c>
       <c r="N17">
-        <v>1.000435916883597</v>
+        <v>1.043370074782434</v>
       </c>
       <c r="O17">
-        <v>0.9998593098681134</v>
+        <v>1.005481085326495</v>
       </c>
       <c r="P17">
-        <v>0.9998607808569098</v>
+        <v>0.9793978853951983</v>
       </c>
       <c r="Q17">
-        <v>0.9999038871525006</v>
+        <v>0.9973223495211248</v>
       </c>
       <c r="R17">
-        <v>1.000052492865805</v>
+        <v>1.000721948524277</v>
       </c>
       <c r="S17">
-        <v>0.9998900087169025</v>
+        <v>0.9826531281687171</v>
       </c>
       <c r="T17">
-        <v>1.000052492865805</v>
+        <v>1.000721948524277</v>
       </c>
       <c r="U17">
-        <v>1.000026485758576</v>
+        <v>0.9978323648221464</v>
       </c>
       <c r="V17">
-        <v>1.00010837198358</v>
+        <v>1.006939906814204</v>
       </c>
       <c r="W17">
-        <v>0.9999999865549929</v>
+        <v>0.9972470178708568</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000356941950763</v>
+        <v>0.980263370854382</v>
       </c>
       <c r="D18">
-        <v>0.9988025076539878</v>
+        <v>1.004612354773488</v>
       </c>
       <c r="E18">
-        <v>1.000531232552579</v>
+        <v>1.012546622490693</v>
       </c>
       <c r="F18">
-        <v>1.000356941950763</v>
+        <v>0.9933606538138779</v>
       </c>
       <c r="G18">
-        <v>0.9997668041855833</v>
+        <v>1.010872108856179</v>
       </c>
       <c r="H18">
-        <v>1.000461269673494</v>
+        <v>1.010872108856179</v>
       </c>
       <c r="I18">
-        <v>1.000356941950763</v>
+        <v>1.010872108856179</v>
       </c>
       <c r="J18">
-        <v>0.9988025076539878</v>
+        <v>0.9683123617474433</v>
       </c>
       <c r="K18">
-        <v>0.9999202397967482</v>
+        <v>1.014005700870737</v>
       </c>
       <c r="L18">
-        <v>1.00016691142617</v>
+        <v>0.9973373421991721</v>
       </c>
       <c r="M18">
-        <v>0.9992712053700077</v>
+        <v>0.9683123617474433</v>
       </c>
       <c r="N18">
-        <v>1.000356941950763</v>
+        <v>1.010872108856179</v>
       </c>
       <c r="O18">
-        <v>1.000531232552579</v>
+        <v>1.014005700870737</v>
       </c>
       <c r="P18">
-        <v>0.9996668701032834</v>
+        <v>0.9911590313090901</v>
       </c>
       <c r="Q18">
-        <v>1.000149018369081</v>
+        <v>1.003683177342307</v>
       </c>
       <c r="R18">
-        <v>0.9998968940524433</v>
+        <v>0.9977300571581198</v>
       </c>
       <c r="S18">
-        <v>0.9997001814640499</v>
+        <v>0.9918929054773526</v>
       </c>
       <c r="T18">
-        <v>0.9998968940524433</v>
+        <v>0.9977300571581198</v>
       </c>
       <c r="U18">
-        <v>0.9998643715857283</v>
+        <v>0.9966377063220593</v>
       </c>
       <c r="V18">
-        <v>0.9999628856587354</v>
+        <v>0.9994845868288833</v>
       </c>
       <c r="W18">
-        <v>0.9999096390761666</v>
+        <v>0.9976638144507466</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9768521491841405</v>
+      </c>
+      <c r="D19">
+        <v>1.0046729209227</v>
+      </c>
+      <c r="E19">
+        <v>1.015044843238965</v>
+      </c>
+      <c r="F19">
+        <v>0.9921388496401798</v>
+      </c>
+      <c r="G19">
+        <v>1.010560338695662</v>
+      </c>
+      <c r="H19">
+        <v>1.010560338695662</v>
+      </c>
+      <c r="I19">
+        <v>1.010560338695662</v>
+      </c>
+      <c r="J19">
+        <v>0.9626025759582773</v>
+      </c>
+      <c r="K19">
+        <v>1.017989432355697</v>
+      </c>
+      <c r="L19">
+        <v>0.9976656946725629</v>
+      </c>
+      <c r="M19">
+        <v>0.9626025759582773</v>
+      </c>
+      <c r="N19">
+        <v>1.010560338695662</v>
+      </c>
+      <c r="O19">
+        <v>1.017989432355697</v>
+      </c>
+      <c r="P19">
+        <v>0.990296004156987</v>
+      </c>
+      <c r="Q19">
+        <v>1.005064140997938</v>
+      </c>
+      <c r="R19">
+        <v>0.9970507823365454</v>
+      </c>
+      <c r="S19">
+        <v>0.990910285984718</v>
+      </c>
+      <c r="T19">
+        <v>0.9970507823365454</v>
+      </c>
+      <c r="U19">
+        <v>0.995822799162454</v>
+      </c>
+      <c r="V19">
+        <v>0.9987703070690955</v>
+      </c>
+      <c r="W19">
+        <v>0.997190850583523</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999309719221956</v>
+      </c>
+      <c r="D20">
+        <v>0.9999310172538318</v>
+      </c>
+      <c r="E20">
+        <v>1.000078067203759</v>
+      </c>
+      <c r="F20">
+        <v>0.9999817631058049</v>
+      </c>
+      <c r="G20">
+        <v>0.9997469584095989</v>
+      </c>
+      <c r="H20">
+        <v>0.9997469584095989</v>
+      </c>
+      <c r="I20">
+        <v>0.9997469584095989</v>
+      </c>
+      <c r="J20">
+        <v>0.9998332418998492</v>
+      </c>
+      <c r="K20">
+        <v>1.000237125500707</v>
+      </c>
+      <c r="L20">
+        <v>1.000098246391147</v>
+      </c>
+      <c r="M20">
+        <v>0.9998332418998492</v>
+      </c>
+      <c r="N20">
+        <v>0.9997469584095989</v>
+      </c>
+      <c r="O20">
+        <v>1.000237125500707</v>
+      </c>
+      <c r="P20">
+        <v>1.000035183700278</v>
+      </c>
+      <c r="Q20">
+        <v>1.000109444303256</v>
+      </c>
+      <c r="R20">
+        <v>0.999939108603385</v>
+      </c>
+      <c r="S20">
+        <v>1.000017376835454</v>
+      </c>
+      <c r="T20">
+        <v>0.999939108603385</v>
+      </c>
+      <c r="U20">
+        <v>0.99994977222899</v>
+      </c>
+      <c r="V20">
+        <v>0.9999092094651119</v>
+      </c>
+      <c r="W20">
+        <v>0.9999796739608617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9998692573074208</v>
+      </c>
+      <c r="D21">
+        <v>1.000135822963761</v>
+      </c>
+      <c r="E21">
+        <v>1.000041234313033</v>
+      </c>
+      <c r="F21">
+        <v>0.9999484644368877</v>
+      </c>
+      <c r="G21">
+        <v>1.000435916883597</v>
+      </c>
+      <c r="H21">
+        <v>1.000435916883597</v>
+      </c>
+      <c r="I21">
+        <v>1.000435916883597</v>
+      </c>
+      <c r="J21">
+        <v>0.9998622518457062</v>
+      </c>
+      <c r="K21">
+        <v>0.9998593098681134</v>
+      </c>
+      <c r="L21">
+        <v>0.9998476348214227</v>
+      </c>
+      <c r="M21">
+        <v>0.9998622518457062</v>
+      </c>
+      <c r="N21">
+        <v>1.000435916883597</v>
+      </c>
+      <c r="O21">
+        <v>0.9998593098681134</v>
+      </c>
+      <c r="P21">
+        <v>0.9998607808569098</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999038871525006</v>
+      </c>
+      <c r="R21">
+        <v>1.000052492865805</v>
+      </c>
+      <c r="S21">
+        <v>0.9998900087169025</v>
+      </c>
+      <c r="T21">
+        <v>1.000052492865805</v>
+      </c>
+      <c r="U21">
+        <v>1.000026485758576</v>
+      </c>
+      <c r="V21">
+        <v>1.00010837198358</v>
+      </c>
+      <c r="W21">
+        <v>0.9999999865549929</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9992712053700077</v>
+      </c>
+      <c r="D22">
+        <v>1.00016691142617</v>
+      </c>
+      <c r="E22">
+        <v>1.000461269673494</v>
+      </c>
+      <c r="F22">
+        <v>0.9997668041855833</v>
+      </c>
+      <c r="G22">
+        <v>1.000356941950763</v>
+      </c>
+      <c r="H22">
+        <v>1.000356941950763</v>
+      </c>
+      <c r="I22">
+        <v>1.000356941950763</v>
+      </c>
+      <c r="J22">
+        <v>0.998802507653988</v>
+      </c>
+      <c r="K22">
+        <v>1.000531232552579</v>
+      </c>
+      <c r="L22">
+        <v>0.9999202397967482</v>
+      </c>
+      <c r="M22">
+        <v>0.998802507653988</v>
+      </c>
+      <c r="N22">
+        <v>1.000356941950763</v>
+      </c>
+      <c r="O22">
+        <v>1.000531232552579</v>
+      </c>
+      <c r="P22">
+        <v>0.9996668701032834</v>
+      </c>
+      <c r="Q22">
+        <v>1.000149018369081</v>
+      </c>
+      <c r="R22">
+        <v>0.9998968940524433</v>
+      </c>
+      <c r="S22">
+        <v>0.9997001814640499</v>
+      </c>
+      <c r="T22">
+        <v>0.9998968940524433</v>
+      </c>
+      <c r="U22">
+        <v>0.9998643715857283</v>
+      </c>
+      <c r="V22">
+        <v>0.9999628856587354</v>
+      </c>
+      <c r="W22">
+        <v>0.9999096390761666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9981606133579825</v>
+      </c>
+      <c r="D23">
+        <v>1.00024179691183</v>
+      </c>
+      <c r="E23">
+        <v>1.0012328314311</v>
+      </c>
+      <c r="F23">
+        <v>0.9994338732343999</v>
+      </c>
+      <c r="G23">
         <v>1.000253750068274</v>
       </c>
-      <c r="D19">
+      <c r="H23">
+        <v>1.000253750068274</v>
+      </c>
+      <c r="I23">
+        <v>1.000253750068274</v>
+      </c>
+      <c r="J23">
         <v>0.9968341955644374</v>
       </c>
-      <c r="E19">
+      <c r="K23">
         <v>1.00174411269026</v>
       </c>
-      <c r="F19">
+      <c r="L23">
+        <v>1.000039977817174</v>
+      </c>
+      <c r="M23">
+        <v>0.9968341955644374</v>
+      </c>
+      <c r="N23">
         <v>1.000253750068274</v>
       </c>
-      <c r="G19">
-        <v>0.9994338732343999</v>
-      </c>
-      <c r="H19">
-        <v>1.0012328314311</v>
-      </c>
-      <c r="I19">
-        <v>1.000253750068274</v>
-      </c>
-      <c r="J19">
-        <v>0.9968341955644374</v>
-      </c>
-      <c r="K19">
-        <v>1.000039977817174</v>
-      </c>
-      <c r="L19">
-        <v>1.00024179691183</v>
-      </c>
-      <c r="M19">
-        <v>0.9981606133579825</v>
-      </c>
-      <c r="N19">
-        <v>1.000253750068274</v>
-      </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.00174411269026</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9992891541273485</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.00058899296233</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.999610686107657</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9993373938296989</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9996106861076569</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9995664828893427</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>0.999703936325129</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.9997426438844321</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GossA-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW30.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[5, 1, 1]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9980960839829216</v>
+        <v>0.975546426304032</v>
       </c>
       <c r="D3">
-        <v>1.001089191760224</v>
+        <v>1.006090920504322</v>
       </c>
       <c r="E3">
-        <v>1.000944397179965</v>
+        <v>1.015392836311245</v>
       </c>
       <c r="F3">
-        <v>0.9993466711750461</v>
+        <v>0.991756186340055</v>
       </c>
       <c r="G3">
-        <v>1.003182513720308</v>
+        <v>1.014745029272334</v>
       </c>
       <c r="H3">
-        <v>1.003182513720308</v>
+        <v>1.014745029272334</v>
       </c>
       <c r="I3">
-        <v>1.003182513720308</v>
+        <v>1.014745029272334</v>
       </c>
       <c r="J3">
-        <v>0.9973134401553432</v>
+        <v>0.9609771883285302</v>
       </c>
       <c r="K3">
-        <v>0.9999407838510856</v>
+        <v>1.016523729538905</v>
       </c>
       <c r="L3">
-        <v>0.9989591005917224</v>
+        <v>0.9962307585230558</v>
       </c>
       <c r="M3">
-        <v>0.9973134401553432</v>
+        <v>0.9609771883285302</v>
       </c>
       <c r="N3">
-        <v>1.003182513720308</v>
+        <v>1.014745029272334</v>
       </c>
       <c r="O3">
-        <v>0.9999407838510856</v>
+        <v>1.016523729538905</v>
       </c>
       <c r="P3">
-        <v>0.9986271120032144</v>
+        <v>0.9887504589337177</v>
       </c>
       <c r="Q3">
-        <v>0.9996437275130658</v>
+        <v>1.00413995793948</v>
       </c>
       <c r="R3">
-        <v>1.000145579242246</v>
+        <v>0.9974153157132566</v>
       </c>
       <c r="S3">
-        <v>0.9988669650604916</v>
+        <v>0.9897523680691634</v>
       </c>
       <c r="T3">
-        <v>1.000145579242246</v>
+        <v>0.9974153157132566</v>
       </c>
       <c r="U3">
-        <v>0.9999458522254459</v>
+        <v>0.9960005333699562</v>
       </c>
       <c r="V3">
-        <v>1.000593184524418</v>
+        <v>0.9997494325504318</v>
       </c>
       <c r="W3">
-        <v>0.9998590228020771</v>
+        <v>0.9971578843903099</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9963299276036417</v>
+        <v>0.9775573073574374</v>
       </c>
       <c r="D4">
-        <v>1.002110686467543</v>
+        <v>1.005461394072864</v>
       </c>
       <c r="E4">
-        <v>1.001815313405847</v>
+        <v>1.014176968576215</v>
       </c>
       <c r="F4">
-        <v>0.9987423385640173</v>
+        <v>0.9924476896319411</v>
       </c>
       <c r="G4">
-        <v>1.006166108757411</v>
+        <v>1.013075593115914</v>
       </c>
       <c r="H4">
-        <v>1.006166108757411</v>
+        <v>1.013075593115914</v>
       </c>
       <c r="I4">
-        <v>1.006166108757411</v>
+        <v>1.013075593115914</v>
       </c>
       <c r="J4">
-        <v>0.9948234880996217</v>
+        <v>0.9640886236954886</v>
       </c>
       <c r="K4">
-        <v>0.9998626105243392</v>
+        <v>1.015452695329857</v>
       </c>
       <c r="L4">
-        <v>0.9979823566857609</v>
+        <v>0.9967106490048494</v>
       </c>
       <c r="M4">
-        <v>0.9948234880996217</v>
+        <v>0.9640886236954886</v>
       </c>
       <c r="N4">
-        <v>1.006166108757411</v>
+        <v>1.013075593115914</v>
       </c>
       <c r="O4">
-        <v>0.9998626105243392</v>
+        <v>1.015452695329857</v>
       </c>
       <c r="P4">
-        <v>0.9973430493119805</v>
+        <v>0.9897706595126727</v>
       </c>
       <c r="Q4">
-        <v>0.9993024745441783</v>
+        <v>1.003950192480899</v>
       </c>
       <c r="R4">
-        <v>1.000284069127124</v>
+        <v>0.9975389707137531</v>
       </c>
       <c r="S4">
-        <v>0.9978094790626594</v>
+        <v>0.9906630028857623</v>
       </c>
       <c r="T4">
-        <v>1.000284069127124</v>
+        <v>0.9975389707137531</v>
       </c>
       <c r="U4">
-        <v>0.9998986364863472</v>
+        <v>0.9962661504433001</v>
       </c>
       <c r="V4">
-        <v>1.00115213094056</v>
+        <v>0.9996280389778229</v>
       </c>
       <c r="W4">
-        <v>0.9997291037635228</v>
+        <v>0.9973713650980708</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9929133341511526</v>
+        <v>0.9720043252560658</v>
       </c>
       <c r="D5">
-        <v>1.003975844578955</v>
+        <v>1.00716071477089</v>
       </c>
       <c r="E5">
-        <v>1.003547676424748</v>
+        <v>1.017552280485175</v>
       </c>
       <c r="F5">
-        <v>0.9975691815161436</v>
+        <v>0.990533366846361</v>
       </c>
       <c r="G5">
-        <v>1.011588130794782</v>
+        <v>1.017571709865229</v>
       </c>
       <c r="H5">
-        <v>1.011588130794782</v>
+        <v>1.017571709865229</v>
       </c>
       <c r="I5">
-        <v>1.011588130794782</v>
+        <v>1.017571709865229</v>
       </c>
       <c r="J5">
-        <v>0.9899564656723986</v>
+        <v>0.9554858855795149</v>
       </c>
       <c r="K5">
-        <v>0.9999506472500291</v>
+        <v>1.018492812695416</v>
       </c>
       <c r="L5">
-        <v>0.9962201911651369</v>
+        <v>0.995426302156335</v>
       </c>
       <c r="M5">
-        <v>0.9899564656723986</v>
+        <v>0.9554858855795149</v>
       </c>
       <c r="N5">
-        <v>1.011588130794782</v>
+        <v>1.017571709865229</v>
       </c>
       <c r="O5">
-        <v>0.9999506472500291</v>
+        <v>1.018492812695416</v>
       </c>
       <c r="P5">
-        <v>0.9949535564612139</v>
+        <v>0.9869893491374655</v>
       </c>
       <c r="Q5">
-        <v>0.9987599143830863</v>
+        <v>1.004513089770889</v>
       </c>
       <c r="R5">
-        <v>1.000498414572403</v>
+        <v>0.9971834693800532</v>
       </c>
       <c r="S5">
-        <v>0.9958254314795237</v>
+        <v>0.988170688373764</v>
       </c>
       <c r="T5">
-        <v>1.000498414572403</v>
+        <v>0.9971834693800533</v>
       </c>
       <c r="U5">
-        <v>0.9997661063083385</v>
+        <v>0.9955209437466302</v>
       </c>
       <c r="V5">
-        <v>1.002130511205627</v>
+        <v>0.9999310969703499</v>
       </c>
       <c r="W5">
-        <v>0.9994651839441684</v>
+        <v>0.9967784247068733</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9895803334541786</v>
+        <v>0.9690262184659099</v>
       </c>
       <c r="D6">
-        <v>1.005799116906693</v>
+        <v>1.008010054375</v>
       </c>
       <c r="E6">
-        <v>1.005235586937834</v>
+        <v>1.019390616079546</v>
       </c>
       <c r="F6">
-        <v>0.9964264377401866</v>
+        <v>0.9894991434090912</v>
       </c>
       <c r="G6">
-        <v>1.016884936926356</v>
+        <v>1.019802171875</v>
       </c>
       <c r="H6">
-        <v>1.016884936926356</v>
+        <v>1.019802171875</v>
       </c>
       <c r="I6">
-        <v>1.016884936926356</v>
+        <v>1.019802171875</v>
       </c>
       <c r="J6">
-        <v>0.9852068918964512</v>
+        <v>0.9508553391477279</v>
       </c>
       <c r="K6">
-        <v>1.000029305994281</v>
+        <v>1.020254138181819</v>
       </c>
       <c r="L6">
-        <v>0.9944987291372299</v>
+        <v>0.9948023207954543</v>
       </c>
       <c r="M6">
-        <v>0.9852068918964512</v>
+        <v>0.9508553391477279</v>
       </c>
       <c r="N6">
-        <v>1.016884936926356</v>
+        <v>1.019802171875</v>
       </c>
       <c r="O6">
-        <v>1.000029305994281</v>
+        <v>1.020254138181819</v>
       </c>
       <c r="P6">
-        <v>0.9926180989453662</v>
+        <v>0.9855547386647733</v>
       </c>
       <c r="Q6">
-        <v>0.9982278718672339</v>
+        <v>1.004876640795455</v>
       </c>
       <c r="R6">
-        <v>1.000707044939029</v>
+        <v>0.9969705497348489</v>
       </c>
       <c r="S6">
-        <v>0.9938875452103063</v>
+        <v>0.9868695402462127</v>
       </c>
       <c r="T6">
-        <v>1.000707044939029</v>
+        <v>0.9969705497348489</v>
       </c>
       <c r="U6">
-        <v>0.9996368931393187</v>
+        <v>0.9951026981534095</v>
       </c>
       <c r="V6">
-        <v>1.003086501896726</v>
+        <v>1.000042592897727</v>
       </c>
       <c r="W6">
-        <v>0.9992076673741512</v>
+        <v>0.9964550002911934</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.99991873304326</v>
+        <v>0.964286784793923</v>
       </c>
       <c r="D7">
-        <v>1.000000438172581</v>
+        <v>1.024965497047719</v>
       </c>
       <c r="E7">
-        <v>1.000059852601771</v>
+        <v>1.015821544712718</v>
       </c>
       <c r="F7">
-        <v>0.9999711876002385</v>
+        <v>0.9877289749666432</v>
       </c>
       <c r="G7">
-        <v>0.999988484372741</v>
+        <v>1.074506958620266</v>
       </c>
       <c r="H7">
-        <v>0.999988484372741</v>
+        <v>1.074506958620266</v>
       </c>
       <c r="I7">
-        <v>0.999988484372741</v>
+        <v>1.074506958620266</v>
       </c>
       <c r="J7">
-        <v>0.9998628130148677</v>
+        <v>0.9520525931272347</v>
       </c>
       <c r="K7">
-        <v>1.000097256621645</v>
+        <v>0.9890041424791474</v>
       </c>
       <c r="L7">
-        <v>1.000009373178381</v>
+        <v>0.9750468863204375</v>
       </c>
       <c r="M7">
-        <v>0.9998628130148677</v>
+        <v>0.9520525931272347</v>
       </c>
       <c r="N7">
-        <v>0.999988484372741</v>
+        <v>1.074506958620266</v>
       </c>
       <c r="O7">
-        <v>1.000097256621645</v>
+        <v>0.9890041424791474</v>
       </c>
       <c r="P7">
-        <v>0.9999800348182565</v>
+        <v>0.9705283678031911</v>
       </c>
       <c r="Q7">
-        <v>1.000034222110942</v>
+        <v>0.9883665587228954</v>
       </c>
       <c r="R7">
-        <v>0.999982851336418</v>
+        <v>1.005187898075549</v>
       </c>
       <c r="S7">
-        <v>0.9999770857455839</v>
+        <v>0.9762619035243417</v>
       </c>
       <c r="T7">
-        <v>0.9999828513364181</v>
+        <v>1.005187898075549</v>
       </c>
       <c r="U7">
-        <v>0.9999799354023732</v>
+        <v>1.000823167298323</v>
       </c>
       <c r="V7">
-        <v>0.9999816451964467</v>
+        <v>1.015559925562711</v>
       </c>
       <c r="W7">
-        <v>0.9999885173256857</v>
+        <v>0.9979266727585112</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999361608141524</v>
+        <v>0.9650923920813844</v>
       </c>
       <c r="D8">
-        <v>0.9999553389915542</v>
+        <v>1.024507468359565</v>
       </c>
       <c r="E8">
-        <v>1.000066939117012</v>
+        <v>1.015426116463245</v>
       </c>
       <c r="F8">
-        <v>0.9999736009109107</v>
+        <v>0.9879868070216542</v>
       </c>
       <c r="G8">
-        <v>0.9998549405956716</v>
+        <v>1.073221630243332</v>
       </c>
       <c r="H8">
-        <v>0.9998549405956716</v>
+        <v>1.073221630243332</v>
       </c>
       <c r="I8">
-        <v>0.9998549405956716</v>
+        <v>1.073221630243332</v>
       </c>
       <c r="J8">
-        <v>0.9998763468240673</v>
+        <v>0.9532306849605919</v>
       </c>
       <c r="K8">
-        <v>1.000172325160165</v>
+        <v>0.9890126615316255</v>
       </c>
       <c r="L8">
-        <v>1.00005647707301</v>
+        <v>0.9754613632854079</v>
       </c>
       <c r="M8">
-        <v>0.9998763468240673</v>
+        <v>0.9532306849605919</v>
       </c>
       <c r="N8">
-        <v>0.9998549405956716</v>
+        <v>1.073221630243332</v>
       </c>
       <c r="O8">
-        <v>1.000172325160165</v>
+        <v>0.9890126615316255</v>
       </c>
       <c r="P8">
-        <v>1.000024335992116</v>
+        <v>0.9711216732461088</v>
       </c>
       <c r="Q8">
-        <v>1.000072963035538</v>
+        <v>0.9884997342766398</v>
       </c>
       <c r="R8">
-        <v>0.999967870859968</v>
+        <v>1.005154992245183</v>
       </c>
       <c r="S8">
-        <v>1.000007424298381</v>
+        <v>0.9767433845046239</v>
       </c>
       <c r="T8">
-        <v>0.999967870859968</v>
+        <v>1.005154992245183</v>
       </c>
       <c r="U8">
-        <v>0.9999693033727036</v>
+        <v>1.000862945939301</v>
       </c>
       <c r="V8">
-        <v>0.9999464308172972</v>
+        <v>1.015334682800107</v>
       </c>
       <c r="W8">
-        <v>0.9999865161858179</v>
+        <v>0.9979923904933508</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000174626507368</v>
+        <v>0.9652277380298055</v>
       </c>
       <c r="D9">
-        <v>0.9998577339844977</v>
+        <v>1.024290148848971</v>
       </c>
       <c r="E9">
-        <v>0.9999340597097535</v>
+        <v>1.01541922468619</v>
       </c>
       <c r="F9">
-        <v>1.000049699363432</v>
+        <v>0.9880273661415223</v>
       </c>
       <c r="G9">
-        <v>0.9995987428932059</v>
+        <v>1.072556343321024</v>
       </c>
       <c r="H9">
-        <v>0.9995987428932059</v>
+        <v>1.072556343321024</v>
       </c>
       <c r="I9">
-        <v>0.9995987428932059</v>
+        <v>1.072556343321024</v>
       </c>
       <c r="J9">
-        <v>1.000245746394825</v>
+        <v>0.9533598382677685</v>
       </c>
       <c r="K9">
-        <v>1.000092017773682</v>
+        <v>0.9893182723163754</v>
       </c>
       <c r="L9">
-        <v>1.000133601617147</v>
+        <v>0.9756950805750442</v>
       </c>
       <c r="M9">
-        <v>1.000245746394825</v>
+        <v>0.9533598382677685</v>
       </c>
       <c r="N9">
-        <v>0.9995987428932059</v>
+        <v>1.072556343321024</v>
       </c>
       <c r="O9">
-        <v>1.000092017773682</v>
+        <v>0.9893182723163754</v>
       </c>
       <c r="P9">
-        <v>1.000168882084254</v>
+        <v>0.971339055292072</v>
       </c>
       <c r="Q9">
-        <v>1.000070858568557</v>
+        <v>0.9886728192289489</v>
       </c>
       <c r="R9">
-        <v>0.9999788356872377</v>
+        <v>1.005078151301723</v>
       </c>
       <c r="S9">
-        <v>1.000129154510646</v>
+        <v>0.9769018255752221</v>
       </c>
       <c r="T9">
-        <v>0.9999788356872376</v>
+        <v>1.005078151301722</v>
       </c>
       <c r="U9">
-        <v>0.9999965516062861</v>
+        <v>1.000815455011672</v>
       </c>
       <c r="V9">
-        <v>0.9999169898636702</v>
+        <v>1.015163632673543</v>
       </c>
       <c r="W9">
-        <v>1.000010778530489</v>
+        <v>0.9979867515233376</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000133305375537</v>
+        <v>0.9704793479572134</v>
       </c>
       <c r="D10">
-        <v>0.9997604394699503</v>
+        <v>1.022040210681601</v>
       </c>
       <c r="E10">
-        <v>1.000007580073901</v>
+        <v>1.012526358018719</v>
       </c>
       <c r="F10">
-        <v>1.000027160799237</v>
+        <v>0.9897329815819603</v>
       </c>
       <c r="G10">
-        <v>0.9992974170295222</v>
+        <v>1.066504107603079</v>
       </c>
       <c r="H10">
-        <v>0.9992974170295222</v>
+        <v>1.066504107603079</v>
       </c>
       <c r="I10">
-        <v>0.9992974170295222</v>
+        <v>1.066504107603079</v>
       </c>
       <c r="J10">
-        <v>1.00014098850288</v>
+        <v>0.9613779035359314</v>
       </c>
       <c r="K10">
-        <v>1.000349468785367</v>
+        <v>0.9877849493610067</v>
       </c>
       <c r="L10">
-        <v>1.000245118731539</v>
+        <v>0.9775493954131071</v>
       </c>
       <c r="M10">
-        <v>1.00014098850288</v>
+        <v>0.9613779035359314</v>
       </c>
       <c r="N10">
-        <v>0.9992974170295222</v>
+        <v>1.066504107603079</v>
       </c>
       <c r="O10">
-        <v>1.000349468785367</v>
+        <v>0.9877849493610067</v>
       </c>
       <c r="P10">
-        <v>1.000245228644123</v>
+        <v>0.9745814264484691</v>
       </c>
       <c r="Q10">
-        <v>1.000188314792302</v>
+        <v>0.9887589654714835</v>
       </c>
       <c r="R10">
-        <v>0.9999292914392562</v>
+        <v>1.005222320166673</v>
       </c>
       <c r="S10">
-        <v>1.000172539362495</v>
+        <v>0.9796319448262995</v>
       </c>
       <c r="T10">
-        <v>0.9999292914392562</v>
+        <v>1.005222320166673</v>
       </c>
       <c r="U10">
-        <v>0.9999537587792515</v>
+        <v>1.001349985520495</v>
       </c>
       <c r="V10">
-        <v>0.9998224904293057</v>
+        <v>1.014380809937012</v>
       </c>
       <c r="W10">
-        <v>0.9999951848459916</v>
+        <v>0.9984994067690772</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000825544319236</v>
+        <v>0.9977945964751253</v>
       </c>
       <c r="D11">
-        <v>0.9994229713965666</v>
+        <v>1.001279195195088</v>
       </c>
       <c r="E11">
-        <v>0.9996463861997597</v>
+        <v>1.001086124496262</v>
       </c>
       <c r="F11">
-        <v>1.000241515885161</v>
+        <v>0.999244895817993</v>
       </c>
       <c r="G11">
-        <v>0.9983957496122602</v>
+        <v>1.003738843579841</v>
       </c>
       <c r="H11">
-        <v>0.9983957496122602</v>
+        <v>1.003738843579841</v>
       </c>
       <c r="I11">
-        <v>0.9983957496122602</v>
+        <v>1.003738843579841</v>
       </c>
       <c r="J11">
-        <v>1.001198526200765</v>
+        <v>0.9968937483569253</v>
       </c>
       <c r="K11">
-        <v>1.000230600643486</v>
+        <v>0.9998941666680996</v>
       </c>
       <c r="L11">
-        <v>1.000525627725315</v>
+        <v>0.9987754043556544</v>
       </c>
       <c r="M11">
-        <v>1.001198526200765</v>
+        <v>0.9968937483569253</v>
       </c>
       <c r="N11">
-        <v>0.9983957496122602</v>
+        <v>1.003738843579841</v>
       </c>
       <c r="O11">
-        <v>1.000230600643486</v>
+        <v>0.9998941666680996</v>
       </c>
       <c r="P11">
-        <v>1.000714563422125</v>
+        <v>0.9983939575125125</v>
       </c>
       <c r="Q11">
-        <v>1.000236058264323</v>
+        <v>0.9995695312430464</v>
       </c>
       <c r="R11">
-        <v>0.9999416254855036</v>
+        <v>1.000175586201622</v>
       </c>
       <c r="S11">
-        <v>1.000556880909804</v>
+        <v>0.9986776036143393</v>
       </c>
       <c r="T11">
-        <v>0.9999416254855037</v>
+        <v>1.000175586201622</v>
       </c>
       <c r="U11">
-        <v>1.000016598085418</v>
+        <v>0.9999429136057146</v>
       </c>
       <c r="V11">
-        <v>0.9996924283907862</v>
+        <v>1.00070209960054</v>
       </c>
       <c r="W11">
-        <v>1.000060865247819</v>
+        <v>0.9998383718681235</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9969380340360081</v>
+        <v>0.9991256638491354</v>
       </c>
       <c r="D12">
-        <v>1.002520573470641</v>
+        <v>1.000567154770971</v>
       </c>
       <c r="E12">
-        <v>1.001036825181439</v>
+        <v>1.000406325619229</v>
       </c>
       <c r="F12">
-        <v>0.9995049579417656</v>
+        <v>0.999697699847948</v>
       </c>
       <c r="G12">
-        <v>1.006068376289979</v>
+        <v>1.001685906372364</v>
       </c>
       <c r="H12">
-        <v>1.006068376289979</v>
+        <v>1.001685906372364</v>
       </c>
       <c r="I12">
-        <v>1.006068376289979</v>
+        <v>1.001685906372364</v>
       </c>
       <c r="J12">
-        <v>0.9948998809505066</v>
+        <v>0.9988067338132285</v>
       </c>
       <c r="K12">
-        <v>0.9985390216161666</v>
+        <v>0.999825698675101</v>
       </c>
       <c r="L12">
-        <v>0.9980826254893002</v>
+        <v>0.9994393567843823</v>
       </c>
       <c r="M12">
-        <v>0.9948998809505066</v>
+        <v>0.9988067338132285</v>
       </c>
       <c r="N12">
-        <v>1.006068376289979</v>
+        <v>1.001685906372364</v>
       </c>
       <c r="O12">
-        <v>0.9985390216161666</v>
+        <v>0.999825698675101</v>
       </c>
       <c r="P12">
-        <v>0.9967194512833366</v>
+        <v>0.9993162162441647</v>
       </c>
       <c r="Q12">
-        <v>0.9990219897789661</v>
+        <v>0.9997616992615245</v>
       </c>
       <c r="R12">
-        <v>0.9998357596188839</v>
+        <v>1.000106112953564</v>
       </c>
       <c r="S12">
-        <v>0.997647953502813</v>
+        <v>0.9994433774454258</v>
       </c>
       <c r="T12">
-        <v>0.9998357596188839</v>
+        <v>1.000106112953565</v>
       </c>
       <c r="U12">
-        <v>0.9997530591996044</v>
+        <v>1.000004009677161</v>
       </c>
       <c r="V12">
-        <v>1.001016122617679</v>
+        <v>1.000340389016201</v>
       </c>
       <c r="W12">
-        <v>0.9996987868719758</v>
+        <v>0.999944317466545</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9987088764496752</v>
+        <v>0.9989154283034219</v>
       </c>
       <c r="D13">
-        <v>0.9995739654508983</v>
+        <v>1.001242281145183</v>
       </c>
       <c r="E13">
-        <v>1.001307491005544</v>
+        <v>1.000286756478508</v>
       </c>
       <c r="F13">
-        <v>0.998933926887475</v>
+        <v>0.9995965380828166</v>
       </c>
       <c r="G13">
-        <v>1.000107663060356</v>
+        <v>1.003925138316173</v>
       </c>
       <c r="H13">
-        <v>1.000107663060356</v>
+        <v>1.003925138316173</v>
       </c>
       <c r="I13">
-        <v>1.000107663060356</v>
+        <v>1.003925138316173</v>
       </c>
       <c r="J13">
-        <v>0.9988911172967686</v>
+        <v>0.9988673051205734</v>
       </c>
       <c r="K13">
-        <v>1.002150129736611</v>
+        <v>0.9985945834756861</v>
       </c>
       <c r="L13">
-        <v>0.9999278953506071</v>
+        <v>0.9986274120721659</v>
       </c>
       <c r="M13">
-        <v>0.9988911172967686</v>
+        <v>0.9988673051205734</v>
       </c>
       <c r="N13">
-        <v>1.000107663060356</v>
+        <v>1.003925138316173</v>
       </c>
       <c r="O13">
-        <v>1.002150129736611</v>
+        <v>0.9985945834756861</v>
       </c>
       <c r="P13">
-        <v>1.00052062351669</v>
+        <v>0.9987309442981298</v>
       </c>
       <c r="Q13">
-        <v>1.000542028312043</v>
+        <v>0.9990955607792513</v>
       </c>
       <c r="R13">
-        <v>1.000382970031245</v>
+        <v>1.000462342304144</v>
       </c>
       <c r="S13">
-        <v>0.9999917246402849</v>
+        <v>0.9990194755596921</v>
       </c>
       <c r="T13">
-        <v>1.000382970031245</v>
+        <v>1.000462342304144</v>
       </c>
       <c r="U13">
-        <v>1.000020709245303</v>
+        <v>1.000245891248812</v>
       </c>
       <c r="V13">
-        <v>1.000038100008313</v>
+        <v>1.000981740662285</v>
       </c>
       <c r="W13">
-        <v>0.9999501331547418</v>
+        <v>1.000006930374316</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.353230360303588</v>
+        <v>0.9946948577343951</v>
       </c>
       <c r="D14">
-        <v>0.8710206287832202</v>
+        <v>1.002982603184354</v>
       </c>
       <c r="E14">
-        <v>0.7956458042010981</v>
+        <v>1.002652851145871</v>
       </c>
       <c r="F14">
-        <v>1.11617974601238</v>
+        <v>0.9981814822622685</v>
       </c>
       <c r="G14">
-        <v>0.6616320149711334</v>
+        <v>1.00869194110512</v>
       </c>
       <c r="H14">
-        <v>0.6616320149711334</v>
+        <v>1.00869194110512</v>
       </c>
       <c r="I14">
-        <v>0.6616320149711334</v>
+        <v>1.00869194110512</v>
       </c>
       <c r="J14">
-        <v>1.548079765550479</v>
+        <v>0.9924820607781546</v>
       </c>
       <c r="K14">
-        <v>0.8489902940146983</v>
+        <v>0.9999501154458145</v>
       </c>
       <c r="L14">
-        <v>1.099827434327867</v>
+        <v>0.9971644187766641</v>
       </c>
       <c r="M14">
-        <v>1.548079765550479</v>
+        <v>0.9924820607781546</v>
       </c>
       <c r="N14">
-        <v>0.6616320149711334</v>
+        <v>1.00869194110512</v>
       </c>
       <c r="O14">
-        <v>0.8489902940146983</v>
+        <v>0.9999501154458145</v>
       </c>
       <c r="P14">
-        <v>1.198535029782589</v>
+        <v>0.9962160881119846</v>
       </c>
       <c r="Q14">
-        <v>0.9825850200135392</v>
+        <v>0.9990657988540415</v>
       </c>
       <c r="R14">
-        <v>1.01956735817877</v>
+        <v>1.000374705776363</v>
       </c>
       <c r="S14">
-        <v>1.171083268525852</v>
+        <v>0.9968712194954126</v>
       </c>
       <c r="T14">
-        <v>1.01956735817877</v>
+        <v>1.000374705776363</v>
       </c>
       <c r="U14">
-        <v>1.043720455137173</v>
+        <v>0.9998263998978394</v>
       </c>
       <c r="V14">
-        <v>0.967302767103965</v>
+        <v>1.001599508139295</v>
       </c>
       <c r="W14">
-        <v>1.036825756020558</v>
+        <v>0.9996000413040802</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.09107527314148</v>
+        <v>0.9980960839829216</v>
       </c>
       <c r="D15">
-        <v>0.9623121884336756</v>
+        <v>1.001089191760224</v>
       </c>
       <c r="E15">
-        <v>0.9489378720293017</v>
+        <v>1.000944397179965</v>
       </c>
       <c r="F15">
-        <v>1.03074408250835</v>
+        <v>0.9993466711750461</v>
       </c>
       <c r="G15">
-        <v>0.8961192061560384</v>
+        <v>1.003182513720308</v>
       </c>
       <c r="H15">
-        <v>0.8961192061560384</v>
+        <v>1.003182513720308</v>
       </c>
       <c r="I15">
-        <v>0.8961192061560384</v>
+        <v>1.003182513720308</v>
       </c>
       <c r="J15">
-        <v>1.137269315054173</v>
+        <v>0.9973134401553432</v>
       </c>
       <c r="K15">
-        <v>0.9711561553077607</v>
+        <v>0.9999407838510856</v>
       </c>
       <c r="L15">
-        <v>1.031982267584797</v>
+        <v>0.9989591005917224</v>
       </c>
       <c r="M15">
-        <v>1.137269315054173</v>
+        <v>0.9973134401553432</v>
       </c>
       <c r="N15">
-        <v>0.8961192061560384</v>
+        <v>1.003182513720308</v>
       </c>
       <c r="O15">
-        <v>0.9711561553077607</v>
+        <v>0.9999407838510856</v>
       </c>
       <c r="P15">
-        <v>1.054212735180967</v>
+        <v>0.9986271120032144</v>
       </c>
       <c r="Q15">
-        <v>1.000950118908055</v>
+        <v>0.9996437275130658</v>
       </c>
       <c r="R15">
-        <v>1.001514892172658</v>
+        <v>1.000145579242246</v>
       </c>
       <c r="S15">
-        <v>1.046389850956761</v>
+        <v>0.9988669650604916</v>
       </c>
       <c r="T15">
-        <v>1.001514892172657</v>
+        <v>1.000145579242246</v>
       </c>
       <c r="U15">
-        <v>1.00882218975658</v>
+        <v>0.9999458522254459</v>
       </c>
       <c r="V15">
-        <v>0.986281593036472</v>
+        <v>1.000593184524418</v>
       </c>
       <c r="W15">
-        <v>1.008699545026947</v>
+        <v>0.9998590228020771</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9623377513279041</v>
+        <v>0.9963299276036417</v>
       </c>
       <c r="D16">
-        <v>1.020539806253167</v>
+        <v>1.002110686467543</v>
       </c>
       <c r="E16">
-        <v>1.019084222944333</v>
+        <v>1.001815313405847</v>
       </c>
       <c r="F16">
-        <v>0.9871398945483353</v>
+        <v>0.9987423385640173</v>
       </c>
       <c r="G16">
-        <v>1.059500844705148</v>
+        <v>1.006166108757411</v>
       </c>
       <c r="H16">
-        <v>1.059500844705148</v>
+        <v>1.006166108757411</v>
       </c>
       <c r="I16">
-        <v>1.059500844705148</v>
+        <v>1.006166108757411</v>
       </c>
       <c r="J16">
-        <v>0.9461843958926811</v>
+        <v>0.9948234880996217</v>
       </c>
       <c r="K16">
-        <v>1.001055077117654</v>
+        <v>0.9998626105243392</v>
       </c>
       <c r="L16">
-        <v>0.9806867683519653</v>
+        <v>0.9979823566857609</v>
       </c>
       <c r="M16">
-        <v>0.9461843958926811</v>
+        <v>0.9948234880996217</v>
       </c>
       <c r="N16">
-        <v>1.059500844705148</v>
+        <v>1.006166108757411</v>
       </c>
       <c r="O16">
-        <v>1.001055077117654</v>
+        <v>0.9998626105243392</v>
       </c>
       <c r="P16">
-        <v>0.9736197365051678</v>
+        <v>0.9973430493119805</v>
       </c>
       <c r="Q16">
-        <v>0.9940974858329947</v>
+        <v>0.9993024745441783</v>
       </c>
       <c r="R16">
-        <v>1.002246772571828</v>
+        <v>1.000284069127124</v>
       </c>
       <c r="S16">
-        <v>0.9781264558528903</v>
+        <v>0.9978094790626594</v>
       </c>
       <c r="T16">
-        <v>1.002246772571828</v>
+        <v>1.000284069127124</v>
       </c>
       <c r="U16">
-        <v>0.9984700530659546</v>
+        <v>0.9998986364863472</v>
       </c>
       <c r="V16">
-        <v>1.010676211393793</v>
+        <v>1.00115213094056</v>
       </c>
       <c r="W16">
-        <v>0.9970660951426485</v>
+        <v>0.9997291037635228</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9681615212568545</v>
+        <v>0.9929133341511526</v>
       </c>
       <c r="D17">
-        <v>1.015265554127479</v>
+        <v>1.003975844578955</v>
       </c>
       <c r="E17">
-        <v>1.017001187271722</v>
+        <v>1.003547676424748</v>
       </c>
       <c r="F17">
-        <v>0.9891636137157547</v>
+        <v>0.9975691815161436</v>
       </c>
       <c r="G17">
-        <v>1.043370074782434</v>
+        <v>1.011588130794782</v>
       </c>
       <c r="H17">
-        <v>1.043370074782434</v>
+        <v>1.011588130794782</v>
       </c>
       <c r="I17">
-        <v>1.043370074782434</v>
+        <v>1.011588130794782</v>
       </c>
       <c r="J17">
-        <v>0.953314685463902</v>
+        <v>0.9899564656723986</v>
       </c>
       <c r="K17">
-        <v>1.005481085326495</v>
+        <v>0.9999506472500291</v>
       </c>
       <c r="L17">
-        <v>0.986218421022213</v>
+        <v>0.9962201911651369</v>
       </c>
       <c r="M17">
-        <v>0.953314685463902</v>
+        <v>0.9899564656723986</v>
       </c>
       <c r="N17">
-        <v>1.043370074782434</v>
+        <v>1.011588130794782</v>
       </c>
       <c r="O17">
-        <v>1.005481085326495</v>
+        <v>0.9999506472500291</v>
       </c>
       <c r="P17">
-        <v>0.9793978853951983</v>
+        <v>0.9949535564612139</v>
       </c>
       <c r="Q17">
-        <v>0.9973223495211248</v>
+        <v>0.9987599143830863</v>
       </c>
       <c r="R17">
-        <v>1.000721948524277</v>
+        <v>1.000498414572403</v>
       </c>
       <c r="S17">
-        <v>0.9826531281687171</v>
+        <v>0.9958254314795237</v>
       </c>
       <c r="T17">
-        <v>1.000721948524277</v>
+        <v>1.000498414572403</v>
       </c>
       <c r="U17">
-        <v>0.9978323648221464</v>
+        <v>0.9997661063083385</v>
       </c>
       <c r="V17">
-        <v>1.006939906814204</v>
+        <v>1.002130511205627</v>
       </c>
       <c r="W17">
-        <v>0.9972470178708568</v>
+        <v>0.9994651839441684</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.980263370854382</v>
+        <v>0.9895803334541786</v>
       </c>
       <c r="D18">
-        <v>1.004612354773488</v>
+        <v>1.005799116906693</v>
       </c>
       <c r="E18">
-        <v>1.012546622490693</v>
+        <v>1.005235586937834</v>
       </c>
       <c r="F18">
-        <v>0.9933606538138779</v>
+        <v>0.9964264377401866</v>
       </c>
       <c r="G18">
-        <v>1.010872108856179</v>
+        <v>1.016884936926356</v>
       </c>
       <c r="H18">
-        <v>1.010872108856179</v>
+        <v>1.016884936926356</v>
       </c>
       <c r="I18">
-        <v>1.010872108856179</v>
+        <v>1.016884936926356</v>
       </c>
       <c r="J18">
-        <v>0.9683123617474433</v>
+        <v>0.9852068918964512</v>
       </c>
       <c r="K18">
-        <v>1.014005700870737</v>
+        <v>1.000029305994281</v>
       </c>
       <c r="L18">
-        <v>0.9973373421991721</v>
+        <v>0.9944987291372299</v>
       </c>
       <c r="M18">
-        <v>0.9683123617474433</v>
+        <v>0.9852068918964512</v>
       </c>
       <c r="N18">
-        <v>1.010872108856179</v>
+        <v>1.016884936926356</v>
       </c>
       <c r="O18">
-        <v>1.014005700870737</v>
+        <v>1.000029305994281</v>
       </c>
       <c r="P18">
-        <v>0.9911590313090901</v>
+        <v>0.9926180989453662</v>
       </c>
       <c r="Q18">
-        <v>1.003683177342307</v>
+        <v>0.9982278718672339</v>
       </c>
       <c r="R18">
-        <v>0.9977300571581198</v>
+        <v>1.000707044939029</v>
       </c>
       <c r="S18">
-        <v>0.9918929054773526</v>
+        <v>0.9938875452103063</v>
       </c>
       <c r="T18">
-        <v>0.9977300571581198</v>
+        <v>1.000707044939029</v>
       </c>
       <c r="U18">
-        <v>0.9966377063220593</v>
+        <v>0.9996368931393187</v>
       </c>
       <c r="V18">
-        <v>0.9994845868288833</v>
+        <v>1.003086501896726</v>
       </c>
       <c r="W18">
-        <v>0.9976638144507466</v>
+        <v>0.9992076673741512</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9768521491841405</v>
+        <v>0.99991873304326</v>
       </c>
       <c r="D19">
-        <v>1.0046729209227</v>
+        <v>1.000000438172581</v>
       </c>
       <c r="E19">
-        <v>1.015044843238965</v>
+        <v>1.000059852601771</v>
       </c>
       <c r="F19">
-        <v>0.9921388496401798</v>
+        <v>0.9999711876002385</v>
       </c>
       <c r="G19">
-        <v>1.010560338695662</v>
+        <v>0.999988484372741</v>
       </c>
       <c r="H19">
-        <v>1.010560338695662</v>
+        <v>0.999988484372741</v>
       </c>
       <c r="I19">
-        <v>1.010560338695662</v>
+        <v>0.999988484372741</v>
       </c>
       <c r="J19">
-        <v>0.9626025759582773</v>
+        <v>0.9998628130148677</v>
       </c>
       <c r="K19">
-        <v>1.017989432355697</v>
+        <v>1.000097256621645</v>
       </c>
       <c r="L19">
-        <v>0.9976656946725629</v>
+        <v>1.000009373178381</v>
       </c>
       <c r="M19">
-        <v>0.9626025759582773</v>
+        <v>0.9998628130148677</v>
       </c>
       <c r="N19">
-        <v>1.010560338695662</v>
+        <v>0.999988484372741</v>
       </c>
       <c r="O19">
-        <v>1.017989432355697</v>
+        <v>1.000097256621645</v>
       </c>
       <c r="P19">
-        <v>0.990296004156987</v>
+        <v>0.9999800348182565</v>
       </c>
       <c r="Q19">
-        <v>1.005064140997938</v>
+        <v>1.000034222110942</v>
       </c>
       <c r="R19">
-        <v>0.9970507823365454</v>
+        <v>0.999982851336418</v>
       </c>
       <c r="S19">
-        <v>0.990910285984718</v>
+        <v>0.9999770857455839</v>
       </c>
       <c r="T19">
-        <v>0.9970507823365454</v>
+        <v>0.9999828513364181</v>
       </c>
       <c r="U19">
-        <v>0.995822799162454</v>
+        <v>0.9999799354023732</v>
       </c>
       <c r="V19">
-        <v>0.9987703070690955</v>
+        <v>0.9999816451964467</v>
       </c>
       <c r="W19">
-        <v>0.997190850583523</v>
+        <v>0.9999885173256857</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999309719221956</v>
+        <v>0.9999361608141524</v>
       </c>
       <c r="D20">
-        <v>0.9999310172538318</v>
+        <v>0.9999553389915542</v>
       </c>
       <c r="E20">
-        <v>1.000078067203759</v>
+        <v>1.000066939117012</v>
       </c>
       <c r="F20">
-        <v>0.9999817631058049</v>
+        <v>0.9999736009109107</v>
       </c>
       <c r="G20">
-        <v>0.9997469584095989</v>
+        <v>0.9998549405956716</v>
       </c>
       <c r="H20">
-        <v>0.9997469584095989</v>
+        <v>0.9998549405956716</v>
       </c>
       <c r="I20">
-        <v>0.9997469584095989</v>
+        <v>0.9998549405956716</v>
       </c>
       <c r="J20">
-        <v>0.9998332418998492</v>
+        <v>0.9998763468240673</v>
       </c>
       <c r="K20">
-        <v>1.000237125500707</v>
+        <v>1.000172325160165</v>
       </c>
       <c r="L20">
-        <v>1.000098246391147</v>
+        <v>1.00005647707301</v>
       </c>
       <c r="M20">
-        <v>0.9998332418998492</v>
+        <v>0.9998763468240673</v>
       </c>
       <c r="N20">
-        <v>0.9997469584095989</v>
+        <v>0.9998549405956716</v>
       </c>
       <c r="O20">
-        <v>1.000237125500707</v>
+        <v>1.000172325160165</v>
       </c>
       <c r="P20">
-        <v>1.000035183700278</v>
+        <v>1.000024335992116</v>
       </c>
       <c r="Q20">
-        <v>1.000109444303256</v>
+        <v>1.000072963035538</v>
       </c>
       <c r="R20">
-        <v>0.999939108603385</v>
+        <v>0.999967870859968</v>
       </c>
       <c r="S20">
-        <v>1.000017376835454</v>
+        <v>1.000007424298381</v>
       </c>
       <c r="T20">
-        <v>0.999939108603385</v>
+        <v>0.999967870859968</v>
       </c>
       <c r="U20">
-        <v>0.99994977222899</v>
+        <v>0.9999693033727036</v>
       </c>
       <c r="V20">
-        <v>0.9999092094651119</v>
+        <v>0.9999464308172972</v>
       </c>
       <c r="W20">
-        <v>0.9999796739608617</v>
+        <v>0.9999865161858179</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9998692573074208</v>
+        <v>1.000174626507368</v>
       </c>
       <c r="D21">
-        <v>1.000135822963761</v>
+        <v>0.9998577339844977</v>
       </c>
       <c r="E21">
-        <v>1.000041234313033</v>
+        <v>0.9999340597097535</v>
       </c>
       <c r="F21">
-        <v>0.9999484644368877</v>
+        <v>1.000049699363432</v>
       </c>
       <c r="G21">
-        <v>1.000435916883597</v>
+        <v>0.9995987428932059</v>
       </c>
       <c r="H21">
-        <v>1.000435916883597</v>
+        <v>0.9995987428932059</v>
       </c>
       <c r="I21">
-        <v>1.000435916883597</v>
+        <v>0.9995987428932059</v>
       </c>
       <c r="J21">
-        <v>0.9998622518457062</v>
+        <v>1.000245746394825</v>
       </c>
       <c r="K21">
-        <v>0.9998593098681134</v>
+        <v>1.000092017773682</v>
       </c>
       <c r="L21">
-        <v>0.9998476348214227</v>
+        <v>1.000133601617147</v>
       </c>
       <c r="M21">
-        <v>0.9998622518457062</v>
+        <v>1.000245746394825</v>
       </c>
       <c r="N21">
-        <v>1.000435916883597</v>
+        <v>0.9995987428932059</v>
       </c>
       <c r="O21">
-        <v>0.9998593098681134</v>
+        <v>1.000092017773682</v>
       </c>
       <c r="P21">
-        <v>0.9998607808569098</v>
+        <v>1.000168882084254</v>
       </c>
       <c r="Q21">
-        <v>0.9999038871525006</v>
+        <v>1.000070858568557</v>
       </c>
       <c r="R21">
-        <v>1.000052492865805</v>
+        <v>0.9999788356872377</v>
       </c>
       <c r="S21">
-        <v>0.9998900087169025</v>
+        <v>1.000129154510646</v>
       </c>
       <c r="T21">
-        <v>1.000052492865805</v>
+        <v>0.9999788356872376</v>
       </c>
       <c r="U21">
-        <v>1.000026485758576</v>
+        <v>0.9999965516062861</v>
       </c>
       <c r="V21">
-        <v>1.00010837198358</v>
+        <v>0.9999169898636702</v>
       </c>
       <c r="W21">
-        <v>0.9999999865549929</v>
+        <v>1.000010778530489</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9992712053700077</v>
+        <v>1.000133305375537</v>
       </c>
       <c r="D22">
-        <v>1.00016691142617</v>
+        <v>0.9997604394699503</v>
       </c>
       <c r="E22">
-        <v>1.000461269673494</v>
+        <v>1.000007580073901</v>
       </c>
       <c r="F22">
-        <v>0.9997668041855833</v>
+        <v>1.000027160799237</v>
       </c>
       <c r="G22">
-        <v>1.000356941950763</v>
+        <v>0.9992974170295222</v>
       </c>
       <c r="H22">
-        <v>1.000356941950763</v>
+        <v>0.9992974170295222</v>
       </c>
       <c r="I22">
-        <v>1.000356941950763</v>
+        <v>0.9992974170295222</v>
       </c>
       <c r="J22">
-        <v>0.998802507653988</v>
+        <v>1.00014098850288</v>
       </c>
       <c r="K22">
-        <v>1.000531232552579</v>
+        <v>1.000349468785367</v>
       </c>
       <c r="L22">
-        <v>0.9999202397967482</v>
+        <v>1.000245118731539</v>
       </c>
       <c r="M22">
-        <v>0.998802507653988</v>
+        <v>1.00014098850288</v>
       </c>
       <c r="N22">
-        <v>1.000356941950763</v>
+        <v>0.9992974170295222</v>
       </c>
       <c r="O22">
-        <v>1.000531232552579</v>
+        <v>1.000349468785367</v>
       </c>
       <c r="P22">
-        <v>0.9996668701032834</v>
+        <v>1.000245228644123</v>
       </c>
       <c r="Q22">
-        <v>1.000149018369081</v>
+        <v>1.000188314792302</v>
       </c>
       <c r="R22">
-        <v>0.9998968940524433</v>
+        <v>0.9999292914392562</v>
       </c>
       <c r="S22">
-        <v>0.9997001814640499</v>
+        <v>1.000172539362495</v>
       </c>
       <c r="T22">
-        <v>0.9998968940524433</v>
+        <v>0.9999292914392562</v>
       </c>
       <c r="U22">
-        <v>0.9998643715857283</v>
+        <v>0.9999537587792515</v>
       </c>
       <c r="V22">
-        <v>0.9999628856587354</v>
+        <v>0.9998224904293057</v>
       </c>
       <c r="W22">
-        <v>0.9999096390761666</v>
+        <v>0.9999951848459916</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000825544319236</v>
+      </c>
+      <c r="D23">
+        <v>0.9994229713965666</v>
+      </c>
+      <c r="E23">
+        <v>0.9996463861997597</v>
+      </c>
+      <c r="F23">
+        <v>1.000241515885161</v>
+      </c>
+      <c r="G23">
+        <v>0.9983957496122602</v>
+      </c>
+      <c r="H23">
+        <v>0.9983957496122602</v>
+      </c>
+      <c r="I23">
+        <v>0.9983957496122602</v>
+      </c>
+      <c r="J23">
+        <v>1.001198526200765</v>
+      </c>
+      <c r="K23">
+        <v>1.000230600643486</v>
+      </c>
+      <c r="L23">
+        <v>1.000525627725315</v>
+      </c>
+      <c r="M23">
+        <v>1.001198526200765</v>
+      </c>
+      <c r="N23">
+        <v>0.9983957496122602</v>
+      </c>
+      <c r="O23">
+        <v>1.000230600643486</v>
+      </c>
+      <c r="P23">
+        <v>1.000714563422125</v>
+      </c>
+      <c r="Q23">
+        <v>1.000236058264323</v>
+      </c>
+      <c r="R23">
+        <v>0.9999416254855036</v>
+      </c>
+      <c r="S23">
+        <v>1.000556880909804</v>
+      </c>
+      <c r="T23">
+        <v>0.9999416254855037</v>
+      </c>
+      <c r="U23">
+        <v>1.000016598085418</v>
+      </c>
+      <c r="V23">
+        <v>0.9996924283907862</v>
+      </c>
+      <c r="W23">
+        <v>1.000060865247819</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9969380340360081</v>
+      </c>
+      <c r="D24">
+        <v>1.002520573470641</v>
+      </c>
+      <c r="E24">
+        <v>1.001036825181439</v>
+      </c>
+      <c r="F24">
+        <v>0.9995049579417656</v>
+      </c>
+      <c r="G24">
+        <v>1.006068376289979</v>
+      </c>
+      <c r="H24">
+        <v>1.006068376289979</v>
+      </c>
+      <c r="I24">
+        <v>1.006068376289979</v>
+      </c>
+      <c r="J24">
+        <v>0.9948998809505066</v>
+      </c>
+      <c r="K24">
+        <v>0.9985390216161666</v>
+      </c>
+      <c r="L24">
+        <v>0.9980826254893002</v>
+      </c>
+      <c r="M24">
+        <v>0.9948998809505066</v>
+      </c>
+      <c r="N24">
+        <v>1.006068376289979</v>
+      </c>
+      <c r="O24">
+        <v>0.9985390216161666</v>
+      </c>
+      <c r="P24">
+        <v>0.9967194512833366</v>
+      </c>
+      <c r="Q24">
+        <v>0.9990219897789661</v>
+      </c>
+      <c r="R24">
+        <v>0.9998357596188839</v>
+      </c>
+      <c r="S24">
+        <v>0.997647953502813</v>
+      </c>
+      <c r="T24">
+        <v>0.9998357596188839</v>
+      </c>
+      <c r="U24">
+        <v>0.9997530591996044</v>
+      </c>
+      <c r="V24">
+        <v>1.001016122617679</v>
+      </c>
+      <c r="W24">
+        <v>0.9996987868719758</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9987088764496752</v>
+      </c>
+      <c r="D25">
+        <v>0.9995739654508983</v>
+      </c>
+      <c r="E25">
+        <v>1.001307491005544</v>
+      </c>
+      <c r="F25">
+        <v>0.998933926887475</v>
+      </c>
+      <c r="G25">
+        <v>1.000107663060356</v>
+      </c>
+      <c r="H25">
+        <v>1.000107663060356</v>
+      </c>
+      <c r="I25">
+        <v>1.000107663060356</v>
+      </c>
+      <c r="J25">
+        <v>0.9988911172967686</v>
+      </c>
+      <c r="K25">
+        <v>1.002150129736611</v>
+      </c>
+      <c r="L25">
+        <v>0.9999278953506071</v>
+      </c>
+      <c r="M25">
+        <v>0.9988911172967686</v>
+      </c>
+      <c r="N25">
+        <v>1.000107663060356</v>
+      </c>
+      <c r="O25">
+        <v>1.002150129736611</v>
+      </c>
+      <c r="P25">
+        <v>1.00052062351669</v>
+      </c>
+      <c r="Q25">
+        <v>1.000542028312043</v>
+      </c>
+      <c r="R25">
+        <v>1.000382970031245</v>
+      </c>
+      <c r="S25">
+        <v>0.9999917246402849</v>
+      </c>
+      <c r="T25">
+        <v>1.000382970031245</v>
+      </c>
+      <c r="U25">
+        <v>1.000020709245303</v>
+      </c>
+      <c r="V25">
+        <v>1.000038100008313</v>
+      </c>
+      <c r="W25">
+        <v>0.9999501331547418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.353230360303588</v>
+      </c>
+      <c r="D26">
+        <v>0.8710206287832202</v>
+      </c>
+      <c r="E26">
+        <v>0.7956458042010981</v>
+      </c>
+      <c r="F26">
+        <v>1.11617974601238</v>
+      </c>
+      <c r="G26">
+        <v>0.6616320149711334</v>
+      </c>
+      <c r="H26">
+        <v>0.6616320149711334</v>
+      </c>
+      <c r="I26">
+        <v>0.6616320149711334</v>
+      </c>
+      <c r="J26">
+        <v>1.548079765550479</v>
+      </c>
+      <c r="K26">
+        <v>0.8489902940146983</v>
+      </c>
+      <c r="L26">
+        <v>1.099827434327867</v>
+      </c>
+      <c r="M26">
+        <v>1.548079765550479</v>
+      </c>
+      <c r="N26">
+        <v>0.6616320149711334</v>
+      </c>
+      <c r="O26">
+        <v>0.8489902940146983</v>
+      </c>
+      <c r="P26">
+        <v>1.198535029782589</v>
+      </c>
+      <c r="Q26">
+        <v>0.9825850200135392</v>
+      </c>
+      <c r="R26">
+        <v>1.01956735817877</v>
+      </c>
+      <c r="S26">
+        <v>1.171083268525852</v>
+      </c>
+      <c r="T26">
+        <v>1.01956735817877</v>
+      </c>
+      <c r="U26">
+        <v>1.043720455137173</v>
+      </c>
+      <c r="V26">
+        <v>0.967302767103965</v>
+      </c>
+      <c r="W26">
+        <v>1.036825756020558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.09107527314148</v>
+      </c>
+      <c r="D27">
+        <v>0.9623121884336756</v>
+      </c>
+      <c r="E27">
+        <v>0.9489378720293017</v>
+      </c>
+      <c r="F27">
+        <v>1.03074408250835</v>
+      </c>
+      <c r="G27">
+        <v>0.8961192061560384</v>
+      </c>
+      <c r="H27">
+        <v>0.8961192061560384</v>
+      </c>
+      <c r="I27">
+        <v>0.8961192061560384</v>
+      </c>
+      <c r="J27">
+        <v>1.137269315054173</v>
+      </c>
+      <c r="K27">
+        <v>0.9711561553077607</v>
+      </c>
+      <c r="L27">
+        <v>1.031982267584797</v>
+      </c>
+      <c r="M27">
+        <v>1.137269315054173</v>
+      </c>
+      <c r="N27">
+        <v>0.8961192061560384</v>
+      </c>
+      <c r="O27">
+        <v>0.9711561553077607</v>
+      </c>
+      <c r="P27">
+        <v>1.054212735180967</v>
+      </c>
+      <c r="Q27">
+        <v>1.000950118908055</v>
+      </c>
+      <c r="R27">
+        <v>1.001514892172658</v>
+      </c>
+      <c r="S27">
+        <v>1.046389850956761</v>
+      </c>
+      <c r="T27">
+        <v>1.001514892172657</v>
+      </c>
+      <c r="U27">
+        <v>1.00882218975658</v>
+      </c>
+      <c r="V27">
+        <v>0.986281593036472</v>
+      </c>
+      <c r="W27">
+        <v>1.008699545026947</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9623377513279041</v>
+      </c>
+      <c r="D28">
+        <v>1.020539806253167</v>
+      </c>
+      <c r="E28">
+        <v>1.019084222944333</v>
+      </c>
+      <c r="F28">
+        <v>0.9871398945483353</v>
+      </c>
+      <c r="G28">
+        <v>1.059500844705148</v>
+      </c>
+      <c r="H28">
+        <v>1.059500844705148</v>
+      </c>
+      <c r="I28">
+        <v>1.059500844705148</v>
+      </c>
+      <c r="J28">
+        <v>0.9461843958926811</v>
+      </c>
+      <c r="K28">
+        <v>1.001055077117654</v>
+      </c>
+      <c r="L28">
+        <v>0.9806867683519653</v>
+      </c>
+      <c r="M28">
+        <v>0.9461843958926811</v>
+      </c>
+      <c r="N28">
+        <v>1.059500844705148</v>
+      </c>
+      <c r="O28">
+        <v>1.001055077117654</v>
+      </c>
+      <c r="P28">
+        <v>0.9736197365051678</v>
+      </c>
+      <c r="Q28">
+        <v>0.9940974858329947</v>
+      </c>
+      <c r="R28">
+        <v>1.002246772571828</v>
+      </c>
+      <c r="S28">
+        <v>0.9781264558528903</v>
+      </c>
+      <c r="T28">
+        <v>1.002246772571828</v>
+      </c>
+      <c r="U28">
+        <v>0.9984700530659546</v>
+      </c>
+      <c r="V28">
+        <v>1.010676211393793</v>
+      </c>
+      <c r="W28">
+        <v>0.9970660951426485</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9681615212568545</v>
+      </c>
+      <c r="D29">
+        <v>1.015265554127479</v>
+      </c>
+      <c r="E29">
+        <v>1.017001187271722</v>
+      </c>
+      <c r="F29">
+        <v>0.9891636137157547</v>
+      </c>
+      <c r="G29">
+        <v>1.043370074782434</v>
+      </c>
+      <c r="H29">
+        <v>1.043370074782434</v>
+      </c>
+      <c r="I29">
+        <v>1.043370074782434</v>
+      </c>
+      <c r="J29">
+        <v>0.953314685463902</v>
+      </c>
+      <c r="K29">
+        <v>1.005481085326495</v>
+      </c>
+      <c r="L29">
+        <v>0.986218421022213</v>
+      </c>
+      <c r="M29">
+        <v>0.953314685463902</v>
+      </c>
+      <c r="N29">
+        <v>1.043370074782434</v>
+      </c>
+      <c r="O29">
+        <v>1.005481085326495</v>
+      </c>
+      <c r="P29">
+        <v>0.9793978853951983</v>
+      </c>
+      <c r="Q29">
+        <v>0.9973223495211248</v>
+      </c>
+      <c r="R29">
+        <v>1.000721948524277</v>
+      </c>
+      <c r="S29">
+        <v>0.9826531281687171</v>
+      </c>
+      <c r="T29">
+        <v>1.000721948524277</v>
+      </c>
+      <c r="U29">
+        <v>0.9978323648221464</v>
+      </c>
+      <c r="V29">
+        <v>1.006939906814204</v>
+      </c>
+      <c r="W29">
+        <v>0.9972470178708568</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.980263370854382</v>
+      </c>
+      <c r="D30">
+        <v>1.004612354773488</v>
+      </c>
+      <c r="E30">
+        <v>1.012546622490693</v>
+      </c>
+      <c r="F30">
+        <v>0.9933606538138779</v>
+      </c>
+      <c r="G30">
+        <v>1.010872108856179</v>
+      </c>
+      <c r="H30">
+        <v>1.010872108856179</v>
+      </c>
+      <c r="I30">
+        <v>1.010872108856179</v>
+      </c>
+      <c r="J30">
+        <v>0.9683123617474433</v>
+      </c>
+      <c r="K30">
+        <v>1.014005700870737</v>
+      </c>
+      <c r="L30">
+        <v>0.9973373421991721</v>
+      </c>
+      <c r="M30">
+        <v>0.9683123617474433</v>
+      </c>
+      <c r="N30">
+        <v>1.010872108856179</v>
+      </c>
+      <c r="O30">
+        <v>1.014005700870737</v>
+      </c>
+      <c r="P30">
+        <v>0.9911590313090901</v>
+      </c>
+      <c r="Q30">
+        <v>1.003683177342307</v>
+      </c>
+      <c r="R30">
+        <v>0.9977300571581198</v>
+      </c>
+      <c r="S30">
+        <v>0.9918929054773526</v>
+      </c>
+      <c r="T30">
+        <v>0.9977300571581198</v>
+      </c>
+      <c r="U30">
+        <v>0.9966377063220593</v>
+      </c>
+      <c r="V30">
+        <v>0.9994845868288833</v>
+      </c>
+      <c r="W30">
+        <v>0.9976638144507466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9768521491841405</v>
+      </c>
+      <c r="D31">
+        <v>1.0046729209227</v>
+      </c>
+      <c r="E31">
+        <v>1.015044843238965</v>
+      </c>
+      <c r="F31">
+        <v>0.9921388496401798</v>
+      </c>
+      <c r="G31">
+        <v>1.010560338695662</v>
+      </c>
+      <c r="H31">
+        <v>1.010560338695662</v>
+      </c>
+      <c r="I31">
+        <v>1.010560338695662</v>
+      </c>
+      <c r="J31">
+        <v>0.9626025759582773</v>
+      </c>
+      <c r="K31">
+        <v>1.017989432355697</v>
+      </c>
+      <c r="L31">
+        <v>0.9976656946725629</v>
+      </c>
+      <c r="M31">
+        <v>0.9626025759582773</v>
+      </c>
+      <c r="N31">
+        <v>1.010560338695662</v>
+      </c>
+      <c r="O31">
+        <v>1.017989432355697</v>
+      </c>
+      <c r="P31">
+        <v>0.990296004156987</v>
+      </c>
+      <c r="Q31">
+        <v>1.005064140997938</v>
+      </c>
+      <c r="R31">
+        <v>0.9970507823365454</v>
+      </c>
+      <c r="S31">
+        <v>0.990910285984718</v>
+      </c>
+      <c r="T31">
+        <v>0.9970507823365454</v>
+      </c>
+      <c r="U31">
+        <v>0.995822799162454</v>
+      </c>
+      <c r="V31">
+        <v>0.9987703070690955</v>
+      </c>
+      <c r="W31">
+        <v>0.997190850583523</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9644909860273967</v>
+      </c>
+      <c r="D32">
+        <v>1.02283253739726</v>
+      </c>
+      <c r="E32">
+        <v>1.016588058630136</v>
+      </c>
+      <c r="F32">
+        <v>0.9877157665753427</v>
+      </c>
+      <c r="G32">
+        <v>1.067833660821918</v>
+      </c>
+      <c r="H32">
+        <v>1.067833660821918</v>
+      </c>
+      <c r="I32">
+        <v>1.067833660821918</v>
+      </c>
+      <c r="J32">
+        <v>0.9514463479452052</v>
+      </c>
+      <c r="K32">
+        <v>0.9933552183561645</v>
+      </c>
+      <c r="L32">
+        <v>0.9774623400000002</v>
+      </c>
+      <c r="M32">
+        <v>0.9514463479452052</v>
+      </c>
+      <c r="N32">
+        <v>1.067833660821918</v>
+      </c>
+      <c r="O32">
+        <v>0.9933552183561645</v>
+      </c>
+      <c r="P32">
+        <v>0.9724007831506849</v>
+      </c>
+      <c r="Q32">
+        <v>0.9905354924657536</v>
+      </c>
+      <c r="R32">
+        <v>1.004211742374429</v>
+      </c>
+      <c r="S32">
+        <v>0.9775057776255709</v>
+      </c>
+      <c r="T32">
+        <v>1.004211742374429</v>
+      </c>
+      <c r="U32">
+        <v>1.000087748424658</v>
+      </c>
+      <c r="V32">
+        <v>1.01363693090411</v>
+      </c>
+      <c r="W32">
+        <v>0.9977156144691779</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.1752191</v>
+      </c>
+      <c r="D33">
+        <v>0.9249589584210527</v>
+      </c>
+      <c r="E33">
+        <v>0.903416825263158</v>
+      </c>
+      <c r="F33">
+        <v>1.057086286315789</v>
+      </c>
+      <c r="G33">
+        <v>0.7976590484210528</v>
+      </c>
+      <c r="H33">
+        <v>0.7976590484210528</v>
+      </c>
+      <c r="I33">
+        <v>0.7976590484210528</v>
+      </c>
+      <c r="J33">
+        <v>1.267154015789474</v>
+      </c>
+      <c r="K33">
+        <v>0.9488797357894737</v>
+      </c>
+      <c r="L33">
+        <v>1.062052425263158</v>
+      </c>
+      <c r="M33">
+        <v>1.267154015789474</v>
+      </c>
+      <c r="N33">
+        <v>0.7976590484210528</v>
+      </c>
+      <c r="O33">
+        <v>0.9488797357894737</v>
+      </c>
+      <c r="P33">
+        <v>1.108016875789474</v>
+      </c>
+      <c r="Q33">
+        <v>1.002983011052632</v>
+      </c>
+      <c r="R33">
+        <v>1.004564266666667</v>
+      </c>
+      <c r="S33">
+        <v>1.091040012631579</v>
+      </c>
+      <c r="T33">
+        <v>1.004564266666667</v>
+      </c>
+      <c r="U33">
+        <v>1.017694771578947</v>
+      </c>
+      <c r="V33">
+        <v>0.9736876269473687</v>
+      </c>
+      <c r="W33">
+        <v>1.017053299407895</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9690087131578947</v>
+      </c>
+      <c r="D34">
+        <v>1.02012635368421</v>
+      </c>
+      <c r="E34">
+        <v>1.014431427368421</v>
+      </c>
+      <c r="F34">
+        <v>0.9891503026315788</v>
+      </c>
+      <c r="G34">
+        <v>1.060209326842105</v>
+      </c>
+      <c r="H34">
+        <v>1.060209326842105</v>
+      </c>
+      <c r="I34">
+        <v>1.060209326842105</v>
+      </c>
+      <c r="J34">
+        <v>0.9580039736842104</v>
+      </c>
+      <c r="K34">
+        <v>0.9936964242105264</v>
+      </c>
+      <c r="L34">
+        <v>0.9799370626315789</v>
+      </c>
+      <c r="M34">
+        <v>0.9580039736842104</v>
+      </c>
+      <c r="N34">
+        <v>1.060209326842105</v>
+      </c>
+      <c r="O34">
+        <v>0.9936964242105264</v>
+      </c>
+      <c r="P34">
+        <v>0.9758501989473685</v>
+      </c>
+      <c r="Q34">
+        <v>0.9914233634210525</v>
+      </c>
+      <c r="R34">
+        <v>1.003969908245614</v>
+      </c>
+      <c r="S34">
+        <v>0.9802835668421053</v>
+      </c>
+      <c r="T34">
+        <v>1.003969908245614</v>
+      </c>
+      <c r="U34">
+        <v>1.000265006842105</v>
+      </c>
+      <c r="V34">
+        <v>1.012253870842105</v>
+      </c>
+      <c r="W34">
+        <v>0.9980704480263157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9150356988405395</v>
+      </c>
+      <c r="D35">
+        <v>1.015522304936957</v>
+      </c>
+      <c r="E35">
+        <v>1.055912357731568</v>
+      </c>
+      <c r="F35">
+        <v>0.9711174920937969</v>
+      </c>
+      <c r="G35">
+        <v>1.033533966906653</v>
+      </c>
+      <c r="H35">
+        <v>1.033533966906653</v>
+      </c>
+      <c r="I35">
+        <v>1.033533966906653</v>
+      </c>
+      <c r="J35">
+        <v>0.8619257604103421</v>
+      </c>
+      <c r="K35">
+        <v>1.06956396383293</v>
+      </c>
+      <c r="L35">
+        <v>0.9933416639790058</v>
+      </c>
+      <c r="M35">
+        <v>0.8619257604103421</v>
+      </c>
+      <c r="N35">
+        <v>1.033533966906653</v>
+      </c>
+      <c r="O35">
+        <v>1.06956396383293</v>
+      </c>
+      <c r="P35">
+        <v>0.9657448621216358</v>
+      </c>
+      <c r="Q35">
+        <v>1.020340727963363</v>
+      </c>
+      <c r="R35">
+        <v>0.9883412303833085</v>
+      </c>
+      <c r="S35">
+        <v>0.9675357387790228</v>
+      </c>
+      <c r="T35">
+        <v>0.9883412303833085</v>
+      </c>
+      <c r="U35">
+        <v>0.9840352958109305</v>
+      </c>
+      <c r="V35">
+        <v>0.9939350300300751</v>
+      </c>
+      <c r="W35">
+        <v>0.9894941510914741</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999309719221956</v>
+      </c>
+      <c r="D36">
+        <v>0.9999310172538318</v>
+      </c>
+      <c r="E36">
+        <v>1.000078067203759</v>
+      </c>
+      <c r="F36">
+        <v>0.9999817631058049</v>
+      </c>
+      <c r="G36">
+        <v>0.9997469584095989</v>
+      </c>
+      <c r="H36">
+        <v>0.9997469584095989</v>
+      </c>
+      <c r="I36">
+        <v>0.9997469584095989</v>
+      </c>
+      <c r="J36">
+        <v>0.9998332418998492</v>
+      </c>
+      <c r="K36">
+        <v>1.000237125500707</v>
+      </c>
+      <c r="L36">
+        <v>1.000098246391147</v>
+      </c>
+      <c r="M36">
+        <v>0.9998332418998492</v>
+      </c>
+      <c r="N36">
+        <v>0.9997469584095989</v>
+      </c>
+      <c r="O36">
+        <v>1.000237125500707</v>
+      </c>
+      <c r="P36">
+        <v>1.000035183700278</v>
+      </c>
+      <c r="Q36">
+        <v>1.000109444303256</v>
+      </c>
+      <c r="R36">
+        <v>0.999939108603385</v>
+      </c>
+      <c r="S36">
+        <v>1.000017376835454</v>
+      </c>
+      <c r="T36">
+        <v>0.999939108603385</v>
+      </c>
+      <c r="U36">
+        <v>0.99994977222899</v>
+      </c>
+      <c r="V36">
+        <v>0.9999092094651119</v>
+      </c>
+      <c r="W36">
+        <v>0.9999796739608617</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9998692573074208</v>
+      </c>
+      <c r="D37">
+        <v>1.000135822963761</v>
+      </c>
+      <c r="E37">
+        <v>1.000041234313033</v>
+      </c>
+      <c r="F37">
+        <v>0.9999484644368877</v>
+      </c>
+      <c r="G37">
+        <v>1.000435916883597</v>
+      </c>
+      <c r="H37">
+        <v>1.000435916883597</v>
+      </c>
+      <c r="I37">
+        <v>1.000435916883597</v>
+      </c>
+      <c r="J37">
+        <v>0.9998622518457062</v>
+      </c>
+      <c r="K37">
+        <v>0.9998593098681134</v>
+      </c>
+      <c r="L37">
+        <v>0.9998476348214227</v>
+      </c>
+      <c r="M37">
+        <v>0.9998622518457062</v>
+      </c>
+      <c r="N37">
+        <v>1.000435916883597</v>
+      </c>
+      <c r="O37">
+        <v>0.9998593098681134</v>
+      </c>
+      <c r="P37">
+        <v>0.9998607808569098</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999038871525006</v>
+      </c>
+      <c r="R37">
+        <v>1.000052492865805</v>
+      </c>
+      <c r="S37">
+        <v>0.9998900087169025</v>
+      </c>
+      <c r="T37">
+        <v>1.000052492865805</v>
+      </c>
+      <c r="U37">
+        <v>1.000026485758576</v>
+      </c>
+      <c r="V37">
+        <v>1.00010837198358</v>
+      </c>
+      <c r="W37">
+        <v>0.9999999865549929</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9992712053700077</v>
+      </c>
+      <c r="D38">
+        <v>1.00016691142617</v>
+      </c>
+      <c r="E38">
+        <v>1.000461269673494</v>
+      </c>
+      <c r="F38">
+        <v>0.9997668041855833</v>
+      </c>
+      <c r="G38">
+        <v>1.000356941950763</v>
+      </c>
+      <c r="H38">
+        <v>1.000356941950763</v>
+      </c>
+      <c r="I38">
+        <v>1.000356941950763</v>
+      </c>
+      <c r="J38">
+        <v>0.998802507653988</v>
+      </c>
+      <c r="K38">
+        <v>1.000531232552579</v>
+      </c>
+      <c r="L38">
+        <v>0.9999202397967482</v>
+      </c>
+      <c r="M38">
+        <v>0.998802507653988</v>
+      </c>
+      <c r="N38">
+        <v>1.000356941950763</v>
+      </c>
+      <c r="O38">
+        <v>1.000531232552579</v>
+      </c>
+      <c r="P38">
+        <v>0.9996668701032834</v>
+      </c>
+      <c r="Q38">
+        <v>1.000149018369081</v>
+      </c>
+      <c r="R38">
+        <v>0.9998968940524433</v>
+      </c>
+      <c r="S38">
+        <v>0.9997001814640499</v>
+      </c>
+      <c r="T38">
+        <v>0.9998968940524433</v>
+      </c>
+      <c r="U38">
+        <v>0.9998643715857283</v>
+      </c>
+      <c r="V38">
+        <v>0.9999628856587354</v>
+      </c>
+      <c r="W38">
+        <v>0.9999096390761666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9981606133579825</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.00024179691183</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.0012328314311</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9994338732343999</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000253750068274</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000253750068274</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000253750068274</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9968341955644374</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.00174411269026</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000039977817174</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9968341955644374</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000253750068274</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.00174411269026</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9992891541273485</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.00058899296233</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.999610686107657</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9993373938296989</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9996106861076569</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9995664828893427</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>0.999703936325129</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9997426438844321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9861850144372715</v>
+      </c>
+      <c r="D40">
+        <v>1.002433409195066</v>
+      </c>
+      <c r="E40">
+        <v>1.009122992404097</v>
+      </c>
+      <c r="F40">
+        <v>0.995324880391146</v>
+      </c>
+      <c r="G40">
+        <v>1.00509893231041</v>
+      </c>
+      <c r="H40">
+        <v>1.00509893231041</v>
+      </c>
+      <c r="I40">
+        <v>1.00509893231041</v>
+      </c>
+      <c r="J40">
+        <v>0.977456201485069</v>
+      </c>
+      <c r="K40">
+        <v>1.011519720322913</v>
+      </c>
+      <c r="L40">
+        <v>0.9990508776790926</v>
+      </c>
+      <c r="M40">
+        <v>0.977456201485069</v>
+      </c>
+      <c r="N40">
+        <v>1.00509893231041</v>
+      </c>
+      <c r="O40">
+        <v>1.011519720322913</v>
+      </c>
+      <c r="P40">
+        <v>0.9944879609039912</v>
+      </c>
+      <c r="Q40">
+        <v>1.00342230035703</v>
+      </c>
+      <c r="R40">
+        <v>0.9980249513727975</v>
+      </c>
+      <c r="S40">
+        <v>0.9947669340663761</v>
+      </c>
+      <c r="T40">
+        <v>0.9980249513727975</v>
+      </c>
+      <c r="U40">
+        <v>0.9973499336273846</v>
+      </c>
+      <c r="V40">
+        <v>0.9988997333639895</v>
+      </c>
+      <c r="W40">
+        <v>0.9982740035281331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9408254101063674</v>
+      </c>
+      <c r="D41">
+        <v>1.022584604662812</v>
+      </c>
+      <c r="E41">
+        <v>1.03384676511307</v>
+      </c>
+      <c r="F41">
+        <v>0.9804621795742825</v>
+      </c>
+      <c r="G41">
+        <v>1.060076931478383</v>
+      </c>
+      <c r="H41">
+        <v>1.060076931478383</v>
+      </c>
+      <c r="I41">
+        <v>1.060076931478383</v>
+      </c>
+      <c r="J41">
+        <v>0.9088636487975539</v>
+      </c>
+      <c r="K41">
+        <v>1.023127298697658</v>
+      </c>
+      <c r="L41">
+        <v>0.9820197855755882</v>
+      </c>
+      <c r="M41">
+        <v>0.9088636487975539</v>
+      </c>
+      <c r="N41">
+        <v>1.060076931478383</v>
+      </c>
+      <c r="O41">
+        <v>1.023127298697658</v>
+      </c>
+      <c r="P41">
+        <v>0.9659954737476057</v>
+      </c>
+      <c r="Q41">
+        <v>1.00179473913597</v>
+      </c>
+      <c r="R41">
+        <v>0.9973559596578648</v>
+      </c>
+      <c r="S41">
+        <v>0.9708177090231646</v>
+      </c>
+      <c r="T41">
+        <v>0.9973559596578648</v>
+      </c>
+      <c r="U41">
+        <v>0.9931325146369692</v>
+      </c>
+      <c r="V41">
+        <v>1.006521398005252</v>
+      </c>
+      <c r="W41">
+        <v>0.9939758280007143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9177125331597249</v>
+      </c>
+      <c r="D42">
+        <v>1.031634196770331</v>
+      </c>
+      <c r="E42">
+        <v>1.047048933225624</v>
+      </c>
+      <c r="F42">
+        <v>0.9725618307292374</v>
+      </c>
+      <c r="G42">
+        <v>1.08503801251232</v>
+      </c>
+      <c r="H42">
+        <v>1.08503801251232</v>
+      </c>
+      <c r="I42">
+        <v>1.08503801251232</v>
+      </c>
+      <c r="J42">
+        <v>0.8739639363332317</v>
+      </c>
+      <c r="K42">
+        <v>1.03151372068859</v>
+      </c>
+      <c r="L42">
+        <v>0.9743983116745673</v>
+      </c>
+      <c r="M42">
+        <v>0.8739639363332317</v>
+      </c>
+      <c r="N42">
+        <v>1.08503801251232</v>
+      </c>
+      <c r="O42">
+        <v>1.03151372068859</v>
+      </c>
+      <c r="P42">
+        <v>0.9527388285109106</v>
+      </c>
+      <c r="Q42">
+        <v>1.002037775708914</v>
+      </c>
+      <c r="R42">
+        <v>0.9968385565113805</v>
+      </c>
+      <c r="S42">
+        <v>0.9593464959170195</v>
+      </c>
+      <c r="T42">
+        <v>0.9968385565113805</v>
+      </c>
+      <c r="U42">
+        <v>0.9907693750658448</v>
+      </c>
+      <c r="V42">
+        <v>1.00962310255514</v>
+      </c>
+      <c r="W42">
+        <v>0.9917339343867033</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossA-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW30.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
+    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.003182513720308</v>
+        <v>0.9999361608141524</v>
       </c>
       <c r="D3">
-        <v>0.9973134401553432</v>
+        <v>0.9999553389915542</v>
       </c>
       <c r="E3">
-        <v>0.9999407838510856</v>
+        <v>1.000066939117012</v>
       </c>
       <c r="F3">
-        <v>1.003182513720308</v>
+        <v>0.9999736009109107</v>
       </c>
       <c r="G3">
-        <v>0.9993466711750461</v>
+        <v>0.9998549405956716</v>
       </c>
       <c r="H3">
-        <v>1.000944397179965</v>
+        <v>0.9998549405956716</v>
       </c>
       <c r="I3">
-        <v>1.003182513720308</v>
+        <v>0.9998549405956716</v>
       </c>
       <c r="J3">
-        <v>0.9973134401553432</v>
+        <v>0.9998763468240673</v>
       </c>
       <c r="K3">
-        <v>0.9989591005917222</v>
+        <v>1.000172325160165</v>
       </c>
       <c r="L3">
-        <v>1.001089191760224</v>
+        <v>1.00005647707301</v>
       </c>
       <c r="M3">
-        <v>0.9980960839829216</v>
+        <v>0.9998763468240673</v>
       </c>
       <c r="N3">
-        <v>1.003182513720308</v>
+        <v>0.9998549405956716</v>
       </c>
       <c r="O3">
-        <v>0.9999407838510856</v>
+        <v>1.000172325160165</v>
       </c>
       <c r="P3">
-        <v>0.9986271120032144</v>
+        <v>1.000024335992116</v>
       </c>
       <c r="Q3">
-        <v>0.9996437275130658</v>
+        <v>1.000072963035538</v>
       </c>
       <c r="R3">
-        <v>1.000145579242246</v>
+        <v>0.999967870859968</v>
       </c>
       <c r="S3">
-        <v>0.9988669650604916</v>
+        <v>1.000007424298381</v>
       </c>
       <c r="T3">
-        <v>1.000145579242246</v>
+        <v>0.999967870859968</v>
       </c>
       <c r="U3">
-        <v>0.9999458522254459</v>
+        <v>0.9999693033727036</v>
       </c>
       <c r="V3">
-        <v>1.000593184524418</v>
+        <v>0.9999464308172972</v>
       </c>
       <c r="W3">
-        <v>0.9998590228020769</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9999865161858179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.006166108757411</v>
+        <v>0.9861850144372715</v>
       </c>
       <c r="D4">
-        <v>0.9948234880996217</v>
+        <v>1.002433409195066</v>
       </c>
       <c r="E4">
-        <v>0.9998626105243392</v>
+        <v>1.009122992404097</v>
       </c>
       <c r="F4">
-        <v>1.006166108757411</v>
+        <v>0.995324880391146</v>
       </c>
       <c r="G4">
-        <v>0.9987423385640173</v>
+        <v>1.00509893231041</v>
       </c>
       <c r="H4">
-        <v>1.001815313405847</v>
+        <v>1.00509893231041</v>
       </c>
       <c r="I4">
-        <v>1.006166108757411</v>
+        <v>1.00509893231041</v>
       </c>
       <c r="J4">
-        <v>0.9948234880996217</v>
+        <v>0.977456201485069</v>
       </c>
       <c r="K4">
-        <v>0.9979823566857609</v>
+        <v>1.011519720322913</v>
       </c>
       <c r="L4">
-        <v>1.002110686467543</v>
+        <v>0.9990508776790926</v>
       </c>
       <c r="M4">
-        <v>0.9963299276036417</v>
+        <v>0.977456201485069</v>
       </c>
       <c r="N4">
-        <v>1.006166108757411</v>
+        <v>1.00509893231041</v>
       </c>
       <c r="O4">
-        <v>0.9998626105243392</v>
+        <v>1.011519720322913</v>
       </c>
       <c r="P4">
-        <v>0.9973430493119805</v>
+        <v>0.9944879609039912</v>
       </c>
       <c r="Q4">
-        <v>0.9993024745441783</v>
+        <v>1.00342230035703</v>
       </c>
       <c r="R4">
-        <v>1.000284069127124</v>
+        <v>0.9980249513727975</v>
       </c>
       <c r="S4">
-        <v>0.9978094790626594</v>
+        <v>0.9947669340663761</v>
       </c>
       <c r="T4">
-        <v>1.000284069127124</v>
+        <v>0.9980249513727975</v>
       </c>
       <c r="U4">
-        <v>0.9998986364863472</v>
+        <v>0.9973499336273846</v>
       </c>
       <c r="V4">
-        <v>1.00115213094056</v>
+        <v>0.9988997333639895</v>
       </c>
       <c r="W4">
-        <v>0.9997291037635228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9982740035281331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.011588130794782</v>
+        <v>0.975546426304032</v>
       </c>
       <c r="D5">
-        <v>0.9899564656723986</v>
+        <v>1.006090920504322</v>
       </c>
       <c r="E5">
-        <v>0.9999506472500291</v>
+        <v>1.015392836311245</v>
       </c>
       <c r="F5">
-        <v>1.011588130794782</v>
+        <v>0.991756186340055</v>
       </c>
       <c r="G5">
-        <v>0.9975691815161436</v>
+        <v>1.014745029272334</v>
       </c>
       <c r="H5">
-        <v>1.003547676424748</v>
+        <v>1.014745029272334</v>
       </c>
       <c r="I5">
-        <v>1.011588130794782</v>
+        <v>1.014745029272334</v>
       </c>
       <c r="J5">
-        <v>0.9899564656723986</v>
+        <v>0.9609771883285302</v>
       </c>
       <c r="K5">
-        <v>0.9962201911651369</v>
+        <v>1.016523729538905</v>
       </c>
       <c r="L5">
-        <v>1.003975844578955</v>
+        <v>0.9962307585230558</v>
       </c>
       <c r="M5">
-        <v>0.9929133341511526</v>
+        <v>0.9609771883285302</v>
       </c>
       <c r="N5">
-        <v>1.011588130794782</v>
+        <v>1.014745029272334</v>
       </c>
       <c r="O5">
-        <v>0.9999506472500291</v>
+        <v>1.016523729538905</v>
       </c>
       <c r="P5">
-        <v>0.9949535564612139</v>
+        <v>0.9887504589337177</v>
       </c>
       <c r="Q5">
-        <v>0.9987599143830863</v>
+        <v>1.00413995793948</v>
       </c>
       <c r="R5">
-        <v>1.000498414572403</v>
+        <v>0.9974153157132566</v>
       </c>
       <c r="S5">
-        <v>0.9958254314795237</v>
+        <v>0.9897523680691634</v>
       </c>
       <c r="T5">
-        <v>1.000498414572403</v>
+        <v>0.9974153157132566</v>
       </c>
       <c r="U5">
-        <v>0.9997661063083385</v>
+        <v>0.9960005333699562</v>
       </c>
       <c r="V5">
-        <v>1.002130511205627</v>
+        <v>0.9997494325504318</v>
       </c>
       <c r="W5">
-        <v>0.9994651839441684</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9971578843903099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.016884936926356</v>
+        <v>0.9150356988405395</v>
       </c>
       <c r="D6">
-        <v>0.9852068918964512</v>
+        <v>1.015522304936957</v>
       </c>
       <c r="E6">
-        <v>1.000029305994281</v>
+        <v>1.055912357731568</v>
       </c>
       <c r="F6">
-        <v>1.016884936926356</v>
+        <v>0.9711174920937969</v>
       </c>
       <c r="G6">
-        <v>0.9964264377401866</v>
+        <v>1.033533966906653</v>
       </c>
       <c r="H6">
-        <v>1.005235586937834</v>
+        <v>1.033533966906653</v>
       </c>
       <c r="I6">
-        <v>1.016884936926356</v>
+        <v>1.033533966906653</v>
       </c>
       <c r="J6">
-        <v>0.9852068918964512</v>
+        <v>0.8619257604103421</v>
       </c>
       <c r="K6">
-        <v>0.9944987291372299</v>
+        <v>1.06956396383293</v>
       </c>
       <c r="L6">
-        <v>1.005799116906693</v>
+        <v>0.9933416639790058</v>
       </c>
       <c r="M6">
-        <v>0.9895803334541786</v>
+        <v>0.8619257604103421</v>
       </c>
       <c r="N6">
-        <v>1.016884936926356</v>
+        <v>1.033533966906653</v>
       </c>
       <c r="O6">
-        <v>1.000029305994281</v>
+        <v>1.06956396383293</v>
       </c>
       <c r="P6">
-        <v>0.9926180989453662</v>
+        <v>0.9657448621216358</v>
       </c>
       <c r="Q6">
-        <v>0.9982278718672339</v>
+        <v>1.020340727963363</v>
       </c>
       <c r="R6">
-        <v>1.000707044939029</v>
+        <v>0.9883412303833085</v>
       </c>
       <c r="S6">
-        <v>0.9938875452103063</v>
+        <v>0.9675357387790228</v>
       </c>
       <c r="T6">
-        <v>1.000707044939029</v>
+        <v>0.9883412303833085</v>
       </c>
       <c r="U6">
-        <v>0.9996368931393187</v>
+        <v>0.9840352958109305</v>
       </c>
       <c r="V6">
-        <v>1.003086501896726</v>
+        <v>0.9939350300300751</v>
       </c>
       <c r="W6">
-        <v>0.9992076673741512</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9894941510914741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999884843727408</v>
+        <v>0.9977945964751253</v>
       </c>
       <c r="D7">
-        <v>0.9998628130148679</v>
+        <v>1.001279195195088</v>
       </c>
       <c r="E7">
-        <v>1.000097256621646</v>
+        <v>1.001086124496262</v>
       </c>
       <c r="F7">
-        <v>0.9999884843727408</v>
+        <v>0.999244895817993</v>
       </c>
       <c r="G7">
-        <v>0.9999711876002386</v>
+        <v>1.003738843579841</v>
       </c>
       <c r="H7">
-        <v>1.000059852601771</v>
+        <v>1.003738843579841</v>
       </c>
       <c r="I7">
-        <v>0.9999884843727408</v>
+        <v>1.003738843579841</v>
       </c>
       <c r="J7">
-        <v>0.9998628130148679</v>
+        <v>0.9968937483569253</v>
       </c>
       <c r="K7">
-        <v>1.000009373178381</v>
+        <v>0.9998941666680996</v>
       </c>
       <c r="L7">
-        <v>1.000000438172581</v>
+        <v>0.9987754043556544</v>
       </c>
       <c r="M7">
-        <v>0.9999187330432601</v>
+        <v>0.9968937483569253</v>
       </c>
       <c r="N7">
-        <v>0.9999884843727408</v>
+        <v>1.003738843579841</v>
       </c>
       <c r="O7">
-        <v>1.000097256621646</v>
+        <v>0.9998941666680996</v>
       </c>
       <c r="P7">
-        <v>0.9999800348182568</v>
+        <v>0.9983939575125125</v>
       </c>
       <c r="Q7">
-        <v>1.000034222110942</v>
+        <v>0.9995695312430464</v>
       </c>
       <c r="R7">
-        <v>0.9999828513364181</v>
+        <v>1.000175586201622</v>
       </c>
       <c r="S7">
-        <v>0.999977085745584</v>
+        <v>0.9986776036143393</v>
       </c>
       <c r="T7">
-        <v>0.9999828513364181</v>
+        <v>1.000175586201622</v>
       </c>
       <c r="U7">
-        <v>0.9999799354023733</v>
+        <v>0.9999429136057146</v>
       </c>
       <c r="V7">
-        <v>0.9999816451964468</v>
+        <v>1.00070209960054</v>
       </c>
       <c r="W7">
-        <v>0.9999885173256858</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9998383718681235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998549405956717</v>
+        <v>0.9998692573074208</v>
       </c>
       <c r="D8">
-        <v>0.9998763468240668</v>
+        <v>1.000135822963761</v>
       </c>
       <c r="E8">
-        <v>1.000172325160165</v>
+        <v>1.000041234313033</v>
       </c>
       <c r="F8">
-        <v>0.9998549405956717</v>
+        <v>0.9999484644368877</v>
       </c>
       <c r="G8">
-        <v>0.999973600910911</v>
+        <v>1.000435916883597</v>
       </c>
       <c r="H8">
-        <v>1.000066939117013</v>
+        <v>1.000435916883597</v>
       </c>
       <c r="I8">
-        <v>0.9998549405956717</v>
+        <v>1.000435916883597</v>
       </c>
       <c r="J8">
-        <v>0.9998763468240668</v>
+        <v>0.9998622518457062</v>
       </c>
       <c r="K8">
-        <v>1.00005647707301</v>
+        <v>0.9998593098681134</v>
       </c>
       <c r="L8">
-        <v>0.9999553389915542</v>
+        <v>0.9998476348214227</v>
       </c>
       <c r="M8">
-        <v>0.9999361608141525</v>
+        <v>0.9998622518457062</v>
       </c>
       <c r="N8">
-        <v>0.9998549405956717</v>
+        <v>1.000435916883597</v>
       </c>
       <c r="O8">
-        <v>1.000172325160165</v>
+        <v>0.9998593098681134</v>
       </c>
       <c r="P8">
-        <v>1.000024335992116</v>
+        <v>0.9998607808569098</v>
       </c>
       <c r="Q8">
-        <v>1.000072963035538</v>
+        <v>0.9999038871525006</v>
       </c>
       <c r="R8">
-        <v>0.9999678708599679</v>
+        <v>1.000052492865805</v>
       </c>
       <c r="S8">
-        <v>1.000007424298381</v>
+        <v>0.9998900087169025</v>
       </c>
       <c r="T8">
-        <v>0.9999678708599679</v>
+        <v>1.000052492865805</v>
       </c>
       <c r="U8">
-        <v>0.9999693033727036</v>
+        <v>1.000026485758576</v>
       </c>
       <c r="V8">
-        <v>0.9999464308172973</v>
+        <v>1.00010837198358</v>
       </c>
       <c r="W8">
-        <v>0.9999865161858181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999999865549929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9995987428932059</v>
+        <v>0.9963299276036417</v>
       </c>
       <c r="D9">
-        <v>1.000245746394825</v>
+        <v>1.002110686467543</v>
       </c>
       <c r="E9">
-        <v>1.000092017773682</v>
+        <v>1.001815313405847</v>
       </c>
       <c r="F9">
-        <v>0.9995987428932059</v>
+        <v>0.9987423385640173</v>
       </c>
       <c r="G9">
-        <v>1.000049699363432</v>
+        <v>1.006166108757411</v>
       </c>
       <c r="H9">
-        <v>0.9999340597097535</v>
+        <v>1.006166108757411</v>
       </c>
       <c r="I9">
-        <v>0.9995987428932059</v>
+        <v>1.006166108757411</v>
       </c>
       <c r="J9">
-        <v>1.000245746394825</v>
+        <v>0.9948234880996217</v>
       </c>
       <c r="K9">
-        <v>1.000133601617147</v>
+        <v>0.9998626105243392</v>
       </c>
       <c r="L9">
-        <v>0.9998577339844977</v>
+        <v>0.9979823566857609</v>
       </c>
       <c r="M9">
-        <v>1.000174626507368</v>
+        <v>0.9948234880996217</v>
       </c>
       <c r="N9">
-        <v>0.9995987428932059</v>
+        <v>1.006166108757411</v>
       </c>
       <c r="O9">
-        <v>1.000092017773682</v>
+        <v>0.9998626105243392</v>
       </c>
       <c r="P9">
-        <v>1.000168882084254</v>
+        <v>0.9973430493119805</v>
       </c>
       <c r="Q9">
-        <v>1.000070858568557</v>
+        <v>0.9993024745441783</v>
       </c>
       <c r="R9">
-        <v>0.9999788356872377</v>
+        <v>1.000284069127124</v>
       </c>
       <c r="S9">
-        <v>1.000129154510646</v>
+        <v>0.9978094790626594</v>
       </c>
       <c r="T9">
-        <v>0.9999788356872376</v>
+        <v>1.000284069127124</v>
       </c>
       <c r="U9">
-        <v>0.9999965516062861</v>
+        <v>0.9998986364863472</v>
       </c>
       <c r="V9">
-        <v>0.9999169898636702</v>
+        <v>1.00115213094056</v>
       </c>
       <c r="W9">
-        <v>1.000010778530489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9997291037635228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.999297417029522</v>
+        <v>0.9136018831670429</v>
       </c>
       <c r="D10">
-        <v>1.000140988502879</v>
+        <v>1.015519000956498</v>
       </c>
       <c r="E10">
-        <v>1.000349468785367</v>
+        <v>1.056978506134661</v>
       </c>
       <c r="F10">
-        <v>0.999297417029522</v>
+        <v>0.9705898976380296</v>
       </c>
       <c r="G10">
-        <v>1.000027160799237</v>
+        <v>1.033348530123681</v>
       </c>
       <c r="H10">
-        <v>1.000007580073901</v>
+        <v>1.033348530123681</v>
       </c>
       <c r="I10">
-        <v>0.999297417029522</v>
+        <v>1.033348530123681</v>
       </c>
       <c r="J10">
-        <v>1.000140988502879</v>
+        <v>0.8595405382161821</v>
       </c>
       <c r="K10">
-        <v>1.000245118731539</v>
+        <v>1.071293254226499</v>
       </c>
       <c r="L10">
-        <v>0.9997604394699503</v>
+        <v>0.9934969588170566</v>
       </c>
       <c r="M10">
-        <v>1.000133305375537</v>
+        <v>0.8595405382161821</v>
       </c>
       <c r="N10">
-        <v>0.999297417029522</v>
+        <v>1.033348530123681</v>
       </c>
       <c r="O10">
-        <v>1.000349468785367</v>
+        <v>1.071293254226499</v>
       </c>
       <c r="P10">
-        <v>1.000245228644123</v>
+        <v>0.9654168962213407</v>
       </c>
       <c r="Q10">
-        <v>1.000188314792302</v>
+        <v>1.020941575932264</v>
       </c>
       <c r="R10">
-        <v>0.999929291439256</v>
+        <v>0.9880607741887873</v>
       </c>
       <c r="S10">
-        <v>1.000172539362495</v>
+        <v>0.9671412300269037</v>
       </c>
       <c r="T10">
-        <v>0.999929291439256</v>
+        <v>0.9880607741887873</v>
       </c>
       <c r="U10">
-        <v>0.9999537587792513</v>
+        <v>0.9836930550510979</v>
       </c>
       <c r="V10">
-        <v>0.9998224904293055</v>
+        <v>0.9936241500656144</v>
       </c>
       <c r="W10">
-        <v>0.9999951848459916</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9892960711599563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9983957496122602</v>
+        <v>0.9167739046534271</v>
       </c>
       <c r="D11">
-        <v>1.001198526200765</v>
+        <v>1.029291852469156</v>
       </c>
       <c r="E11">
-        <v>1.000230600643486</v>
+        <v>1.04866936325695</v>
       </c>
       <c r="F11">
-        <v>0.9983957496122602</v>
+        <v>0.9724138699283404</v>
       </c>
       <c r="G11">
-        <v>1.000241515885161</v>
+        <v>1.076744816608904</v>
       </c>
       <c r="H11">
-        <v>0.9996463861997597</v>
+        <v>1.076744816608904</v>
       </c>
       <c r="I11">
-        <v>0.9983957496122602</v>
+        <v>1.076744816608904</v>
       </c>
       <c r="J11">
-        <v>1.001198526200765</v>
+        <v>0.8707353459223337</v>
       </c>
       <c r="K11">
-        <v>1.000525627725315</v>
+        <v>1.037852239602815</v>
       </c>
       <c r="L11">
-        <v>0.9994229713965666</v>
+        <v>0.9775306339027066</v>
       </c>
       <c r="M11">
-        <v>1.000825544319236</v>
+        <v>0.8707353459223337</v>
       </c>
       <c r="N11">
-        <v>0.9983957496122602</v>
+        <v>1.076744816608904</v>
       </c>
       <c r="O11">
-        <v>1.000230600643486</v>
+        <v>1.037852239602815</v>
       </c>
       <c r="P11">
-        <v>1.000714563422125</v>
+        <v>0.9542937927625744</v>
       </c>
       <c r="Q11">
-        <v>1.000236058264323</v>
+        <v>1.005133054765578</v>
       </c>
       <c r="R11">
-        <v>0.9999416254855036</v>
+        <v>0.9951108007113509</v>
       </c>
       <c r="S11">
-        <v>1.000556880909804</v>
+        <v>0.9603338184844965</v>
       </c>
       <c r="T11">
-        <v>0.9999416254855037</v>
+        <v>0.9951108007113509</v>
       </c>
       <c r="U11">
-        <v>1.000016598085418</v>
+        <v>0.9894365680155983</v>
       </c>
       <c r="V11">
-        <v>0.9996924283907862</v>
+        <v>1.006898217734259</v>
       </c>
       <c r="W11">
-        <v>1.000060865247819</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.9912515032930791</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.006068376289979</v>
+        <v>0.9713837227894748</v>
       </c>
       <c r="D12">
-        <v>0.9948998809505066</v>
+        <v>1.005758654336842</v>
       </c>
       <c r="E12">
-        <v>0.9985390216161666</v>
+        <v>1.018604709515791</v>
       </c>
       <c r="F12">
-        <v>1.006068376289979</v>
+        <v>0.9902884533052621</v>
       </c>
       <c r="G12">
-        <v>0.9995049579417656</v>
+        <v>1.012977091894737</v>
       </c>
       <c r="H12">
-        <v>1.001036825181439</v>
+        <v>1.012977091894737</v>
       </c>
       <c r="I12">
-        <v>1.006068376289979</v>
+        <v>1.012977091894737</v>
       </c>
       <c r="J12">
-        <v>0.9948998809505066</v>
+        <v>0.9537437993894713</v>
       </c>
       <c r="K12">
-        <v>0.9980826254893002</v>
+        <v>1.022282591252629</v>
       </c>
       <c r="L12">
-        <v>1.002520573470641</v>
+        <v>0.9971440846210531</v>
       </c>
       <c r="M12">
-        <v>0.9969380340360081</v>
+        <v>0.9537437993894713</v>
       </c>
       <c r="N12">
-        <v>1.006068376289979</v>
+        <v>1.012977091894737</v>
       </c>
       <c r="O12">
-        <v>0.9985390216161666</v>
+        <v>1.022282591252629</v>
       </c>
       <c r="P12">
-        <v>0.9967194512833366</v>
+        <v>0.9880131953210504</v>
       </c>
       <c r="Q12">
-        <v>0.9990219897789661</v>
+        <v>1.006285522278946</v>
       </c>
       <c r="R12">
-        <v>0.9998357596188839</v>
+        <v>0.9963344941789458</v>
       </c>
       <c r="S12">
-        <v>0.997647953502813</v>
+        <v>0.9887716146491209</v>
       </c>
       <c r="T12">
-        <v>0.9998357596188839</v>
+        <v>0.9963344941789458</v>
       </c>
       <c r="U12">
-        <v>0.9997530591996044</v>
+        <v>0.9948229839605249</v>
       </c>
       <c r="V12">
-        <v>1.001016122617679</v>
+        <v>0.9984538055473674</v>
       </c>
       <c r="W12">
-        <v>0.9996987868719758</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9965228883881576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000107663060356</v>
+        <v>1.01522048619772</v>
       </c>
       <c r="D13">
-        <v>0.9988911172967686</v>
+        <v>0.994530066122603</v>
       </c>
       <c r="E13">
-        <v>1.002150129736611</v>
+        <v>0.9911854778758697</v>
       </c>
       <c r="F13">
-        <v>1.000107663060356</v>
+        <v>1.004910080810938</v>
       </c>
       <c r="G13">
-        <v>0.998933926887475</v>
+        <v>0.9859740104856882</v>
       </c>
       <c r="H13">
-        <v>1.001307491005544</v>
+        <v>0.9859740104856882</v>
       </c>
       <c r="I13">
-        <v>1.000107663060356</v>
+        <v>0.9859740104856882</v>
       </c>
       <c r="J13">
-        <v>0.9988911172967686</v>
+        <v>1.023868500365388</v>
       </c>
       <c r="K13">
-        <v>0.999927895350607</v>
+        <v>0.9932486765746102</v>
       </c>
       <c r="L13">
-        <v>0.9995739654508983</v>
+        <v>1.004080440597878</v>
       </c>
       <c r="M13">
-        <v>0.9987088764496752</v>
+        <v>1.023868500365388</v>
       </c>
       <c r="N13">
-        <v>1.000107663060356</v>
+        <v>0.9859740104856882</v>
       </c>
       <c r="O13">
-        <v>1.002150129736611</v>
+        <v>0.9932486765746102</v>
       </c>
       <c r="P13">
-        <v>1.00052062351669</v>
+        <v>1.008558588469999</v>
       </c>
       <c r="Q13">
-        <v>1.000542028312043</v>
+        <v>0.9990793786927742</v>
       </c>
       <c r="R13">
-        <v>1.000382970031245</v>
+        <v>1.001030395808562</v>
       </c>
       <c r="S13">
-        <v>0.9999917246402849</v>
+        <v>1.007342419250312</v>
       </c>
       <c r="T13">
-        <v>1.000382970031245</v>
+        <v>1.001030395808562</v>
       </c>
       <c r="U13">
-        <v>1.000020709245303</v>
+        <v>1.002000317059156</v>
       </c>
       <c r="V13">
-        <v>1.000038100008313</v>
+        <v>0.9987950557444625</v>
       </c>
       <c r="W13">
-        <v>0.9999501331547418</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.001627217378837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.6616320149711334</v>
+        <v>0.8503200600000009</v>
       </c>
       <c r="D14">
-        <v>1.548079765550479</v>
+        <v>1.026284799999999</v>
       </c>
       <c r="E14">
-        <v>0.8489902940146983</v>
+        <v>1.0989676</v>
       </c>
       <c r="F14">
-        <v>0.6616320149711334</v>
+        <v>0.9490348699999991</v>
       </c>
       <c r="G14">
-        <v>1.11617974601238</v>
+        <v>1.055856</v>
       </c>
       <c r="H14">
-        <v>0.7956458042010981</v>
+        <v>1.055856</v>
       </c>
       <c r="I14">
-        <v>0.6616320149711334</v>
+        <v>1.055856</v>
       </c>
       <c r="J14">
-        <v>1.548079765550479</v>
+        <v>0.7563715000000001</v>
       </c>
       <c r="K14">
-        <v>1.099827434327867</v>
+        <v>1.124812899999999</v>
       </c>
       <c r="L14">
-        <v>0.8710206287832202</v>
+        <v>0.9894340199999996</v>
       </c>
       <c r="M14">
-        <v>1.353230360303588</v>
+        <v>0.7563715000000001</v>
       </c>
       <c r="N14">
-        <v>0.6616320149711334</v>
+        <v>1.055856</v>
       </c>
       <c r="O14">
-        <v>0.8489902940146983</v>
+        <v>1.124812899999999</v>
       </c>
       <c r="P14">
-        <v>1.198535029782589</v>
+        <v>0.9405921999999998</v>
       </c>
       <c r="Q14">
-        <v>0.9825850200135393</v>
+        <v>1.036923884999999</v>
       </c>
       <c r="R14">
-        <v>1.01956735817877</v>
+        <v>0.9790134666666667</v>
       </c>
       <c r="S14">
-        <v>1.171083268525853</v>
+        <v>0.9434064233333329</v>
       </c>
       <c r="T14">
-        <v>1.01956735817877</v>
+        <v>0.9790134666666664</v>
       </c>
       <c r="U14">
-        <v>1.043720455137173</v>
+        <v>0.9715188174999996</v>
       </c>
       <c r="V14">
-        <v>0.967302767103965</v>
+        <v>0.9883862539999997</v>
       </c>
       <c r="W14">
-        <v>1.036825756020558</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9813852187499998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8961192061560384</v>
+        <v>1.5361801</v>
       </c>
       <c r="D15">
-        <v>1.137269315054173</v>
+        <v>0.81025805</v>
       </c>
       <c r="E15">
-        <v>0.9711561553077607</v>
+        <v>0.687925</v>
       </c>
       <c r="F15">
-        <v>0.8961192061560384</v>
+        <v>1.1741023</v>
       </c>
       <c r="G15">
-        <v>1.03074408250835</v>
+        <v>0.5123396</v>
       </c>
       <c r="H15">
-        <v>0.9489378720293017</v>
+        <v>0.5123396</v>
       </c>
       <c r="I15">
-        <v>0.8961192061560384</v>
+        <v>0.5123396</v>
       </c>
       <c r="J15">
-        <v>1.137269315054173</v>
+        <v>1.8399756</v>
       </c>
       <c r="K15">
-        <v>1.031982267584797</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="L15">
-        <v>0.9623121884336756</v>
+        <v>1.1415979</v>
       </c>
       <c r="M15">
-        <v>1.091075273141479</v>
+        <v>1.8399756</v>
       </c>
       <c r="N15">
-        <v>0.8961192061560384</v>
+        <v>0.5123396</v>
       </c>
       <c r="O15">
-        <v>0.9711561553077607</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="P15">
-        <v>1.054212735180967</v>
+        <v>1.29817355</v>
       </c>
       <c r="Q15">
-        <v>1.000950118908055</v>
+        <v>0.9652368999999998</v>
       </c>
       <c r="R15">
-        <v>1.001514892172658</v>
+        <v>1.0362289</v>
       </c>
       <c r="S15">
-        <v>1.046389850956761</v>
+        <v>1.256816466666667</v>
       </c>
       <c r="T15">
-        <v>1.001514892172657</v>
+        <v>1.0362289</v>
       </c>
       <c r="U15">
-        <v>1.00882218975658</v>
+        <v>1.07069725</v>
       </c>
       <c r="V15">
-        <v>0.986281593036472</v>
+        <v>0.9590257199999999</v>
       </c>
       <c r="W15">
-        <v>1.008699545026947</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>1.05734375625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9997469584095989</v>
+        <v>0.85032006</v>
       </c>
       <c r="D16">
-        <v>0.9998332418998492</v>
+        <v>1.0262848</v>
       </c>
       <c r="E16">
-        <v>1.000237125500707</v>
+        <v>1.0989676</v>
       </c>
       <c r="F16">
-        <v>0.9997469584095989</v>
+        <v>0.94903487</v>
       </c>
       <c r="G16">
-        <v>0.9999817631058049</v>
+        <v>1.055856</v>
       </c>
       <c r="H16">
-        <v>1.000078067203759</v>
+        <v>1.055856</v>
       </c>
       <c r="I16">
-        <v>0.9997469584095989</v>
+        <v>1.055856</v>
       </c>
       <c r="J16">
-        <v>0.9998332418998492</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="K16">
-        <v>1.000098246391147</v>
+        <v>1.1248129</v>
       </c>
       <c r="L16">
-        <v>0.9999310172538315</v>
+        <v>0.98943402</v>
       </c>
       <c r="M16">
-        <v>0.9999309719221956</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="N16">
-        <v>0.9997469584095989</v>
+        <v>1.055856</v>
       </c>
       <c r="O16">
-        <v>1.000237125500707</v>
+        <v>1.1248129</v>
       </c>
       <c r="P16">
-        <v>1.000035183700278</v>
+        <v>0.9405922</v>
       </c>
       <c r="Q16">
-        <v>1.000109444303256</v>
+        <v>1.036923885</v>
       </c>
       <c r="R16">
-        <v>0.999939108603385</v>
+        <v>0.9790134666666667</v>
       </c>
       <c r="S16">
-        <v>1.000017376835454</v>
+        <v>0.9434064233333332</v>
       </c>
       <c r="T16">
-        <v>0.999939108603385</v>
+        <v>0.9790134666666667</v>
       </c>
       <c r="U16">
-        <v>0.99994977222899</v>
+        <v>0.9715188175</v>
       </c>
       <c r="V16">
-        <v>0.9999092094651119</v>
+        <v>0.9883862539999999</v>
       </c>
       <c r="W16">
-        <v>0.9999796739608616</v>
+        <v>0.98138521875</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000435916883597</v>
+        <v>1.3647435</v>
       </c>
       <c r="D17">
-        <v>0.9998622518457062</v>
+        <v>0.8658522200000001</v>
       </c>
       <c r="E17">
-        <v>0.9998593098681134</v>
+        <v>0.7893455499999998</v>
       </c>
       <c r="F17">
-        <v>1.000435916883597</v>
+        <v>1.1201163</v>
       </c>
       <c r="G17">
-        <v>0.9999484644368877</v>
+        <v>0.64704416</v>
       </c>
       <c r="H17">
-        <v>1.000041234313033</v>
+        <v>0.64704416</v>
       </c>
       <c r="I17">
-        <v>1.000435916883597</v>
+        <v>0.64704416</v>
       </c>
       <c r="J17">
-        <v>0.9998622518457062</v>
+        <v>1.5651105</v>
       </c>
       <c r="K17">
-        <v>0.9998476348214229</v>
+        <v>0.84625205</v>
       </c>
       <c r="L17">
-        <v>1.000135822963761</v>
+        <v>1.1044132</v>
       </c>
       <c r="M17">
-        <v>0.9998692573074208</v>
+        <v>1.5651105</v>
       </c>
       <c r="N17">
-        <v>1.000435916883597</v>
+        <v>0.64704416</v>
       </c>
       <c r="O17">
-        <v>0.9998593098681134</v>
+        <v>0.84625205</v>
       </c>
       <c r="P17">
-        <v>0.9998607808569098</v>
+        <v>1.205681275</v>
       </c>
       <c r="Q17">
-        <v>0.9999038871525006</v>
+        <v>0.9831841750000001</v>
       </c>
       <c r="R17">
-        <v>1.000052492865805</v>
+        <v>1.019468903333334</v>
       </c>
       <c r="S17">
-        <v>0.9998900087169025</v>
+        <v>1.177159616666667</v>
       </c>
       <c r="T17">
-        <v>1.000052492865805</v>
+        <v>1.019468903333333</v>
       </c>
       <c r="U17">
-        <v>1.000026485758576</v>
+        <v>1.0446307525</v>
       </c>
       <c r="V17">
-        <v>1.00010837198358</v>
+        <v>0.965113434</v>
       </c>
       <c r="W17">
-        <v>0.9999999865549929</v>
+        <v>1.037859685</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000356941950763</v>
+        <v>0.9644909860273967</v>
       </c>
       <c r="D18">
-        <v>0.9988025076539878</v>
+        <v>1.02283253739726</v>
       </c>
       <c r="E18">
-        <v>1.000531232552579</v>
+        <v>1.016588058630136</v>
       </c>
       <c r="F18">
-        <v>1.000356941950763</v>
+        <v>0.9877157665753427</v>
       </c>
       <c r="G18">
-        <v>0.9997668041855833</v>
+        <v>1.067833660821918</v>
       </c>
       <c r="H18">
-        <v>1.000461269673494</v>
+        <v>1.067833660821918</v>
       </c>
       <c r="I18">
-        <v>1.000356941950763</v>
+        <v>1.067833660821918</v>
       </c>
       <c r="J18">
-        <v>0.9988025076539878</v>
+        <v>0.9514463479452052</v>
       </c>
       <c r="K18">
-        <v>0.9999202397967482</v>
+        <v>0.9933552183561645</v>
       </c>
       <c r="L18">
-        <v>1.00016691142617</v>
+        <v>0.9774623400000002</v>
       </c>
       <c r="M18">
-        <v>0.9992712053700077</v>
+        <v>0.9514463479452052</v>
       </c>
       <c r="N18">
-        <v>1.000356941950763</v>
+        <v>1.067833660821918</v>
       </c>
       <c r="O18">
-        <v>1.000531232552579</v>
+        <v>0.9933552183561645</v>
       </c>
       <c r="P18">
-        <v>0.9996668701032834</v>
+        <v>0.9724007831506849</v>
       </c>
       <c r="Q18">
-        <v>1.000149018369081</v>
+        <v>0.9905354924657536</v>
       </c>
       <c r="R18">
-        <v>0.9998968940524433</v>
+        <v>1.004211742374429</v>
       </c>
       <c r="S18">
-        <v>0.9997001814640499</v>
+        <v>0.9775057776255709</v>
       </c>
       <c r="T18">
-        <v>0.9998968940524433</v>
+        <v>1.004211742374429</v>
       </c>
       <c r="U18">
-        <v>0.9998643715857283</v>
+        <v>1.000087748424658</v>
       </c>
       <c r="V18">
-        <v>0.9999628856587354</v>
+        <v>1.01363693090411</v>
       </c>
       <c r="W18">
-        <v>0.9999096390761666</v>
+        <v>0.9977156144691779</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000253750068274</v>
+        <v>1.1752191</v>
       </c>
       <c r="D19">
-        <v>0.9968341955644374</v>
+        <v>0.9249589584210527</v>
       </c>
       <c r="E19">
-        <v>1.00174411269026</v>
+        <v>0.903416825263158</v>
       </c>
       <c r="F19">
-        <v>1.000253750068274</v>
+        <v>1.057086286315789</v>
       </c>
       <c r="G19">
-        <v>0.9994338732343999</v>
+        <v>0.7976590484210528</v>
       </c>
       <c r="H19">
-        <v>1.0012328314311</v>
+        <v>0.7976590484210528</v>
       </c>
       <c r="I19">
-        <v>1.000253750068274</v>
+        <v>0.7976590484210528</v>
       </c>
       <c r="J19">
-        <v>0.9968341955644374</v>
+        <v>1.267154015789474</v>
       </c>
       <c r="K19">
-        <v>1.000039977817174</v>
+        <v>0.9488797357894737</v>
       </c>
       <c r="L19">
-        <v>1.00024179691183</v>
+        <v>1.062052425263158</v>
       </c>
       <c r="M19">
-        <v>0.9981606133579825</v>
+        <v>1.267154015789474</v>
       </c>
       <c r="N19">
-        <v>1.000253750068274</v>
+        <v>0.7976590484210528</v>
       </c>
       <c r="O19">
-        <v>1.00174411269026</v>
+        <v>0.9488797357894737</v>
       </c>
       <c r="P19">
-        <v>0.9992891541273485</v>
+        <v>1.108016875789474</v>
       </c>
       <c r="Q19">
-        <v>1.00058899296233</v>
+        <v>1.002983011052632</v>
       </c>
       <c r="R19">
-        <v>0.999610686107657</v>
+        <v>1.004564266666667</v>
       </c>
       <c r="S19">
-        <v>0.9993373938296989</v>
+        <v>1.091040012631579</v>
       </c>
       <c r="T19">
-        <v>0.9996106861076569</v>
+        <v>1.004564266666667</v>
       </c>
       <c r="U19">
-        <v>0.9995664828893427</v>
+        <v>1.017694771578947</v>
       </c>
       <c r="V19">
-        <v>0.999703936325129</v>
+        <v>0.9736876269473687</v>
       </c>
       <c r="W19">
-        <v>0.9997426438844321</v>
+        <v>1.017053299407895</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9690087131578947</v>
+      </c>
+      <c r="D20">
+        <v>1.02012635368421</v>
+      </c>
+      <c r="E20">
+        <v>1.014431427368421</v>
+      </c>
+      <c r="F20">
+        <v>0.9891503026315788</v>
+      </c>
+      <c r="G20">
+        <v>1.060209326842105</v>
+      </c>
+      <c r="H20">
+        <v>1.060209326842105</v>
+      </c>
+      <c r="I20">
+        <v>1.060209326842105</v>
+      </c>
+      <c r="J20">
+        <v>0.9580039736842104</v>
+      </c>
+      <c r="K20">
+        <v>0.9936964242105264</v>
+      </c>
+      <c r="L20">
+        <v>0.9799370626315789</v>
+      </c>
+      <c r="M20">
+        <v>0.9580039736842104</v>
+      </c>
+      <c r="N20">
+        <v>1.060209326842105</v>
+      </c>
+      <c r="O20">
+        <v>0.9936964242105264</v>
+      </c>
+      <c r="P20">
+        <v>0.9758501989473685</v>
+      </c>
+      <c r="Q20">
+        <v>0.9914233634210525</v>
+      </c>
+      <c r="R20">
+        <v>1.003969908245614</v>
+      </c>
+      <c r="S20">
+        <v>0.9802835668421053</v>
+      </c>
+      <c r="T20">
+        <v>1.003969908245614</v>
+      </c>
+      <c r="U20">
+        <v>1.000265006842105</v>
+      </c>
+      <c r="V20">
+        <v>1.012253870842105</v>
+      </c>
+      <c r="W20">
+        <v>0.9980704480263157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.353230360303588</v>
+      </c>
+      <c r="D21">
+        <v>0.8710206287832202</v>
+      </c>
+      <c r="E21">
+        <v>0.7956458042010981</v>
+      </c>
+      <c r="F21">
+        <v>1.11617974601238</v>
+      </c>
+      <c r="G21">
+        <v>0.6616320149711334</v>
+      </c>
+      <c r="H21">
+        <v>0.6616320149711334</v>
+      </c>
+      <c r="I21">
+        <v>0.6616320149711334</v>
+      </c>
+      <c r="J21">
+        <v>1.548079765550479</v>
+      </c>
+      <c r="K21">
+        <v>0.8489902940146983</v>
+      </c>
+      <c r="L21">
+        <v>1.099827434327867</v>
+      </c>
+      <c r="M21">
+        <v>1.548079765550479</v>
+      </c>
+      <c r="N21">
+        <v>0.6616320149711334</v>
+      </c>
+      <c r="O21">
+        <v>0.8489902940146983</v>
+      </c>
+      <c r="P21">
+        <v>1.198535029782589</v>
+      </c>
+      <c r="Q21">
+        <v>0.9825850200135392</v>
+      </c>
+      <c r="R21">
+        <v>1.01956735817877</v>
+      </c>
+      <c r="S21">
+        <v>1.171083268525852</v>
+      </c>
+      <c r="T21">
+        <v>1.01956735817877</v>
+      </c>
+      <c r="U21">
+        <v>1.043720455137173</v>
+      </c>
+      <c r="V21">
+        <v>0.967302767103965</v>
+      </c>
+      <c r="W21">
+        <v>1.036825756020558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.09107527314148</v>
+      </c>
+      <c r="D22">
+        <v>0.9623121884336756</v>
+      </c>
+      <c r="E22">
+        <v>0.9489378720293017</v>
+      </c>
+      <c r="F22">
+        <v>1.03074408250835</v>
+      </c>
+      <c r="G22">
+        <v>0.8961192061560384</v>
+      </c>
+      <c r="H22">
+        <v>0.8961192061560384</v>
+      </c>
+      <c r="I22">
+        <v>0.8961192061560384</v>
+      </c>
+      <c r="J22">
+        <v>1.137269315054173</v>
+      </c>
+      <c r="K22">
+        <v>0.9711561553077607</v>
+      </c>
+      <c r="L22">
+        <v>1.031982267584797</v>
+      </c>
+      <c r="M22">
+        <v>1.137269315054173</v>
+      </c>
+      <c r="N22">
+        <v>0.8961192061560384</v>
+      </c>
+      <c r="O22">
+        <v>0.9711561553077607</v>
+      </c>
+      <c r="P22">
+        <v>1.054212735180967</v>
+      </c>
+      <c r="Q22">
+        <v>1.000950118908055</v>
+      </c>
+      <c r="R22">
+        <v>1.001514892172658</v>
+      </c>
+      <c r="S22">
+        <v>1.046389850956761</v>
+      </c>
+      <c r="T22">
+        <v>1.001514892172657</v>
+      </c>
+      <c r="U22">
+        <v>1.00882218975658</v>
+      </c>
+      <c r="V22">
+        <v>0.986281593036472</v>
+      </c>
+      <c r="W22">
+        <v>1.008699545026947</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9969380340360081</v>
+      </c>
+      <c r="D23">
+        <v>1.002520573470641</v>
+      </c>
+      <c r="E23">
+        <v>1.001036825181439</v>
+      </c>
+      <c r="F23">
+        <v>0.9995049579417656</v>
+      </c>
+      <c r="G23">
+        <v>1.006068376289979</v>
+      </c>
+      <c r="H23">
+        <v>1.006068376289979</v>
+      </c>
+      <c r="I23">
+        <v>1.006068376289979</v>
+      </c>
+      <c r="J23">
+        <v>0.9948998809505066</v>
+      </c>
+      <c r="K23">
+        <v>0.9985390216161666</v>
+      </c>
+      <c r="L23">
+        <v>0.9980826254893002</v>
+      </c>
+      <c r="M23">
+        <v>0.9948998809505066</v>
+      </c>
+      <c r="N23">
+        <v>1.006068376289979</v>
+      </c>
+      <c r="O23">
+        <v>0.9985390216161666</v>
+      </c>
+      <c r="P23">
+        <v>0.9967194512833366</v>
+      </c>
+      <c r="Q23">
+        <v>0.9990219897789661</v>
+      </c>
+      <c r="R23">
+        <v>0.9998357596188839</v>
+      </c>
+      <c r="S23">
+        <v>0.997647953502813</v>
+      </c>
+      <c r="T23">
+        <v>0.9998357596188839</v>
+      </c>
+      <c r="U23">
+        <v>0.9997530591996044</v>
+      </c>
+      <c r="V23">
+        <v>1.001016122617679</v>
+      </c>
+      <c r="W23">
+        <v>0.9996987868719758</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9987088764496752</v>
+      </c>
+      <c r="D24">
+        <v>0.9995739654508983</v>
+      </c>
+      <c r="E24">
+        <v>1.001307491005544</v>
+      </c>
+      <c r="F24">
+        <v>0.998933926887475</v>
+      </c>
+      <c r="G24">
+        <v>1.000107663060356</v>
+      </c>
+      <c r="H24">
+        <v>1.000107663060356</v>
+      </c>
+      <c r="I24">
+        <v>1.000107663060356</v>
+      </c>
+      <c r="J24">
+        <v>0.9988911172967686</v>
+      </c>
+      <c r="K24">
+        <v>1.002150129736611</v>
+      </c>
+      <c r="L24">
+        <v>0.9999278953506071</v>
+      </c>
+      <c r="M24">
+        <v>0.9988911172967686</v>
+      </c>
+      <c r="N24">
+        <v>1.000107663060356</v>
+      </c>
+      <c r="O24">
+        <v>1.002150129736611</v>
+      </c>
+      <c r="P24">
+        <v>1.00052062351669</v>
+      </c>
+      <c r="Q24">
+        <v>1.000542028312043</v>
+      </c>
+      <c r="R24">
+        <v>1.000382970031245</v>
+      </c>
+      <c r="S24">
+        <v>0.9999917246402849</v>
+      </c>
+      <c r="T24">
+        <v>1.000382970031245</v>
+      </c>
+      <c r="U24">
+        <v>1.000020709245303</v>
+      </c>
+      <c r="V24">
+        <v>1.000038100008313</v>
+      </c>
+      <c r="W24">
+        <v>0.9999501331547418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.7386952690726108</v>
+      </c>
+      <c r="D25">
+        <v>1.118876613314101</v>
+      </c>
+      <c r="E25">
+        <v>1.14158724860542</v>
+      </c>
+      <c r="F25">
+        <v>0.9132417776256819</v>
+      </c>
+      <c r="G25">
+        <v>1.328982962628722</v>
+      </c>
+      <c r="H25">
+        <v>1.328982962628722</v>
+      </c>
+      <c r="I25">
+        <v>1.328982962628722</v>
+      </c>
+      <c r="J25">
+        <v>0.6087752629102897</v>
+      </c>
+      <c r="K25">
+        <v>1.060157332243438</v>
+      </c>
+      <c r="L25">
+        <v>0.8971795524067498</v>
+      </c>
+      <c r="M25">
+        <v>0.6087752629102897</v>
+      </c>
+      <c r="N25">
+        <v>1.328982962628722</v>
+      </c>
+      <c r="O25">
+        <v>1.060157332243438</v>
+      </c>
+      <c r="P25">
+        <v>0.8344662975768637</v>
+      </c>
+      <c r="Q25">
+        <v>0.9866995549345599</v>
+      </c>
+      <c r="R25">
+        <v>0.9993051859274832</v>
+      </c>
+      <c r="S25">
+        <v>0.8607247909264698</v>
+      </c>
+      <c r="T25">
+        <v>0.9993051859274832</v>
+      </c>
+      <c r="U25">
+        <v>0.9777893338520328</v>
+      </c>
+      <c r="V25">
+        <v>1.048028059607371</v>
+      </c>
+      <c r="W25">
+        <v>0.9759370023508765</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9219961428069141</v>
+      </c>
+      <c r="D26">
+        <v>1.022439094449975</v>
+      </c>
+      <c r="E26">
+        <v>1.047577256399734</v>
+      </c>
+      <c r="F26">
+        <v>0.9746200056586706</v>
+      </c>
+      <c r="G26">
+        <v>1.054272234625513</v>
+      </c>
+      <c r="H26">
+        <v>1.054272234625513</v>
+      </c>
+      <c r="I26">
+        <v>1.054272234625513</v>
+      </c>
+      <c r="J26">
+        <v>0.8751624151924474</v>
+      </c>
+      <c r="K26">
+        <v>1.046662981219421</v>
+      </c>
+      <c r="L26">
+        <v>0.9854981213623133</v>
+      </c>
+      <c r="M26">
+        <v>0.8751624151924474</v>
+      </c>
+      <c r="N26">
+        <v>1.054272234625513</v>
+      </c>
+      <c r="O26">
+        <v>1.046662981219421</v>
+      </c>
+      <c r="P26">
+        <v>0.9609126982059342</v>
+      </c>
+      <c r="Q26">
+        <v>1.010641493439046</v>
+      </c>
+      <c r="R26">
+        <v>0.9920325436791272</v>
+      </c>
+      <c r="S26">
+        <v>0.9654818006901796</v>
+      </c>
+      <c r="T26">
+        <v>0.9920325436791271</v>
+      </c>
+      <c r="U26">
+        <v>0.987679409174013</v>
+      </c>
+      <c r="V26">
+        <v>1.000997974264313</v>
+      </c>
+      <c r="W26">
+        <v>0.9910285314643736</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9926012164310961</v>
+      </c>
+      <c r="D27">
+        <v>1.003614436883144</v>
+      </c>
+      <c r="E27">
+        <v>1.003868471422279</v>
+      </c>
+      <c r="F27">
+        <v>0.9976702341828176</v>
+      </c>
+      <c r="G27">
+        <v>1.009769760072786</v>
+      </c>
+      <c r="H27">
+        <v>1.009769760072786</v>
+      </c>
+      <c r="I27">
+        <v>1.009769760072786</v>
+      </c>
+      <c r="J27">
+        <v>0.988783609356974</v>
+      </c>
+      <c r="K27">
+        <v>1.001232622467071</v>
+      </c>
+      <c r="L27">
+        <v>0.996945985930787</v>
+      </c>
+      <c r="M27">
+        <v>0.988783609356974</v>
+      </c>
+      <c r="N27">
+        <v>1.009769760072786</v>
+      </c>
+      <c r="O27">
+        <v>1.001232622467071</v>
+      </c>
+      <c r="P27">
+        <v>0.9950081159120223</v>
+      </c>
+      <c r="Q27">
+        <v>0.9994514283249442</v>
+      </c>
+      <c r="R27">
+        <v>0.9999286639656101</v>
+      </c>
+      <c r="S27">
+        <v>0.9958954886689542</v>
+      </c>
+      <c r="T27">
+        <v>0.9999286639656101</v>
+      </c>
+      <c r="U27">
+        <v>0.999364056519912</v>
+      </c>
+      <c r="V27">
+        <v>1.001445197230487</v>
+      </c>
+      <c r="W27">
+        <v>0.9993107920933693</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.009885432499335</v>
+      </c>
+      <c r="D28">
+        <v>0.9994885432086125</v>
+      </c>
+      <c r="E28">
+        <v>0.9929710979543592</v>
+      </c>
+      <c r="F28">
+        <v>1.003297378827203</v>
+      </c>
+      <c r="G28">
+        <v>1.000489820470242</v>
+      </c>
+      <c r="H28">
+        <v>1.000489820470242</v>
+      </c>
+      <c r="I28">
+        <v>1.000489820470242</v>
+      </c>
+      <c r="J28">
+        <v>1.016888167018523</v>
+      </c>
+      <c r="K28">
+        <v>0.9890519015804752</v>
+      </c>
+      <c r="L28">
+        <v>0.9991541466020808</v>
+      </c>
+      <c r="M28">
+        <v>1.016888167018523</v>
+      </c>
+      <c r="N28">
+        <v>1.000489820470242</v>
+      </c>
+      <c r="O28">
+        <v>0.9890519015804752</v>
+      </c>
+      <c r="P28">
+        <v>1.002970034299499</v>
+      </c>
+      <c r="Q28">
+        <v>0.9961746402038389</v>
+      </c>
+      <c r="R28">
+        <v>1.002143296356413</v>
+      </c>
+      <c r="S28">
+        <v>1.003079149142067</v>
+      </c>
+      <c r="T28">
+        <v>1.002143296356413</v>
+      </c>
+      <c r="U28">
+        <v>1.002431816974111</v>
+      </c>
+      <c r="V28">
+        <v>1.002043417673337</v>
+      </c>
+      <c r="W28">
+        <v>1.001403311020104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.037923710137449</v>
+      </c>
+      <c r="D29">
+        <v>0.9908856899009137</v>
+      </c>
+      <c r="E29">
+        <v>0.976251528392305</v>
+      </c>
+      <c r="F29">
+        <v>1.011875123358037</v>
+      </c>
+      <c r="G29">
+        <v>0.9807563861481579</v>
+      </c>
+      <c r="H29">
+        <v>0.9807563861481579</v>
+      </c>
+      <c r="I29">
+        <v>0.9807563861481579</v>
+      </c>
+      <c r="J29">
+        <v>1.062640662584481</v>
+      </c>
+      <c r="K29">
+        <v>0.9731460358580927</v>
+      </c>
+      <c r="L29">
+        <v>1.004346705225237</v>
+      </c>
+      <c r="M29">
+        <v>1.062640662584481</v>
+      </c>
+      <c r="N29">
+        <v>0.9807563861481579</v>
+      </c>
+      <c r="O29">
+        <v>0.9731460358580927</v>
+      </c>
+      <c r="P29">
+        <v>1.017893349221287</v>
+      </c>
+      <c r="Q29">
+        <v>0.9925105796080649</v>
+      </c>
+      <c r="R29">
+        <v>1.005514361530244</v>
+      </c>
+      <c r="S29">
+        <v>1.015887273933537</v>
+      </c>
+      <c r="T29">
+        <v>1.005514361530244</v>
+      </c>
+      <c r="U29">
+        <v>1.007104551987192</v>
+      </c>
+      <c r="V29">
+        <v>1.001834918819385</v>
+      </c>
+      <c r="W29">
+        <v>1.004728230200584</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossA-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9861850144372715</v>
+        <v>0.9767157330826673</v>
       </c>
       <c r="D4">
-        <v>1.002433409195066</v>
+        <v>1.005840657983691</v>
       </c>
       <c r="E4">
-        <v>1.009122992404097</v>
+        <v>1.01462516818683</v>
       </c>
       <c r="F4">
-        <v>0.995324880391146</v>
+        <v>0.9922005644938888</v>
       </c>
       <c r="G4">
-        <v>1.00509893231041</v>
+        <v>1.014033140182033</v>
       </c>
       <c r="H4">
-        <v>1.00509893231041</v>
+        <v>1.014033140182033</v>
       </c>
       <c r="I4">
-        <v>1.00509893231041</v>
+        <v>1.014033140182033</v>
       </c>
       <c r="J4">
-        <v>0.977456201485069</v>
+        <v>0.9627576361178829</v>
       </c>
       <c r="K4">
-        <v>1.011519720322913</v>
+        <v>1.015672225810816</v>
       </c>
       <c r="L4">
-        <v>0.9990508776790926</v>
+        <v>0.9964229459858126</v>
       </c>
       <c r="M4">
-        <v>0.977456201485069</v>
+        <v>0.9627576361178829</v>
       </c>
       <c r="N4">
-        <v>1.00509893231041</v>
+        <v>1.014033140182033</v>
       </c>
       <c r="O4">
-        <v>1.011519720322913</v>
+        <v>1.015672225810816</v>
       </c>
       <c r="P4">
-        <v>0.9944879609039912</v>
+        <v>0.9892149309643496</v>
       </c>
       <c r="Q4">
-        <v>1.00342230035703</v>
+        <v>1.003936395152353</v>
       </c>
       <c r="R4">
-        <v>0.9980249513727975</v>
+        <v>0.9974876673702441</v>
       </c>
       <c r="S4">
-        <v>0.9947669340663761</v>
+        <v>0.9902101421408628</v>
       </c>
       <c r="T4">
-        <v>0.9980249513727975</v>
+        <v>0.9974876673702441</v>
       </c>
       <c r="U4">
-        <v>0.9973499336273846</v>
+        <v>0.9961658916511553</v>
       </c>
       <c r="V4">
-        <v>0.9988997333639895</v>
+        <v>0.999739341357331</v>
       </c>
       <c r="W4">
-        <v>0.9982740035281331</v>
+        <v>0.9972835089804528</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.975546426304032</v>
+        <v>0.9650923920813844</v>
       </c>
       <c r="D5">
-        <v>1.006090920504322</v>
+        <v>1.024507468359565</v>
       </c>
       <c r="E5">
-        <v>1.015392836311245</v>
+        <v>1.015426116463245</v>
       </c>
       <c r="F5">
-        <v>0.991756186340055</v>
+        <v>0.9879868070216542</v>
       </c>
       <c r="G5">
-        <v>1.014745029272334</v>
+        <v>1.073221630243332</v>
       </c>
       <c r="H5">
-        <v>1.014745029272334</v>
+        <v>1.073221630243332</v>
       </c>
       <c r="I5">
-        <v>1.014745029272334</v>
+        <v>1.073221630243332</v>
       </c>
       <c r="J5">
-        <v>0.9609771883285302</v>
+        <v>0.9532306849605919</v>
       </c>
       <c r="K5">
-        <v>1.016523729538905</v>
+        <v>0.9890126615316255</v>
       </c>
       <c r="L5">
-        <v>0.9962307585230558</v>
+        <v>0.9754613632854079</v>
       </c>
       <c r="M5">
-        <v>0.9609771883285302</v>
+        <v>0.9532306849605919</v>
       </c>
       <c r="N5">
-        <v>1.014745029272334</v>
+        <v>1.073221630243332</v>
       </c>
       <c r="O5">
-        <v>1.016523729538905</v>
+        <v>0.9890126615316255</v>
       </c>
       <c r="P5">
-        <v>0.9887504589337177</v>
+        <v>0.9711216732461088</v>
       </c>
       <c r="Q5">
-        <v>1.00413995793948</v>
+        <v>0.9884997342766398</v>
       </c>
       <c r="R5">
-        <v>0.9974153157132566</v>
+        <v>1.005154992245183</v>
       </c>
       <c r="S5">
-        <v>0.9897523680691634</v>
+        <v>0.9767433845046239</v>
       </c>
       <c r="T5">
-        <v>0.9974153157132566</v>
+        <v>1.005154992245183</v>
       </c>
       <c r="U5">
-        <v>0.9960005333699562</v>
+        <v>1.000862945939301</v>
       </c>
       <c r="V5">
-        <v>0.9997494325504318</v>
+        <v>1.015334682800107</v>
       </c>
       <c r="W5">
-        <v>0.9971578843903099</v>
+        <v>0.9979923904933508</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9150356988405395</v>
+        <v>0.9861850144372715</v>
       </c>
       <c r="D6">
-        <v>1.015522304936957</v>
+        <v>1.002433409195066</v>
       </c>
       <c r="E6">
-        <v>1.055912357731568</v>
+        <v>1.009122992404097</v>
       </c>
       <c r="F6">
-        <v>0.9711174920937969</v>
+        <v>0.995324880391146</v>
       </c>
       <c r="G6">
-        <v>1.033533966906653</v>
+        <v>1.00509893231041</v>
       </c>
       <c r="H6">
-        <v>1.033533966906653</v>
+        <v>1.00509893231041</v>
       </c>
       <c r="I6">
-        <v>1.033533966906653</v>
+        <v>1.00509893231041</v>
       </c>
       <c r="J6">
-        <v>0.8619257604103421</v>
+        <v>0.977456201485069</v>
       </c>
       <c r="K6">
-        <v>1.06956396383293</v>
+        <v>1.011519720322913</v>
       </c>
       <c r="L6">
-        <v>0.9933416639790058</v>
+        <v>0.9990508776790926</v>
       </c>
       <c r="M6">
-        <v>0.8619257604103421</v>
+        <v>0.977456201485069</v>
       </c>
       <c r="N6">
-        <v>1.033533966906653</v>
+        <v>1.00509893231041</v>
       </c>
       <c r="O6">
-        <v>1.06956396383293</v>
+        <v>1.011519720322913</v>
       </c>
       <c r="P6">
-        <v>0.9657448621216358</v>
+        <v>0.9944879609039912</v>
       </c>
       <c r="Q6">
-        <v>1.020340727963363</v>
+        <v>1.00342230035703</v>
       </c>
       <c r="R6">
-        <v>0.9883412303833085</v>
+        <v>0.9980249513727975</v>
       </c>
       <c r="S6">
-        <v>0.9675357387790228</v>
+        <v>0.9947669340663761</v>
       </c>
       <c r="T6">
-        <v>0.9883412303833085</v>
+        <v>0.9980249513727975</v>
       </c>
       <c r="U6">
-        <v>0.9840352958109305</v>
+        <v>0.9973499336273846</v>
       </c>
       <c r="V6">
-        <v>0.9939350300300751</v>
+        <v>0.9988997333639895</v>
       </c>
       <c r="W6">
-        <v>0.9894941510914741</v>
+        <v>0.9982740035281331</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9977945964751253</v>
+        <v>0.975546426304032</v>
       </c>
       <c r="D7">
-        <v>1.001279195195088</v>
+        <v>1.006090920504322</v>
       </c>
       <c r="E7">
-        <v>1.001086124496262</v>
+        <v>1.015392836311245</v>
       </c>
       <c r="F7">
-        <v>0.999244895817993</v>
+        <v>0.991756186340055</v>
       </c>
       <c r="G7">
-        <v>1.003738843579841</v>
+        <v>1.014745029272334</v>
       </c>
       <c r="H7">
-        <v>1.003738843579841</v>
+        <v>1.014745029272334</v>
       </c>
       <c r="I7">
-        <v>1.003738843579841</v>
+        <v>1.014745029272334</v>
       </c>
       <c r="J7">
-        <v>0.9968937483569253</v>
+        <v>0.9609771883285302</v>
       </c>
       <c r="K7">
-        <v>0.9998941666680996</v>
+        <v>1.016523729538905</v>
       </c>
       <c r="L7">
-        <v>0.9987754043556544</v>
+        <v>0.9962307585230558</v>
       </c>
       <c r="M7">
-        <v>0.9968937483569253</v>
+        <v>0.9609771883285302</v>
       </c>
       <c r="N7">
-        <v>1.003738843579841</v>
+        <v>1.014745029272334</v>
       </c>
       <c r="O7">
-        <v>0.9998941666680996</v>
+        <v>1.016523729538905</v>
       </c>
       <c r="P7">
-        <v>0.9983939575125125</v>
+        <v>0.9887504589337177</v>
       </c>
       <c r="Q7">
-        <v>0.9995695312430464</v>
+        <v>1.00413995793948</v>
       </c>
       <c r="R7">
-        <v>1.000175586201622</v>
+        <v>0.9974153157132566</v>
       </c>
       <c r="S7">
-        <v>0.9986776036143393</v>
+        <v>0.9897523680691634</v>
       </c>
       <c r="T7">
-        <v>1.000175586201622</v>
+        <v>0.9974153157132566</v>
       </c>
       <c r="U7">
-        <v>0.9999429136057146</v>
+        <v>0.9960005333699562</v>
       </c>
       <c r="V7">
-        <v>1.00070209960054</v>
+        <v>0.9997494325504318</v>
       </c>
       <c r="W7">
-        <v>0.9998383718681235</v>
+        <v>0.9971578843903099</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998692573074208</v>
+        <v>0.9150356988405395</v>
       </c>
       <c r="D8">
-        <v>1.000135822963761</v>
+        <v>1.015522304936957</v>
       </c>
       <c r="E8">
-        <v>1.000041234313033</v>
+        <v>1.055912357731568</v>
       </c>
       <c r="F8">
-        <v>0.9999484644368877</v>
+        <v>0.9711174920937969</v>
       </c>
       <c r="G8">
-        <v>1.000435916883597</v>
+        <v>1.033533966906653</v>
       </c>
       <c r="H8">
-        <v>1.000435916883597</v>
+        <v>1.033533966906653</v>
       </c>
       <c r="I8">
-        <v>1.000435916883597</v>
+        <v>1.033533966906653</v>
       </c>
       <c r="J8">
-        <v>0.9998622518457062</v>
+        <v>0.8619257604103421</v>
       </c>
       <c r="K8">
-        <v>0.9998593098681134</v>
+        <v>1.06956396383293</v>
       </c>
       <c r="L8">
-        <v>0.9998476348214227</v>
+        <v>0.9933416639790058</v>
       </c>
       <c r="M8">
-        <v>0.9998622518457062</v>
+        <v>0.8619257604103421</v>
       </c>
       <c r="N8">
-        <v>1.000435916883597</v>
+        <v>1.033533966906653</v>
       </c>
       <c r="O8">
-        <v>0.9998593098681134</v>
+        <v>1.06956396383293</v>
       </c>
       <c r="P8">
-        <v>0.9998607808569098</v>
+        <v>0.9657448621216358</v>
       </c>
       <c r="Q8">
-        <v>0.9999038871525006</v>
+        <v>1.020340727963363</v>
       </c>
       <c r="R8">
-        <v>1.000052492865805</v>
+        <v>0.9883412303833085</v>
       </c>
       <c r="S8">
-        <v>0.9998900087169025</v>
+        <v>0.9675357387790228</v>
       </c>
       <c r="T8">
-        <v>1.000052492865805</v>
+        <v>0.9883412303833085</v>
       </c>
       <c r="U8">
-        <v>1.000026485758576</v>
+        <v>0.9840352958109305</v>
       </c>
       <c r="V8">
-        <v>1.00010837198358</v>
+        <v>0.9939350300300751</v>
       </c>
       <c r="W8">
-        <v>0.9999999865549929</v>
+        <v>0.9894941510914741</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9963299276036417</v>
+        <v>0.9977945964751253</v>
       </c>
       <c r="D9">
-        <v>1.002110686467543</v>
+        <v>1.001279195195088</v>
       </c>
       <c r="E9">
-        <v>1.001815313405847</v>
+        <v>1.001086124496262</v>
       </c>
       <c r="F9">
-        <v>0.9987423385640173</v>
+        <v>0.999244895817993</v>
       </c>
       <c r="G9">
-        <v>1.006166108757411</v>
+        <v>1.003738843579841</v>
       </c>
       <c r="H9">
-        <v>1.006166108757411</v>
+        <v>1.003738843579841</v>
       </c>
       <c r="I9">
-        <v>1.006166108757411</v>
+        <v>1.003738843579841</v>
       </c>
       <c r="J9">
-        <v>0.9948234880996217</v>
+        <v>0.9968937483569253</v>
       </c>
       <c r="K9">
-        <v>0.9998626105243392</v>
+        <v>0.9998941666680996</v>
       </c>
       <c r="L9">
-        <v>0.9979823566857609</v>
+        <v>0.9987754043556544</v>
       </c>
       <c r="M9">
-        <v>0.9948234880996217</v>
+        <v>0.9968937483569253</v>
       </c>
       <c r="N9">
-        <v>1.006166108757411</v>
+        <v>1.003738843579841</v>
       </c>
       <c r="O9">
-        <v>0.9998626105243392</v>
+        <v>0.9998941666680996</v>
       </c>
       <c r="P9">
-        <v>0.9973430493119805</v>
+        <v>0.9983939575125125</v>
       </c>
       <c r="Q9">
-        <v>0.9993024745441783</v>
+        <v>0.9995695312430464</v>
       </c>
       <c r="R9">
-        <v>1.000284069127124</v>
+        <v>1.000175586201622</v>
       </c>
       <c r="S9">
-        <v>0.9978094790626594</v>
+        <v>0.9986776036143393</v>
       </c>
       <c r="T9">
-        <v>1.000284069127124</v>
+        <v>1.000175586201622</v>
       </c>
       <c r="U9">
-        <v>0.9998986364863472</v>
+        <v>0.9999429136057146</v>
       </c>
       <c r="V9">
-        <v>1.00115213094056</v>
+        <v>1.00070209960054</v>
       </c>
       <c r="W9">
-        <v>0.9997291037635228</v>
+        <v>0.9998383718681235</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9136018831670429</v>
+        <v>0.9998692573074208</v>
       </c>
       <c r="D10">
-        <v>1.015519000956498</v>
+        <v>1.000135822963761</v>
       </c>
       <c r="E10">
-        <v>1.056978506134661</v>
+        <v>1.000041234313033</v>
       </c>
       <c r="F10">
-        <v>0.9705898976380296</v>
+        <v>0.9999484644368877</v>
       </c>
       <c r="G10">
-        <v>1.033348530123681</v>
+        <v>1.000435916883597</v>
       </c>
       <c r="H10">
-        <v>1.033348530123681</v>
+        <v>1.000435916883597</v>
       </c>
       <c r="I10">
-        <v>1.033348530123681</v>
+        <v>1.000435916883597</v>
       </c>
       <c r="J10">
-        <v>0.8595405382161821</v>
+        <v>0.9998622518457062</v>
       </c>
       <c r="K10">
-        <v>1.071293254226499</v>
+        <v>0.9998593098681134</v>
       </c>
       <c r="L10">
-        <v>0.9934969588170566</v>
+        <v>0.9998476348214227</v>
       </c>
       <c r="M10">
-        <v>0.8595405382161821</v>
+        <v>0.9998622518457062</v>
       </c>
       <c r="N10">
-        <v>1.033348530123681</v>
+        <v>1.000435916883597</v>
       </c>
       <c r="O10">
-        <v>1.071293254226499</v>
+        <v>0.9998593098681134</v>
       </c>
       <c r="P10">
-        <v>0.9654168962213407</v>
+        <v>0.9998607808569098</v>
       </c>
       <c r="Q10">
-        <v>1.020941575932264</v>
+        <v>0.9999038871525006</v>
       </c>
       <c r="R10">
-        <v>0.9880607741887873</v>
+        <v>1.000052492865805</v>
       </c>
       <c r="S10">
-        <v>0.9671412300269037</v>
+        <v>0.9998900087169025</v>
       </c>
       <c r="T10">
-        <v>0.9880607741887873</v>
+        <v>1.000052492865805</v>
       </c>
       <c r="U10">
-        <v>0.9836930550510979</v>
+        <v>1.000026485758576</v>
       </c>
       <c r="V10">
-        <v>0.9936241500656144</v>
+        <v>1.00010837198358</v>
       </c>
       <c r="W10">
-        <v>0.9892960711599563</v>
+        <v>0.9999999865549929</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9167739046534271</v>
+        <v>0.9963299276036417</v>
       </c>
       <c r="D11">
-        <v>1.029291852469156</v>
+        <v>1.002110686467543</v>
       </c>
       <c r="E11">
-        <v>1.04866936325695</v>
+        <v>1.001815313405847</v>
       </c>
       <c r="F11">
-        <v>0.9724138699283404</v>
+        <v>0.9987423385640173</v>
       </c>
       <c r="G11">
-        <v>1.076744816608904</v>
+        <v>1.006166108757411</v>
       </c>
       <c r="H11">
-        <v>1.076744816608904</v>
+        <v>1.006166108757411</v>
       </c>
       <c r="I11">
-        <v>1.076744816608904</v>
+        <v>1.006166108757411</v>
       </c>
       <c r="J11">
-        <v>0.8707353459223337</v>
+        <v>0.9948234880996217</v>
       </c>
       <c r="K11">
-        <v>1.037852239602815</v>
+        <v>0.9998626105243392</v>
       </c>
       <c r="L11">
-        <v>0.9775306339027066</v>
+        <v>0.9979823566857609</v>
       </c>
       <c r="M11">
-        <v>0.8707353459223337</v>
+        <v>0.9948234880996217</v>
       </c>
       <c r="N11">
-        <v>1.076744816608904</v>
+        <v>1.006166108757411</v>
       </c>
       <c r="O11">
-        <v>1.037852239602815</v>
+        <v>0.9998626105243392</v>
       </c>
       <c r="P11">
-        <v>0.9542937927625744</v>
+        <v>0.9973430493119805</v>
       </c>
       <c r="Q11">
-        <v>1.005133054765578</v>
+        <v>0.9993024745441783</v>
       </c>
       <c r="R11">
-        <v>0.9951108007113509</v>
+        <v>1.000284069127124</v>
       </c>
       <c r="S11">
-        <v>0.9603338184844965</v>
+        <v>0.9978094790626594</v>
       </c>
       <c r="T11">
-        <v>0.9951108007113509</v>
+        <v>1.000284069127124</v>
       </c>
       <c r="U11">
-        <v>0.9894365680155983</v>
+        <v>0.9998986364863472</v>
       </c>
       <c r="V11">
-        <v>1.006898217734259</v>
+        <v>1.00115213094056</v>
       </c>
       <c r="W11">
-        <v>0.9912515032930791</v>
+        <v>0.9997291037635228</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9713837227894748</v>
+        <v>0.9136018831670429</v>
       </c>
       <c r="D12">
-        <v>1.005758654336842</v>
+        <v>1.015519000956498</v>
       </c>
       <c r="E12">
-        <v>1.018604709515791</v>
+        <v>1.056978506134661</v>
       </c>
       <c r="F12">
-        <v>0.9902884533052621</v>
+        <v>0.9705898976380296</v>
       </c>
       <c r="G12">
-        <v>1.012977091894737</v>
+        <v>1.033348530123681</v>
       </c>
       <c r="H12">
-        <v>1.012977091894737</v>
+        <v>1.033348530123681</v>
       </c>
       <c r="I12">
-        <v>1.012977091894737</v>
+        <v>1.033348530123681</v>
       </c>
       <c r="J12">
-        <v>0.9537437993894713</v>
+        <v>0.8595405382161821</v>
       </c>
       <c r="K12">
-        <v>1.022282591252629</v>
+        <v>1.071293254226499</v>
       </c>
       <c r="L12">
-        <v>0.9971440846210531</v>
+        <v>0.9934969588170566</v>
       </c>
       <c r="M12">
-        <v>0.9537437993894713</v>
+        <v>0.8595405382161821</v>
       </c>
       <c r="N12">
-        <v>1.012977091894737</v>
+        <v>1.033348530123681</v>
       </c>
       <c r="O12">
-        <v>1.022282591252629</v>
+        <v>1.071293254226499</v>
       </c>
       <c r="P12">
-        <v>0.9880131953210504</v>
+        <v>0.9654168962213407</v>
       </c>
       <c r="Q12">
-        <v>1.006285522278946</v>
+        <v>1.020941575932264</v>
       </c>
       <c r="R12">
-        <v>0.9963344941789458</v>
+        <v>0.9880607741887873</v>
       </c>
       <c r="S12">
-        <v>0.9887716146491209</v>
+        <v>0.9671412300269037</v>
       </c>
       <c r="T12">
-        <v>0.9963344941789458</v>
+        <v>0.9880607741887873</v>
       </c>
       <c r="U12">
-        <v>0.9948229839605249</v>
+        <v>0.9836930550510979</v>
       </c>
       <c r="V12">
-        <v>0.9984538055473674</v>
+        <v>0.9936241500656144</v>
       </c>
       <c r="W12">
-        <v>0.9965228883881576</v>
+        <v>0.9892960711599563</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.01522048619772</v>
+        <v>0.9167739046534271</v>
       </c>
       <c r="D13">
-        <v>0.994530066122603</v>
+        <v>1.029291852469156</v>
       </c>
       <c r="E13">
-        <v>0.9911854778758697</v>
+        <v>1.04866936325695</v>
       </c>
       <c r="F13">
-        <v>1.004910080810938</v>
+        <v>0.9724138699283404</v>
       </c>
       <c r="G13">
-        <v>0.9859740104856882</v>
+        <v>1.076744816608904</v>
       </c>
       <c r="H13">
-        <v>0.9859740104856882</v>
+        <v>1.076744816608904</v>
       </c>
       <c r="I13">
-        <v>0.9859740104856882</v>
+        <v>1.076744816608904</v>
       </c>
       <c r="J13">
-        <v>1.023868500365388</v>
+        <v>0.8707353459223337</v>
       </c>
       <c r="K13">
-        <v>0.9932486765746102</v>
+        <v>1.037852239602815</v>
       </c>
       <c r="L13">
-        <v>1.004080440597878</v>
+        <v>0.9775306339027066</v>
       </c>
       <c r="M13">
-        <v>1.023868500365388</v>
+        <v>0.8707353459223337</v>
       </c>
       <c r="N13">
-        <v>0.9859740104856882</v>
+        <v>1.076744816608904</v>
       </c>
       <c r="O13">
-        <v>0.9932486765746102</v>
+        <v>1.037852239602815</v>
       </c>
       <c r="P13">
-        <v>1.008558588469999</v>
+        <v>0.9542937927625744</v>
       </c>
       <c r="Q13">
-        <v>0.9990793786927742</v>
+        <v>1.005133054765578</v>
       </c>
       <c r="R13">
-        <v>1.001030395808562</v>
+        <v>0.9951108007113509</v>
       </c>
       <c r="S13">
-        <v>1.007342419250312</v>
+        <v>0.9603338184844965</v>
       </c>
       <c r="T13">
-        <v>1.001030395808562</v>
+        <v>0.9951108007113509</v>
       </c>
       <c r="U13">
-        <v>1.002000317059156</v>
+        <v>0.9894365680155983</v>
       </c>
       <c r="V13">
-        <v>0.9987950557444625</v>
+        <v>1.006898217734259</v>
       </c>
       <c r="W13">
-        <v>1.001627217378837</v>
+        <v>0.9912515032930791</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8503200600000009</v>
+        <v>0.9713837227894748</v>
       </c>
       <c r="D14">
-        <v>1.026284799999999</v>
+        <v>1.005758654336842</v>
       </c>
       <c r="E14">
-        <v>1.0989676</v>
+        <v>1.018604709515791</v>
       </c>
       <c r="F14">
-        <v>0.9490348699999991</v>
+        <v>0.9902884533052621</v>
       </c>
       <c r="G14">
-        <v>1.055856</v>
+        <v>1.012977091894737</v>
       </c>
       <c r="H14">
-        <v>1.055856</v>
+        <v>1.012977091894737</v>
       </c>
       <c r="I14">
-        <v>1.055856</v>
+        <v>1.012977091894737</v>
       </c>
       <c r="J14">
-        <v>0.7563715000000001</v>
+        <v>0.9537437993894713</v>
       </c>
       <c r="K14">
-        <v>1.124812899999999</v>
+        <v>1.022282591252629</v>
       </c>
       <c r="L14">
-        <v>0.9894340199999996</v>
+        <v>0.9971440846210531</v>
       </c>
       <c r="M14">
-        <v>0.7563715000000001</v>
+        <v>0.9537437993894713</v>
       </c>
       <c r="N14">
-        <v>1.055856</v>
+        <v>1.012977091894737</v>
       </c>
       <c r="O14">
-        <v>1.124812899999999</v>
+        <v>1.022282591252629</v>
       </c>
       <c r="P14">
-        <v>0.9405921999999998</v>
+        <v>0.9880131953210504</v>
       </c>
       <c r="Q14">
-        <v>1.036923884999999</v>
+        <v>1.006285522278946</v>
       </c>
       <c r="R14">
-        <v>0.9790134666666667</v>
+        <v>0.9963344941789458</v>
       </c>
       <c r="S14">
-        <v>0.9434064233333329</v>
+        <v>0.9887716146491209</v>
       </c>
       <c r="T14">
-        <v>0.9790134666666664</v>
+        <v>0.9963344941789458</v>
       </c>
       <c r="U14">
-        <v>0.9715188174999996</v>
+        <v>0.9948229839605249</v>
       </c>
       <c r="V14">
-        <v>0.9883862539999997</v>
+        <v>0.9984538055473674</v>
       </c>
       <c r="W14">
-        <v>0.9813852187499998</v>
+        <v>0.9965228883881576</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.5361801</v>
+        <v>1.01522048619772</v>
       </c>
       <c r="D15">
-        <v>0.81025805</v>
+        <v>0.994530066122603</v>
       </c>
       <c r="E15">
-        <v>0.687925</v>
+        <v>0.9911854778758697</v>
       </c>
       <c r="F15">
-        <v>1.1741023</v>
+        <v>1.004910080810938</v>
       </c>
       <c r="G15">
-        <v>0.5123396</v>
+        <v>0.9859740104856882</v>
       </c>
       <c r="H15">
-        <v>0.5123396</v>
+        <v>0.9859740104856882</v>
       </c>
       <c r="I15">
-        <v>0.5123396</v>
+        <v>0.9859740104856882</v>
       </c>
       <c r="J15">
-        <v>1.8399756</v>
+        <v>1.023868500365388</v>
       </c>
       <c r="K15">
-        <v>0.7563714999999999</v>
+        <v>0.9932486765746102</v>
       </c>
       <c r="L15">
-        <v>1.1415979</v>
+        <v>1.004080440597878</v>
       </c>
       <c r="M15">
-        <v>1.8399756</v>
+        <v>1.023868500365388</v>
       </c>
       <c r="N15">
-        <v>0.5123396</v>
+        <v>0.9859740104856882</v>
       </c>
       <c r="O15">
-        <v>0.7563714999999999</v>
+        <v>0.9932486765746102</v>
       </c>
       <c r="P15">
-        <v>1.29817355</v>
+        <v>1.008558588469999</v>
       </c>
       <c r="Q15">
-        <v>0.9652368999999998</v>
+        <v>0.9990793786927742</v>
       </c>
       <c r="R15">
-        <v>1.0362289</v>
+        <v>1.001030395808562</v>
       </c>
       <c r="S15">
-        <v>1.256816466666667</v>
+        <v>1.007342419250312</v>
       </c>
       <c r="T15">
-        <v>1.0362289</v>
+        <v>1.001030395808562</v>
       </c>
       <c r="U15">
-        <v>1.07069725</v>
+        <v>1.002000317059156</v>
       </c>
       <c r="V15">
-        <v>0.9590257199999999</v>
+        <v>0.9987950557444625</v>
       </c>
       <c r="W15">
-        <v>1.05734375625</v>
+        <v>1.001627217378837</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,16 +1600,16 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.85032006</v>
+        <v>0.8503200600000009</v>
       </c>
       <c r="D16">
-        <v>1.0262848</v>
+        <v>1.026284799999999</v>
       </c>
       <c r="E16">
         <v>1.0989676</v>
       </c>
       <c r="F16">
-        <v>0.94903487</v>
+        <v>0.9490348699999991</v>
       </c>
       <c r="G16">
         <v>1.055856</v>
@@ -1615,46 +1621,46 @@
         <v>1.055856</v>
       </c>
       <c r="J16">
-        <v>0.7563714999999999</v>
+        <v>0.7563715000000001</v>
       </c>
       <c r="K16">
-        <v>1.1248129</v>
+        <v>1.124812899999999</v>
       </c>
       <c r="L16">
-        <v>0.98943402</v>
+        <v>0.9894340199999996</v>
       </c>
       <c r="M16">
-        <v>0.7563714999999999</v>
+        <v>0.7563715000000001</v>
       </c>
       <c r="N16">
         <v>1.055856</v>
       </c>
       <c r="O16">
-        <v>1.1248129</v>
+        <v>1.124812899999999</v>
       </c>
       <c r="P16">
-        <v>0.9405922</v>
+        <v>0.9405921999999998</v>
       </c>
       <c r="Q16">
-        <v>1.036923885</v>
+        <v>1.036923884999999</v>
       </c>
       <c r="R16">
         <v>0.9790134666666667</v>
       </c>
       <c r="S16">
-        <v>0.9434064233333332</v>
+        <v>0.9434064233333329</v>
       </c>
       <c r="T16">
-        <v>0.9790134666666667</v>
+        <v>0.9790134666666664</v>
       </c>
       <c r="U16">
-        <v>0.9715188175</v>
+        <v>0.9715188174999996</v>
       </c>
       <c r="V16">
-        <v>0.9883862539999999</v>
+        <v>0.9883862539999997</v>
       </c>
       <c r="W16">
-        <v>0.98138521875</v>
+        <v>0.9813852187499998</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.3647435</v>
+        <v>1.5361801</v>
       </c>
       <c r="D17">
-        <v>0.8658522200000001</v>
+        <v>0.81025805</v>
       </c>
       <c r="E17">
-        <v>0.7893455499999998</v>
+        <v>0.687925</v>
       </c>
       <c r="F17">
-        <v>1.1201163</v>
+        <v>1.1741023</v>
       </c>
       <c r="G17">
-        <v>0.64704416</v>
+        <v>0.5123396</v>
       </c>
       <c r="H17">
-        <v>0.64704416</v>
+        <v>0.5123396</v>
       </c>
       <c r="I17">
-        <v>0.64704416</v>
+        <v>0.5123396</v>
       </c>
       <c r="J17">
-        <v>1.5651105</v>
+        <v>1.8399756</v>
       </c>
       <c r="K17">
-        <v>0.84625205</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="L17">
-        <v>1.1044132</v>
+        <v>1.1415979</v>
       </c>
       <c r="M17">
-        <v>1.5651105</v>
+        <v>1.8399756</v>
       </c>
       <c r="N17">
-        <v>0.64704416</v>
+        <v>0.5123396</v>
       </c>
       <c r="O17">
-        <v>0.84625205</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="P17">
-        <v>1.205681275</v>
+        <v>1.29817355</v>
       </c>
       <c r="Q17">
-        <v>0.9831841750000001</v>
+        <v>0.9652368999999998</v>
       </c>
       <c r="R17">
-        <v>1.019468903333334</v>
+        <v>1.0362289</v>
       </c>
       <c r="S17">
-        <v>1.177159616666667</v>
+        <v>1.256816466666667</v>
       </c>
       <c r="T17">
-        <v>1.019468903333333</v>
+        <v>1.0362289</v>
       </c>
       <c r="U17">
-        <v>1.0446307525</v>
+        <v>1.07069725</v>
       </c>
       <c r="V17">
-        <v>0.965113434</v>
+        <v>0.9590257199999999</v>
       </c>
       <c r="W17">
-        <v>1.037859685</v>
+        <v>1.05734375625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9644909860273967</v>
+        <v>0.85032006</v>
       </c>
       <c r="D18">
-        <v>1.02283253739726</v>
+        <v>1.0262848</v>
       </c>
       <c r="E18">
-        <v>1.016588058630136</v>
+        <v>1.0989676</v>
       </c>
       <c r="F18">
-        <v>0.9877157665753427</v>
+        <v>0.94903487</v>
       </c>
       <c r="G18">
-        <v>1.067833660821918</v>
+        <v>1.055856</v>
       </c>
       <c r="H18">
-        <v>1.067833660821918</v>
+        <v>1.055856</v>
       </c>
       <c r="I18">
-        <v>1.067833660821918</v>
+        <v>1.055856</v>
       </c>
       <c r="J18">
-        <v>0.9514463479452052</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="K18">
-        <v>0.9933552183561645</v>
+        <v>1.1248129</v>
       </c>
       <c r="L18">
-        <v>0.9774623400000002</v>
+        <v>0.98943402</v>
       </c>
       <c r="M18">
-        <v>0.9514463479452052</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="N18">
-        <v>1.067833660821918</v>
+        <v>1.055856</v>
       </c>
       <c r="O18">
-        <v>0.9933552183561645</v>
+        <v>1.1248129</v>
       </c>
       <c r="P18">
-        <v>0.9724007831506849</v>
+        <v>0.9405922</v>
       </c>
       <c r="Q18">
-        <v>0.9905354924657536</v>
+        <v>1.036923885</v>
       </c>
       <c r="R18">
-        <v>1.004211742374429</v>
+        <v>0.9790134666666667</v>
       </c>
       <c r="S18">
-        <v>0.9775057776255709</v>
+        <v>0.9434064233333332</v>
       </c>
       <c r="T18">
-        <v>1.004211742374429</v>
+        <v>0.9790134666666667</v>
       </c>
       <c r="U18">
-        <v>1.000087748424658</v>
+        <v>0.9715188175</v>
       </c>
       <c r="V18">
-        <v>1.01363693090411</v>
+        <v>0.9883862539999999</v>
       </c>
       <c r="W18">
-        <v>0.9977156144691779</v>
+        <v>0.98138521875</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.1752191</v>
+        <v>1.3647435</v>
       </c>
       <c r="D19">
-        <v>0.9249589584210527</v>
+        <v>0.8658522200000001</v>
       </c>
       <c r="E19">
-        <v>0.903416825263158</v>
+        <v>0.7893455499999998</v>
       </c>
       <c r="F19">
-        <v>1.057086286315789</v>
+        <v>1.1201163</v>
       </c>
       <c r="G19">
-        <v>0.7976590484210528</v>
+        <v>0.64704416</v>
       </c>
       <c r="H19">
-        <v>0.7976590484210528</v>
+        <v>0.64704416</v>
       </c>
       <c r="I19">
-        <v>0.7976590484210528</v>
+        <v>0.64704416</v>
       </c>
       <c r="J19">
-        <v>1.267154015789474</v>
+        <v>1.5651105</v>
       </c>
       <c r="K19">
-        <v>0.9488797357894737</v>
+        <v>0.84625205</v>
       </c>
       <c r="L19">
-        <v>1.062052425263158</v>
+        <v>1.1044132</v>
       </c>
       <c r="M19">
-        <v>1.267154015789474</v>
+        <v>1.5651105</v>
       </c>
       <c r="N19">
-        <v>0.7976590484210528</v>
+        <v>0.64704416</v>
       </c>
       <c r="O19">
-        <v>0.9488797357894737</v>
+        <v>0.84625205</v>
       </c>
       <c r="P19">
-        <v>1.108016875789474</v>
+        <v>1.205681275</v>
       </c>
       <c r="Q19">
-        <v>1.002983011052632</v>
+        <v>0.9831841750000001</v>
       </c>
       <c r="R19">
-        <v>1.004564266666667</v>
+        <v>1.019468903333334</v>
       </c>
       <c r="S19">
-        <v>1.091040012631579</v>
+        <v>1.177159616666667</v>
       </c>
       <c r="T19">
-        <v>1.004564266666667</v>
+        <v>1.019468903333333</v>
       </c>
       <c r="U19">
-        <v>1.017694771578947</v>
+        <v>1.0446307525</v>
       </c>
       <c r="V19">
-        <v>0.9736876269473687</v>
+        <v>0.965113434</v>
       </c>
       <c r="W19">
-        <v>1.017053299407895</v>
+        <v>1.037859685</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9690087131578947</v>
+        <v>0.9644909860273967</v>
       </c>
       <c r="D20">
-        <v>1.02012635368421</v>
+        <v>1.02283253739726</v>
       </c>
       <c r="E20">
-        <v>1.014431427368421</v>
+        <v>1.016588058630136</v>
       </c>
       <c r="F20">
-        <v>0.9891503026315788</v>
+        <v>0.9877157665753427</v>
       </c>
       <c r="G20">
-        <v>1.060209326842105</v>
+        <v>1.067833660821918</v>
       </c>
       <c r="H20">
-        <v>1.060209326842105</v>
+        <v>1.067833660821918</v>
       </c>
       <c r="I20">
-        <v>1.060209326842105</v>
+        <v>1.067833660821918</v>
       </c>
       <c r="J20">
-        <v>0.9580039736842104</v>
+        <v>0.9514463479452052</v>
       </c>
       <c r="K20">
-        <v>0.9936964242105264</v>
+        <v>0.9933552183561645</v>
       </c>
       <c r="L20">
-        <v>0.9799370626315789</v>
+        <v>0.9774623400000002</v>
       </c>
       <c r="M20">
-        <v>0.9580039736842104</v>
+        <v>0.9514463479452052</v>
       </c>
       <c r="N20">
-        <v>1.060209326842105</v>
+        <v>1.067833660821918</v>
       </c>
       <c r="O20">
-        <v>0.9936964242105264</v>
+        <v>0.9933552183561645</v>
       </c>
       <c r="P20">
-        <v>0.9758501989473685</v>
+        <v>0.9724007831506849</v>
       </c>
       <c r="Q20">
-        <v>0.9914233634210525</v>
+        <v>0.9905354924657536</v>
       </c>
       <c r="R20">
-        <v>1.003969908245614</v>
+        <v>1.004211742374429</v>
       </c>
       <c r="S20">
-        <v>0.9802835668421053</v>
+        <v>0.9775057776255709</v>
       </c>
       <c r="T20">
-        <v>1.003969908245614</v>
+        <v>1.004211742374429</v>
       </c>
       <c r="U20">
-        <v>1.000265006842105</v>
+        <v>1.000087748424658</v>
       </c>
       <c r="V20">
-        <v>1.012253870842105</v>
+        <v>1.01363693090411</v>
       </c>
       <c r="W20">
-        <v>0.9980704480263157</v>
+        <v>0.9977156144691779</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.353230360303588</v>
+        <v>1.1752191</v>
       </c>
       <c r="D21">
-        <v>0.8710206287832202</v>
+        <v>0.9249589584210527</v>
       </c>
       <c r="E21">
-        <v>0.7956458042010981</v>
+        <v>0.903416825263158</v>
       </c>
       <c r="F21">
-        <v>1.11617974601238</v>
+        <v>1.057086286315789</v>
       </c>
       <c r="G21">
-        <v>0.6616320149711334</v>
+        <v>0.7976590484210528</v>
       </c>
       <c r="H21">
-        <v>0.6616320149711334</v>
+        <v>0.7976590484210528</v>
       </c>
       <c r="I21">
-        <v>0.6616320149711334</v>
+        <v>0.7976590484210528</v>
       </c>
       <c r="J21">
-        <v>1.548079765550479</v>
+        <v>1.267154015789474</v>
       </c>
       <c r="K21">
-        <v>0.8489902940146983</v>
+        <v>0.9488797357894737</v>
       </c>
       <c r="L21">
-        <v>1.099827434327867</v>
+        <v>1.062052425263158</v>
       </c>
       <c r="M21">
-        <v>1.548079765550479</v>
+        <v>1.267154015789474</v>
       </c>
       <c r="N21">
-        <v>0.6616320149711334</v>
+        <v>0.7976590484210528</v>
       </c>
       <c r="O21">
-        <v>0.8489902940146983</v>
+        <v>0.9488797357894737</v>
       </c>
       <c r="P21">
-        <v>1.198535029782589</v>
+        <v>1.108016875789474</v>
       </c>
       <c r="Q21">
-        <v>0.9825850200135392</v>
+        <v>1.002983011052632</v>
       </c>
       <c r="R21">
-        <v>1.01956735817877</v>
+        <v>1.004564266666667</v>
       </c>
       <c r="S21">
-        <v>1.171083268525852</v>
+        <v>1.091040012631579</v>
       </c>
       <c r="T21">
-        <v>1.01956735817877</v>
+        <v>1.004564266666667</v>
       </c>
       <c r="U21">
-        <v>1.043720455137173</v>
+        <v>1.017694771578947</v>
       </c>
       <c r="V21">
-        <v>0.967302767103965</v>
+        <v>0.9736876269473687</v>
       </c>
       <c r="W21">
-        <v>1.036825756020558</v>
+        <v>1.017053299407895</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.09107527314148</v>
+        <v>0.9690087131578947</v>
       </c>
       <c r="D22">
-        <v>0.9623121884336756</v>
+        <v>1.02012635368421</v>
       </c>
       <c r="E22">
-        <v>0.9489378720293017</v>
+        <v>1.014431427368421</v>
       </c>
       <c r="F22">
-        <v>1.03074408250835</v>
+        <v>0.9891503026315788</v>
       </c>
       <c r="G22">
-        <v>0.8961192061560384</v>
+        <v>1.060209326842105</v>
       </c>
       <c r="H22">
-        <v>0.8961192061560384</v>
+        <v>1.060209326842105</v>
       </c>
       <c r="I22">
-        <v>0.8961192061560384</v>
+        <v>1.060209326842105</v>
       </c>
       <c r="J22">
-        <v>1.137269315054173</v>
+        <v>0.9580039736842104</v>
       </c>
       <c r="K22">
-        <v>0.9711561553077607</v>
+        <v>0.9936964242105264</v>
       </c>
       <c r="L22">
-        <v>1.031982267584797</v>
+        <v>0.9799370626315789</v>
       </c>
       <c r="M22">
-        <v>1.137269315054173</v>
+        <v>0.9580039736842104</v>
       </c>
       <c r="N22">
-        <v>0.8961192061560384</v>
+        <v>1.060209326842105</v>
       </c>
       <c r="O22">
-        <v>0.9711561553077607</v>
+        <v>0.9936964242105264</v>
       </c>
       <c r="P22">
-        <v>1.054212735180967</v>
+        <v>0.9758501989473685</v>
       </c>
       <c r="Q22">
-        <v>1.000950118908055</v>
+        <v>0.9914233634210525</v>
       </c>
       <c r="R22">
-        <v>1.001514892172658</v>
+        <v>1.003969908245614</v>
       </c>
       <c r="S22">
-        <v>1.046389850956761</v>
+        <v>0.9802835668421053</v>
       </c>
       <c r="T22">
-        <v>1.001514892172657</v>
+        <v>1.003969908245614</v>
       </c>
       <c r="U22">
-        <v>1.00882218975658</v>
+        <v>1.000265006842105</v>
       </c>
       <c r="V22">
-        <v>0.986281593036472</v>
+        <v>1.012253870842105</v>
       </c>
       <c r="W22">
-        <v>1.008699545026947</v>
+        <v>0.9980704480263157</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9969380340360081</v>
+        <v>1.353230360303588</v>
       </c>
       <c r="D23">
-        <v>1.002520573470641</v>
+        <v>0.8710206287832202</v>
       </c>
       <c r="E23">
-        <v>1.001036825181439</v>
+        <v>0.7956458042010981</v>
       </c>
       <c r="F23">
-        <v>0.9995049579417656</v>
+        <v>1.11617974601238</v>
       </c>
       <c r="G23">
-        <v>1.006068376289979</v>
+        <v>0.6616320149711334</v>
       </c>
       <c r="H23">
-        <v>1.006068376289979</v>
+        <v>0.6616320149711334</v>
       </c>
       <c r="I23">
-        <v>1.006068376289979</v>
+        <v>0.6616320149711334</v>
       </c>
       <c r="J23">
-        <v>0.9948998809505066</v>
+        <v>1.548079765550479</v>
       </c>
       <c r="K23">
-        <v>0.9985390216161666</v>
+        <v>0.8489902940146983</v>
       </c>
       <c r="L23">
-        <v>0.9980826254893002</v>
+        <v>1.099827434327867</v>
       </c>
       <c r="M23">
-        <v>0.9948998809505066</v>
+        <v>1.548079765550479</v>
       </c>
       <c r="N23">
-        <v>1.006068376289979</v>
+        <v>0.6616320149711334</v>
       </c>
       <c r="O23">
-        <v>0.9985390216161666</v>
+        <v>0.8489902940146983</v>
       </c>
       <c r="P23">
-        <v>0.9967194512833366</v>
+        <v>1.198535029782589</v>
       </c>
       <c r="Q23">
-        <v>0.9990219897789661</v>
+        <v>0.9825850200135392</v>
       </c>
       <c r="R23">
-        <v>0.9998357596188839</v>
+        <v>1.01956735817877</v>
       </c>
       <c r="S23">
-        <v>0.997647953502813</v>
+        <v>1.171083268525852</v>
       </c>
       <c r="T23">
-        <v>0.9998357596188839</v>
+        <v>1.01956735817877</v>
       </c>
       <c r="U23">
-        <v>0.9997530591996044</v>
+        <v>1.043720455137173</v>
       </c>
       <c r="V23">
-        <v>1.001016122617679</v>
+        <v>0.967302767103965</v>
       </c>
       <c r="W23">
-        <v>0.9996987868719758</v>
+        <v>1.036825756020558</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9987088764496752</v>
+        <v>1.09107527314148</v>
       </c>
       <c r="D24">
-        <v>0.9995739654508983</v>
+        <v>0.9623121884336756</v>
       </c>
       <c r="E24">
-        <v>1.001307491005544</v>
+        <v>0.9489378720293017</v>
       </c>
       <c r="F24">
-        <v>0.998933926887475</v>
+        <v>1.03074408250835</v>
       </c>
       <c r="G24">
-        <v>1.000107663060356</v>
+        <v>0.8961192061560384</v>
       </c>
       <c r="H24">
-        <v>1.000107663060356</v>
+        <v>0.8961192061560384</v>
       </c>
       <c r="I24">
-        <v>1.000107663060356</v>
+        <v>0.8961192061560384</v>
       </c>
       <c r="J24">
-        <v>0.9988911172967686</v>
+        <v>1.137269315054173</v>
       </c>
       <c r="K24">
-        <v>1.002150129736611</v>
+        <v>0.9711561553077607</v>
       </c>
       <c r="L24">
-        <v>0.9999278953506071</v>
+        <v>1.031982267584797</v>
       </c>
       <c r="M24">
-        <v>0.9988911172967686</v>
+        <v>1.137269315054173</v>
       </c>
       <c r="N24">
-        <v>1.000107663060356</v>
+        <v>0.8961192061560384</v>
       </c>
       <c r="O24">
-        <v>1.002150129736611</v>
+        <v>0.9711561553077607</v>
       </c>
       <c r="P24">
-        <v>1.00052062351669</v>
+        <v>1.054212735180967</v>
       </c>
       <c r="Q24">
-        <v>1.000542028312043</v>
+        <v>1.000950118908055</v>
       </c>
       <c r="R24">
-        <v>1.000382970031245</v>
+        <v>1.001514892172658</v>
       </c>
       <c r="S24">
-        <v>0.9999917246402849</v>
+        <v>1.046389850956761</v>
       </c>
       <c r="T24">
-        <v>1.000382970031245</v>
+        <v>1.001514892172657</v>
       </c>
       <c r="U24">
-        <v>1.000020709245303</v>
+        <v>1.00882218975658</v>
       </c>
       <c r="V24">
-        <v>1.000038100008313</v>
+        <v>0.986281593036472</v>
       </c>
       <c r="W24">
-        <v>0.9999501331547418</v>
+        <v>1.008699545026947</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.7386952690726108</v>
+        <v>0.9969380340360081</v>
       </c>
       <c r="D25">
-        <v>1.118876613314101</v>
+        <v>1.002520573470641</v>
       </c>
       <c r="E25">
-        <v>1.14158724860542</v>
+        <v>1.001036825181439</v>
       </c>
       <c r="F25">
-        <v>0.9132417776256819</v>
+        <v>0.9995049579417656</v>
       </c>
       <c r="G25">
-        <v>1.328982962628722</v>
+        <v>1.006068376289979</v>
       </c>
       <c r="H25">
-        <v>1.328982962628722</v>
+        <v>1.006068376289979</v>
       </c>
       <c r="I25">
-        <v>1.328982962628722</v>
+        <v>1.006068376289979</v>
       </c>
       <c r="J25">
-        <v>0.6087752629102897</v>
+        <v>0.9948998809505066</v>
       </c>
       <c r="K25">
-        <v>1.060157332243438</v>
+        <v>0.9985390216161666</v>
       </c>
       <c r="L25">
-        <v>0.8971795524067498</v>
+        <v>0.9980826254893002</v>
       </c>
       <c r="M25">
-        <v>0.6087752629102897</v>
+        <v>0.9948998809505066</v>
       </c>
       <c r="N25">
-        <v>1.328982962628722</v>
+        <v>1.006068376289979</v>
       </c>
       <c r="O25">
-        <v>1.060157332243438</v>
+        <v>0.9985390216161666</v>
       </c>
       <c r="P25">
-        <v>0.8344662975768637</v>
+        <v>0.9967194512833366</v>
       </c>
       <c r="Q25">
-        <v>0.9866995549345599</v>
+        <v>0.9990219897789661</v>
       </c>
       <c r="R25">
-        <v>0.9993051859274832</v>
+        <v>0.9998357596188839</v>
       </c>
       <c r="S25">
-        <v>0.8607247909264698</v>
+        <v>0.997647953502813</v>
       </c>
       <c r="T25">
-        <v>0.9993051859274832</v>
+        <v>0.9998357596188839</v>
       </c>
       <c r="U25">
-        <v>0.9777893338520328</v>
+        <v>0.9997530591996044</v>
       </c>
       <c r="V25">
-        <v>1.048028059607371</v>
+        <v>1.001016122617679</v>
       </c>
       <c r="W25">
-        <v>0.9759370023508765</v>
+        <v>0.9996987868719758</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9219961428069141</v>
+        <v>0.9987088764496752</v>
       </c>
       <c r="D26">
-        <v>1.022439094449975</v>
+        <v>0.9995739654508983</v>
       </c>
       <c r="E26">
-        <v>1.047577256399734</v>
+        <v>1.001307491005544</v>
       </c>
       <c r="F26">
-        <v>0.9746200056586706</v>
+        <v>0.998933926887475</v>
       </c>
       <c r="G26">
-        <v>1.054272234625513</v>
+        <v>1.000107663060356</v>
       </c>
       <c r="H26">
-        <v>1.054272234625513</v>
+        <v>1.000107663060356</v>
       </c>
       <c r="I26">
-        <v>1.054272234625513</v>
+        <v>1.000107663060356</v>
       </c>
       <c r="J26">
-        <v>0.8751624151924474</v>
+        <v>0.9988911172967686</v>
       </c>
       <c r="K26">
-        <v>1.046662981219421</v>
+        <v>1.002150129736611</v>
       </c>
       <c r="L26">
-        <v>0.9854981213623133</v>
+        <v>0.9999278953506071</v>
       </c>
       <c r="M26">
-        <v>0.8751624151924474</v>
+        <v>0.9988911172967686</v>
       </c>
       <c r="N26">
-        <v>1.054272234625513</v>
+        <v>1.000107663060356</v>
       </c>
       <c r="O26">
-        <v>1.046662981219421</v>
+        <v>1.002150129736611</v>
       </c>
       <c r="P26">
-        <v>0.9609126982059342</v>
+        <v>1.00052062351669</v>
       </c>
       <c r="Q26">
-        <v>1.010641493439046</v>
+        <v>1.000542028312043</v>
       </c>
       <c r="R26">
-        <v>0.9920325436791272</v>
+        <v>1.000382970031245</v>
       </c>
       <c r="S26">
-        <v>0.9654818006901796</v>
+        <v>0.9999917246402849</v>
       </c>
       <c r="T26">
-        <v>0.9920325436791271</v>
+        <v>1.000382970031245</v>
       </c>
       <c r="U26">
-        <v>0.987679409174013</v>
+        <v>1.000020709245303</v>
       </c>
       <c r="V26">
-        <v>1.000997974264313</v>
+        <v>1.000038100008313</v>
       </c>
       <c r="W26">
-        <v>0.9910285314643736</v>
+        <v>0.9999501331547418</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9926012164310961</v>
+        <v>0.7386952690726108</v>
       </c>
       <c r="D27">
-        <v>1.003614436883144</v>
+        <v>1.118876613314101</v>
       </c>
       <c r="E27">
-        <v>1.003868471422279</v>
+        <v>1.14158724860542</v>
       </c>
       <c r="F27">
-        <v>0.9976702341828176</v>
+        <v>0.9132417776256819</v>
       </c>
       <c r="G27">
-        <v>1.009769760072786</v>
+        <v>1.328982962628722</v>
       </c>
       <c r="H27">
-        <v>1.009769760072786</v>
+        <v>1.328982962628722</v>
       </c>
       <c r="I27">
-        <v>1.009769760072786</v>
+        <v>1.328982962628722</v>
       </c>
       <c r="J27">
-        <v>0.988783609356974</v>
+        <v>0.6087752629102897</v>
       </c>
       <c r="K27">
-        <v>1.001232622467071</v>
+        <v>1.060157332243438</v>
       </c>
       <c r="L27">
-        <v>0.996945985930787</v>
+        <v>0.8971795524067498</v>
       </c>
       <c r="M27">
-        <v>0.988783609356974</v>
+        <v>0.6087752629102897</v>
       </c>
       <c r="N27">
-        <v>1.009769760072786</v>
+        <v>1.328982962628722</v>
       </c>
       <c r="O27">
-        <v>1.001232622467071</v>
+        <v>1.060157332243438</v>
       </c>
       <c r="P27">
-        <v>0.9950081159120223</v>
+        <v>0.8344662975768637</v>
       </c>
       <c r="Q27">
-        <v>0.9994514283249442</v>
+        <v>0.9866995549345599</v>
       </c>
       <c r="R27">
-        <v>0.9999286639656101</v>
+        <v>0.9993051859274832</v>
       </c>
       <c r="S27">
-        <v>0.9958954886689542</v>
+        <v>0.8607247909264698</v>
       </c>
       <c r="T27">
-        <v>0.9999286639656101</v>
+        <v>0.9993051859274832</v>
       </c>
       <c r="U27">
-        <v>0.999364056519912</v>
+        <v>0.9777893338520328</v>
       </c>
       <c r="V27">
-        <v>1.001445197230487</v>
+        <v>1.048028059607371</v>
       </c>
       <c r="W27">
-        <v>0.9993107920933693</v>
+        <v>0.9759370023508765</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.009885432499335</v>
+        <v>0.9219961428069141</v>
       </c>
       <c r="D28">
-        <v>0.9994885432086125</v>
+        <v>1.022439094449975</v>
       </c>
       <c r="E28">
-        <v>0.9929710979543592</v>
+        <v>1.047577256399734</v>
       </c>
       <c r="F28">
-        <v>1.003297378827203</v>
+        <v>0.9746200056586706</v>
       </c>
       <c r="G28">
-        <v>1.000489820470242</v>
+        <v>1.054272234625513</v>
       </c>
       <c r="H28">
-        <v>1.000489820470242</v>
+        <v>1.054272234625513</v>
       </c>
       <c r="I28">
-        <v>1.000489820470242</v>
+        <v>1.054272234625513</v>
       </c>
       <c r="J28">
-        <v>1.016888167018523</v>
+        <v>0.8751624151924474</v>
       </c>
       <c r="K28">
-        <v>0.9890519015804752</v>
+        <v>1.046662981219421</v>
       </c>
       <c r="L28">
-        <v>0.9991541466020808</v>
+        <v>0.9854981213623133</v>
       </c>
       <c r="M28">
-        <v>1.016888167018523</v>
+        <v>0.8751624151924474</v>
       </c>
       <c r="N28">
-        <v>1.000489820470242</v>
+        <v>1.054272234625513</v>
       </c>
       <c r="O28">
-        <v>0.9890519015804752</v>
+        <v>1.046662981219421</v>
       </c>
       <c r="P28">
-        <v>1.002970034299499</v>
+        <v>0.9609126982059342</v>
       </c>
       <c r="Q28">
-        <v>0.9961746402038389</v>
+        <v>1.010641493439046</v>
       </c>
       <c r="R28">
-        <v>1.002143296356413</v>
+        <v>0.9920325436791272</v>
       </c>
       <c r="S28">
-        <v>1.003079149142067</v>
+        <v>0.9654818006901796</v>
       </c>
       <c r="T28">
-        <v>1.002143296356413</v>
+        <v>0.9920325436791271</v>
       </c>
       <c r="U28">
-        <v>1.002431816974111</v>
+        <v>0.987679409174013</v>
       </c>
       <c r="V28">
-        <v>1.002043417673337</v>
+        <v>1.000997974264313</v>
       </c>
       <c r="W28">
-        <v>1.001403311020104</v>
+        <v>0.9910285314643736</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9926012164310961</v>
+      </c>
+      <c r="D29">
+        <v>1.003614436883144</v>
+      </c>
+      <c r="E29">
+        <v>1.003868471422279</v>
+      </c>
+      <c r="F29">
+        <v>0.9976702341828176</v>
+      </c>
+      <c r="G29">
+        <v>1.009769760072786</v>
+      </c>
+      <c r="H29">
+        <v>1.009769760072786</v>
+      </c>
+      <c r="I29">
+        <v>1.009769760072786</v>
+      </c>
+      <c r="J29">
+        <v>0.988783609356974</v>
+      </c>
+      <c r="K29">
+        <v>1.001232622467071</v>
+      </c>
+      <c r="L29">
+        <v>0.996945985930787</v>
+      </c>
+      <c r="M29">
+        <v>0.988783609356974</v>
+      </c>
+      <c r="N29">
+        <v>1.009769760072786</v>
+      </c>
+      <c r="O29">
+        <v>1.001232622467071</v>
+      </c>
+      <c r="P29">
+        <v>0.9950081159120223</v>
+      </c>
+      <c r="Q29">
+        <v>0.9994514283249442</v>
+      </c>
+      <c r="R29">
+        <v>0.9999286639656101</v>
+      </c>
+      <c r="S29">
+        <v>0.9958954886689542</v>
+      </c>
+      <c r="T29">
+        <v>0.9999286639656101</v>
+      </c>
+      <c r="U29">
+        <v>0.999364056519912</v>
+      </c>
+      <c r="V29">
+        <v>1.001445197230487</v>
+      </c>
+      <c r="W29">
+        <v>0.9993107920933693</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.009885432499335</v>
+      </c>
+      <c r="D30">
+        <v>0.9994885432086125</v>
+      </c>
+      <c r="E30">
+        <v>0.9929710979543592</v>
+      </c>
+      <c r="F30">
+        <v>1.003297378827203</v>
+      </c>
+      <c r="G30">
+        <v>1.000489820470242</v>
+      </c>
+      <c r="H30">
+        <v>1.000489820470242</v>
+      </c>
+      <c r="I30">
+        <v>1.000489820470242</v>
+      </c>
+      <c r="J30">
+        <v>1.016888167018523</v>
+      </c>
+      <c r="K30">
+        <v>0.9890519015804752</v>
+      </c>
+      <c r="L30">
+        <v>0.9991541466020808</v>
+      </c>
+      <c r="M30">
+        <v>1.016888167018523</v>
+      </c>
+      <c r="N30">
+        <v>1.000489820470242</v>
+      </c>
+      <c r="O30">
+        <v>0.9890519015804752</v>
+      </c>
+      <c r="P30">
+        <v>1.002970034299499</v>
+      </c>
+      <c r="Q30">
+        <v>0.9961746402038389</v>
+      </c>
+      <c r="R30">
+        <v>1.002143296356413</v>
+      </c>
+      <c r="S30">
+        <v>1.003079149142067</v>
+      </c>
+      <c r="T30">
+        <v>1.002143296356413</v>
+      </c>
+      <c r="U30">
+        <v>1.002431816974111</v>
+      </c>
+      <c r="V30">
+        <v>1.002043417673337</v>
+      </c>
+      <c r="W30">
+        <v>1.001403311020104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.037923710137449</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9908856899009137</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.976251528392305</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.011875123358037</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9807563861481579</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9807563861481579</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9807563861481579</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.062640662584481</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9731460358580927</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.004346705225237</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.062640662584481</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9807563861481579</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9731460358580927</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.017893349221287</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9925105796080649</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.005514361530244</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.015887273933537</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.005514361530244</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.007104551987192</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>1.001834918819385</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.004728230200584</v>
       </c>
     </row>
